--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15570" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15570" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="165">
   <si>
     <t>Name</t>
   </si>
@@ -427,9 +427,6 @@
   </si>
   <si>
     <t>What is the function of DMA controlled in embedded system?</t>
-  </si>
-  <si>
-    <t>Do you know ELF format?</t>
   </si>
   <si>
     <t>What are the different schedulers class present in the linux kernel?</t>
@@ -487,6 +484,53 @@
   </si>
   <si>
     <t xml:space="preserve">PID 0 - idle task / PID 1 - init </t>
+  </si>
+  <si>
+    <t>Do you know ELF format? List up some section in ELF</t>
+  </si>
+  <si>
+    <t>init call machinism in kernel</t>
+  </si>
+  <si>
+    <t>Explain the dictionary in Python</t>
+  </si>
+  <si>
+    <t>How are global and local variables defined in Python?</t>
+  </si>
+  <si>
+    <t>In general, variables that are defined outside of functions are global.  Variables defined inside a function can also be made global, by using the command ‘global x’, for example, to create a global variable called ‘x’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name and describe some common default modules included in Python.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describe the difference between a list and a tuple.</t>
+  </si>
+  <si>
+    <t>A list can be changed by internal operations.  A tuple cannot be changed; it can only be operated on.  Different methods are used for each.</t>
+  </si>
+  <si>
+    <t>Describe a few ways to generate a random number in Python.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    random() – this command returns a floating point number, between 0 and 1.
+    uniform(x,y) – this command returns a floating point number between the values given for x and y.
+    randint(x,y) – this command returns a random integer between the values given for x and y.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is a negative index in Python?</t>
+  </si>
+  <si>
+    <t>While positive indices begin with position 0 and follow with 1, 2, etc., negative indices end with -1.  -2; -3 is the position before that, and so on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Python's built-in data type is dictionary, which defines one-to-one relationships between keys and values.
+Dictionaries consist of pairs of keys and their corresponding values.
+Dictionaries are indexed by keys.
+</t>
   </si>
 </sst>
 </file>
@@ -761,6 +805,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -770,29 +826,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1118,7 +1162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
@@ -1181,11 +1225,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
+      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1209,21 +1253,21 @@
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="11"/>
@@ -1250,7 +1294,7 @@
       <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1265,7 +1309,7 @@
       <c r="D10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1278,7 +1322,7 @@
         <v>72</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1291,7 +1335,7 @@
         <v>73</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1304,7 +1348,7 @@
         <v>82</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1318,7 +1362,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1331,7 +1375,7 @@
         <v>89</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1344,7 +1388,7 @@
         <v>90</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1357,7 +1401,7 @@
         <v>132</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1367,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1379,11 +1423,11 @@
       <c r="B20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="9" t="s">
@@ -1409,7 +1453,7 @@
       <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1424,7 +1468,7 @@
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1439,7 +1483,7 @@
       <c r="D24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1454,7 +1498,7 @@
       <c r="D25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1469,7 +1513,7 @@
       <c r="D26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1484,7 +1528,7 @@
       <c r="D27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1499,11 +1543,11 @@
       <c r="D28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="22.5">
+      <c r="E28" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1514,7 +1558,7 @@
       <c r="D29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1529,7 +1573,7 @@
       <c r="D30" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1544,7 +1588,7 @@
       <c r="D31" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1559,7 +1603,7 @@
       <c r="D32" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1574,7 +1618,7 @@
       <c r="D33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1584,12 +1628,12 @@
         <v>13</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1598,21 +1642,21 @@
       <c r="B36" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B37" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B38" s="9" t="s">
@@ -1628,17 +1672,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="28" customFormat="1" ht="33.75">
+    <row r="39" spans="2:5" s="24" customFormat="1" ht="33.75">
       <c r="B39" s="20">
         <v>1</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1649,10 +1693,10 @@
       <c r="C40" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1663,10 +1707,10 @@
       <c r="C41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1677,10 +1721,10 @@
       <c r="C42" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1694,7 +1738,7 @@
       <c r="D43" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1703,12 +1747,12 @@
         <v>6</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1728,21 +1772,21 @@
       <c r="B47" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="23"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="9" t="s">
@@ -1762,13 +1806,13 @@
       <c r="B50" s="8">
         <v>1</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="23" t="s">
         <v>110</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1778,12 +1822,12 @@
         <v>2</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1798,7 +1842,7 @@
       <c r="D52" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1813,7 +1857,7 @@
       <c r="D53" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1827,7 +1871,7 @@
       <c r="D54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1839,7 +1883,7 @@
         <v>105</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1848,10 +1892,10 @@
         <v>7</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D56" s="7"/>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1865,21 +1909,21 @@
       <c r="B59" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="2:5" ht="15" customHeight="1">
       <c r="B60" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="23"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
     </row>
     <row r="61" spans="2:5" ht="15" customHeight="1">
       <c r="B61" s="9" t="s">
@@ -1903,7 +1947,7 @@
         <v>64</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1916,20 +1960,20 @@
         <v>63</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="45">
       <c r="B64" s="8">
-        <f t="shared" ref="B64:B65" si="3">B63+1</f>
+        <f t="shared" ref="B64:B80" si="3">B63+1</f>
         <v>3</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1942,1146 +1986,1314 @@
         <v>81</v>
       </c>
       <c r="D65" s="7"/>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="8">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D66" s="7"/>
-      <c r="E66" s="25" t="s">
+      <c r="E66" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="8">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="8">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D68" s="7"/>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="8">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D69" s="7"/>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="8">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="25" t="s">
+      <c r="E70" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="8">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D71" s="7"/>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="8">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="8">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="25" t="s">
-        <v>15</v>
-      </c>
+      <c r="E73" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="8">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="8">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="8">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="21"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
+      <c r="B77" s="8">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="21"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="23"/>
+      <c r="B78" s="8">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="21"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="B79" s="8">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="21"/>
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="8">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="26"/>
+      <c r="E85" s="27"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="8">
         <v>1</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="8">
-        <f>B80+1</f>
+      <c r="D87" s="13"/>
+      <c r="E87" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="8">
+        <f>B87+1</f>
         <v>2</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="8">
-        <f t="shared" ref="B82:B83" si="4">B81+1</f>
+      <c r="E88" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="8">
+        <f t="shared" ref="B89:B90" si="4">B88+1</f>
         <v>3</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="8">
+      <c r="E89" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="8">
+      <c r="D90" s="7"/>
+      <c r="E90" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="8">
         <v>5</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="8">
+      <c r="D91" s="7"/>
+      <c r="E91" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="8">
         <v>6</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="8">
+      <c r="D92" s="7"/>
+      <c r="E92" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="8">
         <v>7</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C93" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="8">
-        <v>8</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="8">
-        <v>9</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="23"/>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>13</v>
+      <c r="E93" s="21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="8">
-        <f>B94+1</f>
+        <v>9</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="26"/>
+      <c r="E99" s="27"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="8">
+        <v>1</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="8">
+        <f>B101+1</f>
         <v>2</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="8">
-        <f t="shared" ref="B96:B97" si="5">B95+1</f>
+      <c r="C102" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="8">
+        <f t="shared" ref="B103:B104" si="5">B102+1</f>
         <v>3</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="8">
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="8">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="8">
         <v>5</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="8">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="8">
         <v>6</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="8">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="8">
         <v>7</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="8">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="8">
         <v>8</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B102" s="8">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B109" s="8">
         <v>9</v>
       </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B103" s="17"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="19"/>
-    </row>
-    <row r="104" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1"/>
-    <row r="105" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B105" s="15" t="s">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B110" s="17"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="19"/>
+    </row>
+    <row r="111" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1"/>
+    <row r="112" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B112" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C112" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="23"/>
-    </row>
-    <row r="106" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B106" s="9" t="s">
+      <c r="D112" s="26"/>
+      <c r="E112" s="27"/>
+    </row>
+    <row r="113" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B113" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D113" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E113" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B107" s="8">
+    <row r="114" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B114" s="8">
         <v>1</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C114" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D114" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="22.5">
-      <c r="B108" s="8">
-        <f>B107+1</f>
+      <c r="E114" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="22.5">
+      <c r="B115" s="8">
+        <f>B114+1</f>
         <v>2</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C115" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D115" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E108" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="56.25">
-      <c r="B109" s="8">
-        <f t="shared" ref="B109:B110" si="6">B108+1</f>
+      <c r="E115" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="45">
+      <c r="B116" s="8">
+        <f t="shared" ref="B116:B117" si="6">B115+1</f>
         <v>3</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D116" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="8">
+      <c r="E116" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" s="8">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C117" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D117" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E110" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" s="8">
+      <c r="E117" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" s="8">
         <v>5</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C118" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D118" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="8"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="25"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="B113" s="17"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="26"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="11"/>
-      <c r="B115" s="14" t="s">
+      <c r="E118" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" s="8"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="21"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" s="17"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="22"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="11"/>
+      <c r="B122" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C122" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="11"/>
-      <c r="B116" s="15" t="s">
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="11"/>
+      <c r="B123" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C123" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="23"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="11"/>
-      <c r="B117" s="9" t="s">
+      <c r="D123" s="26"/>
+      <c r="E123" s="27"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="11"/>
+      <c r="B124" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C124" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D124" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E124" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="11"/>
-      <c r="B118" s="8">
+    <row r="125" spans="1:5">
+      <c r="A125" s="11"/>
+      <c r="B125" s="8">
         <v>1</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D118" s="13" t="s">
+      <c r="D125" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E118" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="B119" s="8">
-        <f>B118+1</f>
+      <c r="E125" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" s="8">
+        <f>B125+1</f>
         <v>2</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D126" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E119" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="B120" s="8">
-        <f t="shared" ref="B120:B121" si="7">B119+1</f>
+      <c r="E126" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" s="8">
+        <f t="shared" ref="B127:B128" si="7">B126+1</f>
         <v>3</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C127" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D127" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E120" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="B121" s="8">
+      <c r="E127" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" s="8">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C128" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D128" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E121" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="B122" s="8">
-        <v>5</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="B123" s="8">
-        <v>6</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="B124" s="17"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="26"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="B126" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="B127" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D127" s="22"/>
-      <c r="E127" s="23"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="B128" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>13</v>
+      <c r="E128" s="21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="2:5">
       <c r="B129" s="8">
+        <v>5</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="8">
+        <v>6</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="17"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="22"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" s="26"/>
+      <c r="E134" s="27"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="8">
         <v>1</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C136" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" ht="22.5">
-      <c r="B130" s="8">
-        <f>B129+1</f>
+      <c r="D136" s="13"/>
+      <c r="E136" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" ht="22.5">
+      <c r="B137" s="8">
+        <f>B136+1</f>
         <v>2</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C137" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D130" s="6"/>
-      <c r="E130" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" s="8">
-        <f t="shared" ref="B131:B132" si="8">B130+1</f>
+      <c r="D137" s="6"/>
+      <c r="E137" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="8">
+        <f t="shared" ref="B138:B148" si="8">B137+1</f>
         <v>3</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C138" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" s="8">
+      <c r="D138" s="7"/>
+      <c r="E138" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="8">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D132" s="7"/>
-      <c r="E132" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" s="8">
+      <c r="D139" s="7"/>
+      <c r="E139" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" ht="67.5">
+      <c r="B140" s="8">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" s="8">
+      <c r="C140" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" ht="45">
+      <c r="B141" s="8">
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="5"/>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" s="8">
-        <v>7</v>
-      </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D139" s="22"/>
-      <c r="E139" s="23"/>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141" s="8">
-        <v>1</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E141" s="25" t="s">
+      <c r="C141" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E141" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="142" spans="2:5">
       <c r="B142" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" ht="33.75">
+      <c r="B143" s="8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" ht="90">
+      <c r="B144" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" ht="33.75">
+      <c r="B145" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="8">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="8">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="8">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D152" s="26"/>
+      <c r="E152" s="27"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="8">
+        <v>1</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="8">
         <v>2</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C155" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D142" s="7"/>
-      <c r="E142" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" s="8">
-        <f t="shared" ref="B143:B144" si="9">B142+1</f>
+      <c r="D155" s="7"/>
+      <c r="E155" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="8">
+        <f t="shared" ref="B156:B157" si="9">B155+1</f>
         <v>3</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C156" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D156" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E143" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="8">
+      <c r="E156" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="8">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C157" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D144" s="7"/>
-      <c r="E144" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="B145" s="8">
+      <c r="D157" s="7"/>
+      <c r="E157" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="8">
         <v>5</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C158" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D145" s="7"/>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="B146" s="8">
+      <c r="D158" s="7"/>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="8">
         <v>6</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C159" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="5"/>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="8">
+      <c r="D159" s="7"/>
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="8">
         <v>7</v>
       </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="B149" s="17"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="19"/>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" s="14" t="s">
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="17"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="19"/>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C150" s="24" t="s">
+      <c r="C163" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="B151" s="15" t="s">
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C164" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D151" s="22"/>
-      <c r="E151" s="23"/>
-    </row>
-    <row r="152" spans="2:5">
-      <c r="B152" s="9" t="s">
+      <c r="D164" s="26"/>
+      <c r="E164" s="27"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C165" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D165" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="10" t="s">
+      <c r="E165" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:5">
-      <c r="B153" s="8">
+    <row r="166" spans="2:5">
+      <c r="B166" s="8">
         <v>1</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C166" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D166" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="B154" s="8">
-        <f>B153+1</f>
+      <c r="E166" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="8">
+        <f>B166+1</f>
         <v>2</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D167" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E154" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="B155" s="8">
-        <f t="shared" ref="B155:B156" si="10">B154+1</f>
+      <c r="E167" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="8">
+        <f t="shared" ref="B168:B169" si="10">B167+1</f>
         <v>3</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C168" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D155" s="13" t="s">
+      <c r="D168" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E155" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5">
-      <c r="B156" s="8">
+      <c r="E168" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C169" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D156" s="13" t="s">
+      <c r="D169" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="14" t="s">
+      <c r="E169" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C159" s="24" t="s">
+      <c r="C172" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-    </row>
-    <row r="160" spans="2:5">
-      <c r="B160" s="15" t="s">
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="21" t="s">
+      <c r="C173" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D160" s="22"/>
-      <c r="E160" s="23"/>
-    </row>
-    <row r="161" spans="2:5">
-      <c r="B161" s="9" t="s">
+      <c r="D173" s="26"/>
+      <c r="E173" s="27"/>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C174" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D174" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E161" s="10" t="s">
+      <c r="E174" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:5">
-      <c r="B162" s="8">
+    <row r="175" spans="2:5">
+      <c r="B175" s="8">
         <v>1</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C175" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D162" s="13" t="s">
+      <c r="D175" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E162" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" ht="22.5">
-      <c r="B163" s="8">
-        <f>B162+1</f>
+      <c r="E175" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" s="8">
+        <f>B175+1</f>
         <v>2</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D176" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E163" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164" s="8">
-        <f t="shared" ref="B164:B165" si="11">B163+1</f>
+      <c r="E176" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="8">
+        <f t="shared" ref="B177:B178" si="11">B176+1</f>
         <v>3</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C177" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D177" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E164" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5">
-      <c r="B165" s="8">
+      <c r="E177" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="8">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C178" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D178" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E165" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5">
-      <c r="B166" s="8">
+      <c r="E178" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="8">
         <v>5</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C179" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D179" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E166" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5">
-      <c r="B167" s="8">
+      <c r="E179" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="8">
         <v>6</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C180" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D180" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5">
-      <c r="B168" s="8">
+      <c r="E180" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="8">
         <v>7</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C181" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D181" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E168" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5">
-      <c r="B169" s="8">
+      <c r="E181" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="8">
         <v>8</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C182" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D182" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E169" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5">
-      <c r="B170" s="8">
+      <c r="E182" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="8">
         <v>8</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C183" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D183" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E170" s="25" t="s">
+      <c r="E183" s="21" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C112:E112"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E153:E156 E22:E34 E118:E124 E94:E100 E141:E144 E80:E87 E39:E44 E129:E132 E162:E170 E50:E56 E107:E113 E9:E18 E62:E73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E166:E169 E22:E34 E125:E131 E101:E107 E154:E157 E87:E94 E39:E44 E136:E145 E175:E183 E50:E56 E114:E120 E9:E18 E62:E80">
       <formula1>"△,○,×"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15570" windowHeight="11640" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
     <sheet name="Question" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="229">
   <si>
     <t>Name</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>grep -r "\&lt;main\&gt;" .</t>
-  </si>
-  <si>
-    <t>editor : vim &amp; emacs to develop code ? Any plugin ? How to search for a function?</t>
   </si>
   <si>
     <t>any experience ftrace ?</t>
@@ -593,15 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userspace app debug / gdb related
-list up gdb command
-how to set breakpoint
-about watchpoint
-bt meaning
-machinsm about breakpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,23 +763,83 @@
     <t>Self-introduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>userspace app debug / gdb related
+list up gdb command ?
+how to set breakpoint ? (b main)
+about watchpoint
+bt meaning ? (show stack)  How to jump to upper function? (up)
+machinsm about breakpoint
+thread related command (info threads;  thread (id))</t>
+  </si>
+  <si>
+    <t>editor : vim &amp; emacs to develop code ? Any plugin ? How to search for a function? Use cscope to search for function?</t>
+  </si>
+  <si>
+    <t>How to redirect error meg to a file?</t>
+  </si>
+  <si>
+    <t>prog 2&gt; /path/to/file</t>
+  </si>
+  <si>
+    <t>How to know the usage of one command?</t>
+  </si>
+  <si>
+    <t>man cmd &amp; command -h(--help) &amp; info cmd</t>
+  </si>
+  <si>
+    <t>Please list up some common used command in Linux.</t>
+  </si>
+  <si>
+    <t>How many lines code did you write using the shell / python?</t>
+  </si>
+  <si>
+    <t>How do you define a function in a shell script?</t>
+  </si>
+  <si>
+    <t>function-name() { #some code here return }</t>
+  </si>
+  <si>
+    <t>How do you fire a process in the background?</t>
+  </si>
+  <si>
+    <t>./process-name &amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you refer to the arguments passed to a shell script? </t>
+  </si>
+  <si>
+    <t>$1, $2 and so on. $0 is your script name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What’s the conditional statement in shell scripting? </t>
+  </si>
+  <si>
+    <t>if {condition} then … fi</t>
+  </si>
+  <si>
+    <t>How does a case statement look in shell scripts?</t>
+  </si>
+  <si>
+    <t>case {variable} in {possible-value-1}) {statement};; {possible-value-2}) {statement};; esac</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -799,7 +847,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -807,7 +855,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -815,7 +863,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -823,7 +871,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -831,7 +879,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -839,7 +887,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -847,7 +895,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -856,7 +904,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -864,7 +912,7 @@
     <font>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -873,7 +921,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -881,13 +929,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1063,6 +1111,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1072,15 +1123,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 强调文字颜色 1" xfId="2" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
     <cellStyle name="警告文本" xfId="3" builtinId="11"/>
-    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1401,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1409,19 +1457,19 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="83.125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" ht="15" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" ht="15" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1437,27 +1485,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" ht="15" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" ht="15" customHeight="1">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="24" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="14.45" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,52 +1514,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E228"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="3" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="62.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.25" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="9" t="s">
         <v>7</v>
@@ -1526,7 +1574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="B9" s="8">
         <v>1</v>
       </c>
@@ -1540,7 +1588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="B10" s="8">
         <f>B9+1</f>
         <v>2</v>
@@ -1555,46 +1603,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="B11" s="8">
-        <f t="shared" ref="B11:B18" si="0">B10+1</f>
+        <f t="shared" ref="B11:B19" si="0">B10+1</f>
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="12"/>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
@@ -1608,7 +1656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1621,7 +1669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1634,77 +1682,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" ht="22.5">
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="17"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="17"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="17"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="17"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" ht="19.899999999999999" customHeight="1">
       <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" customHeight="1">
       <c r="B24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
@@ -1718,934 +1771,961 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" ht="15" customHeight="1">
       <c r="B26" s="8">
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>13</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D26" s="13"/>
       <c r="E26" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" ht="15" customHeight="1">
       <c r="B27" s="8">
         <f>B26+1</f>
         <v>2</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="2:5" ht="23.45" customHeight="1">
+      <c r="B28" s="8">
+        <f t="shared" ref="B28:B41" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="8">
-        <f>B27+1</f>
-        <v>3</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="E28" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="23.45" customHeight="1">
+      <c r="B29" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="8">
-        <f>B28+1</f>
-        <v>4</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15" customHeight="1">
+      <c r="B30" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="8">
-        <f t="shared" ref="B30:B38" si="1">B29+1</f>
-        <v>5</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="E30" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" ht="15" customHeight="1">
       <c r="B31" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5">
       <c r="B32" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5">
       <c r="B33" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>18</v>
+      <c r="C33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="B34" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5">
       <c r="B35" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" ht="33.75">
       <c r="B36" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5">
       <c r="B37" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5">
       <c r="B38" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="8">
-        <f t="shared" ref="B39:B42" si="2">B38+1</f>
-        <v>14</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="E39" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
-      <c r="B40" s="8">
+      <c r="E40" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="67.5">
+      <c r="B41" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="8">
+        <f t="shared" ref="B42:B46" si="2">B41+1</f>
+        <v>17</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="8">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="8">
+        <v>18</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="8">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="C41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="8">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="8">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="17"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="2:5" ht="15" customHeight="1"/>
+    <row r="49" spans="2:5" ht="19.899999999999999" customHeight="1">
+      <c r="B49" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" s="24" customFormat="1" ht="78.75">
+      <c r="B52" s="20">
+        <v>1</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="8">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="17"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="17"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="22"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="17"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="22"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="17"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="22"/>
-    </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="15" t="s">
+      <c r="E52" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="8">
+        <f>B52+1</f>
+        <v>2</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="45">
+      <c r="B54" s="8">
+        <f t="shared" ref="B54:B58" si="3">B53+1</f>
         <v>3</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
-    </row>
-    <row r="50" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" s="24" customFormat="1" ht="63" x14ac:dyDescent="0.15">
-      <c r="B51" s="20">
-        <v>1</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B52" s="8">
-        <f>B51+1</f>
-        <v>2</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B53" s="8">
-        <f t="shared" ref="B53:B57" si="3">B52+1</f>
-        <v>3</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="23" t="s">
+      <c r="C54" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B54" s="8">
+      <c r="E54" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="8">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D55" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B55" s="8">
-        <f>B54+1</f>
+      <c r="E55" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="8">
+        <f>B55+1</f>
         <v>5</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D56" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="8">
+      <c r="E56" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="C57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B57" s="8">
+      <c r="E57" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="17"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="22"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E58" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="17"/>
       <c r="C59" s="25"/>
       <c r="D59" s="18"/>
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5">
       <c r="B60" s="17"/>
       <c r="C60" s="25"/>
       <c r="D60" s="18"/>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5">
       <c r="B61" s="17"/>
       <c r="C61" s="25"/>
       <c r="D61" s="18"/>
       <c r="E61" s="22"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5">
       <c r="B62" s="17"/>
       <c r="C62" s="25"/>
       <c r="D62" s="18"/>
       <c r="E62" s="22"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5">
       <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B64" s="14" t="s">
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="28"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="15" t="s">
+      <c r="C65" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C66" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="28"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B66" s="9" t="s">
+      <c r="D66" s="28"/>
+      <c r="E66" s="29"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D67" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E67" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B67" s="8">
+    <row r="68" spans="2:5" ht="22.5">
+      <c r="B68" s="8">
         <v>1</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B68" s="8">
-        <f>B67+1</f>
+      <c r="C68" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="22.5">
+      <c r="B69" s="8">
+        <f>B68+1</f>
         <v>2</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="C69" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E68" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B69" s="8">
-        <f t="shared" ref="B69:B76" si="4">B68+1</f>
+      <c r="E69" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="8">
+        <f t="shared" ref="B70:B77" si="4">B69+1</f>
         <v>3</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B70" s="8">
+      <c r="D70" s="7"/>
+      <c r="E70" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B71" s="8">
+      <c r="E71" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="8">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="7" t="s">
+      <c r="C72" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B72" s="8">
+      <c r="E72" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B73" s="8">
+      <c r="C73" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B74" s="8">
+      <c r="C74" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="8">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B75" s="8">
+      <c r="C75" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B76" s="8">
+      <c r="E76" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="8">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="19"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B78" s="14" t="s">
+      <c r="C77" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="19"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C79" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="E80" s="29"/>
+    </row>
+    <row r="81" spans="2:5" ht="15" customHeight="1">
+      <c r="B81" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="15" customHeight="1">
+      <c r="B82" s="8">
+        <v>1</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B79" s="15" t="s">
+      <c r="D82" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="15" customHeight="1">
+      <c r="B83" s="8">
+        <f>B82+1</f>
+        <v>2</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="8">
+        <f t="shared" ref="B84:B96" si="5">B83+1</f>
         <v>3</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="27"/>
-      <c r="E79" s="28"/>
-    </row>
-    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="8">
-        <v>1</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="8">
-        <f>B81+1</f>
-        <v>2</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" s="8">
-        <f t="shared" ref="B83:B95" si="5">B82+1</f>
-        <v>3</v>
-      </c>
-      <c r="C83" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B84" s="8">
+      <c r="D84" s="6"/>
+      <c r="E84" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="45">
+      <c r="B85" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B85" s="8">
+      <c r="C85" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="8">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B86" s="8">
+      <c r="D86" s="7"/>
+      <c r="E86" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="8">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B87" s="8">
+      <c r="D87" s="7"/>
+      <c r="E87" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B88" s="8">
+      <c r="D88" s="7"/>
+      <c r="E88" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="8">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B89" s="8">
+      <c r="D89" s="7"/>
+      <c r="E89" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="8">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B90" s="8">
+      <c r="C90" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="8">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B91" s="8">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
       <c r="C91" s="7" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5">
       <c r="B92" s="8">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D92" s="7"/>
       <c r="E92" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5">
       <c r="B93" s="8">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D93" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="E93" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5">
       <c r="B94" s="8">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="63" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:5">
       <c r="B95" s="8">
         <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="67.5">
+      <c r="B96" s="8">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B96" s="8">
-        <f t="shared" ref="B96:B100" si="6">B95+1</f>
+      <c r="E96" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="33.75">
+      <c r="B97" s="8">
+        <f t="shared" ref="B97:B101" si="6">B96+1</f>
         <v>16</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B97" s="8">
+      <c r="C97" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="8">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D97" s="7"/>
-      <c r="E97" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B98" s="8">
+      <c r="C98" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="22.5">
+      <c r="B99" s="8">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B99" s="8">
+      <c r="C99" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="8">
         <f t="shared" si="6"/>
         <v>19</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B100" s="8">
-        <f t="shared" si="6"/>
-        <v>20</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -2653,261 +2733,262 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B104" s="14" t="s">
+    <row r="101" spans="2:5">
+      <c r="B101" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C105" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B105" s="15" t="s">
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C106" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="28"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B106" s="9" t="s">
+      <c r="D106" s="28"/>
+      <c r="E106" s="29"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D107" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E107" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B107" s="8">
+    <row r="108" spans="2:5">
+      <c r="B108" s="8">
         <v>1</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B108" s="8">
-        <f>B107+1</f>
-        <v>2</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:5">
       <c r="B109" s="8">
         <f>B108+1</f>
+        <v>2</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="8">
+        <f>B109+1</f>
         <v>3</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C110" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E109" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B110" s="8">
-        <f t="shared" ref="B110:B116" si="7">B109+1</f>
+      <c r="E110" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="8">
+        <f t="shared" ref="B111:B117" si="7">B110+1</f>
         <v>4</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C111" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B111" s="8">
+      <c r="E111" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="8">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B112" s="8">
+      <c r="C112" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="8">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B113" s="8">
+      <c r="C113" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="8">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B114" s="8">
+      <c r="C114" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="8">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C115" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B115" s="8">
+      <c r="E115" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="22.5">
+      <c r="B116" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D115" s="7"/>
-      <c r="E115" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B116" s="8">
+      <c r="C116" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="8">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C117" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B119" s="14" t="s">
+      <c r="E117" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C120" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="28"/>
+      <c r="E121" s="29"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="8">
+        <v>1</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123" s="13"/>
+      <c r="E123" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="8">
+        <f>B123+1</f>
+        <v>2</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B120" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D120" s="27"/>
-      <c r="E120" s="28"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B121" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B122" s="8">
-        <v>1</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B123" s="8">
-        <f>B122+1</f>
-        <v>2</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B124" s="8">
-        <f t="shared" ref="B124:B125" si="8">B123+1</f>
-        <v>3</v>
-      </c>
-      <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:5">
       <c r="B125" s="8">
+        <f t="shared" ref="B125:B126" si="8">B124+1</f>
+        <v>3</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="8">
         <f t="shared" si="8"/>
         <v>4</v>
-      </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B126" s="8">
-        <v>5</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2915,9 +2996,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:5">
       <c r="B127" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2925,9 +3006,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:5">
       <c r="B128" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2935,89 +3016,84 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:5">
       <c r="B129" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E129" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
       <c r="B130" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="17"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="19"/>
-    </row>
-    <row r="132" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="15" t="s">
+    <row r="131" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B131" s="8">
+        <v>9</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B132" s="17"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="19"/>
+    </row>
+    <row r="133" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1"/>
+    <row r="134" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B134" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C134" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D133" s="27"/>
-      <c r="E133" s="28"/>
-    </row>
-    <row r="134" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="9" t="s">
+      <c r="D134" s="28"/>
+      <c r="E134" s="29"/>
+    </row>
+    <row r="135" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B135" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D135" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E135" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="8">
+    <row r="136" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B136" s="8">
         <v>1</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C136" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="D136" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E135" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B136" s="8">
-        <f>B135+1</f>
+      <c r="E136" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" ht="22.5">
+      <c r="B137" s="8">
+        <f>B136+1</f>
         <v>2</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C137" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B137" s="8">
-        <f t="shared" ref="B137:B144" si="9">B136+1</f>
-        <v>3</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>41</v>
@@ -3026,96 +3102,100 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:5" ht="33.75">
       <c r="B138" s="8">
+        <f t="shared" ref="B138:B145" si="9">B137+1</f>
+        <v>3</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="8">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D139" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E138" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B139" s="8">
+      <c r="E139" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" ht="22.5">
+      <c r="B140" s="8">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D139" s="7" t="s">
+      <c r="C140" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E139" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B140" s="8">
+      <c r="E140" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="8">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D140" s="7" t="s">
+      <c r="C141" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B141" s="8">
+      <c r="E141" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" ht="33.75">
+      <c r="B142" s="8">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B142" s="8">
+      <c r="C142" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="8">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B143" s="8">
+      <c r="C143" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="8">
         <f t="shared" si="9"/>
         <v>9</v>
-      </c>
-      <c r="C143" s="7"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B144" s="8">
-        <f t="shared" si="9"/>
-        <v>10</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="6"/>
@@ -3123,86 +3203,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B145" s="17"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="22"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A147" s="11"/>
-      <c r="B147" s="14" t="s">
+    <row r="145" spans="1:5">
+      <c r="B145" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="B146" s="17"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="22"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="11"/>
+      <c r="B148" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C147" s="29" t="s">
+      <c r="C148" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="11"/>
+      <c r="B149" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A148" s="11"/>
-      <c r="B148" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D148" s="27"/>
-      <c r="E148" s="28"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A149" s="11"/>
-      <c r="B149" s="9" t="s">
+      <c r="D149" s="28"/>
+      <c r="E149" s="29"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="11"/>
+      <c r="B150" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C150" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D150" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="E150" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A150" s="11"/>
-      <c r="B150" s="8">
+    <row r="151" spans="1:5">
+      <c r="A151" s="11"/>
+      <c r="B151" s="8">
         <v>1</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C151" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="B152" s="8">
+        <f>B151+1</f>
+        <v>2</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B151" s="8">
-        <f>B150+1</f>
-        <v>2</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B152" s="8">
-        <f t="shared" ref="B152:B155" si="10">B151+1</f>
-        <v>3</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>41</v>
@@ -3211,96 +3287,100 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5">
       <c r="B153" s="8">
+        <f t="shared" ref="B153:B156" si="10">B152+1</f>
+        <v>3</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="B154" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C154" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D154" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E153" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B154" s="8">
+      <c r="E154" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="B155" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C155" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D155" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E154" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B155" s="8">
+      <c r="E155" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="B156" s="8">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D155" s="7" t="s">
+      <c r="C156" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E155" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B156" s="8">
-        <f t="shared" ref="B156:B160" si="11">B155+1</f>
+      <c r="E156" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="B157" s="8">
+        <f t="shared" ref="B157:B161" si="11">B156+1</f>
         <v>7</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B157" s="8">
+      <c r="C157" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="33.75">
+      <c r="B158" s="8">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D157" s="7" t="s">
+      <c r="C158" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E157" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B158" s="8">
+      <c r="D158" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="B159" s="8">
         <f t="shared" si="11"/>
         <v>9</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B159" s="8">
-        <f t="shared" si="11"/>
-        <v>10</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
@@ -3308,10 +3388,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5">
       <c r="B160" s="8">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
@@ -3319,762 +3399,857 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B161" s="17"/>
-      <c r="C161" s="25"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="22"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B163" s="14" t="s">
+    <row r="161" spans="2:5">
+      <c r="B161" s="8">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="17"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="22"/>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C163" s="29" t="s">
+      <c r="C164" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B164" s="15" t="s">
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C165" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D164" s="27"/>
-      <c r="E164" s="28"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B165" s="9" t="s">
+      <c r="D165" s="28"/>
+      <c r="E165" s="29"/>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C166" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D166" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E165" s="10" t="s">
+      <c r="E166" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B166" s="8">
+    <row r="167" spans="2:5">
+      <c r="B167" s="8">
         <v>1</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C167" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D166" s="13"/>
-      <c r="E166" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B167" s="8">
-        <f>B166+1</f>
+      <c r="D167" s="13"/>
+      <c r="E167" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="8">
+        <f>B167+1</f>
         <v>2</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C168" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D168" s="13"/>
+      <c r="E168" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="8">
+        <f>B168+1</f>
+        <v>3</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D167" s="6"/>
-      <c r="E167" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B168" s="8">
-        <f t="shared" ref="B168:B179" si="12">B167+1</f>
-        <v>3</v>
-      </c>
-      <c r="C168" s="7" t="s">
+      <c r="D169" s="6"/>
+      <c r="E169" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" s="8">
+        <f t="shared" ref="B170:B186" si="12">B169+1</f>
+        <v>4</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D168" s="7"/>
-      <c r="E168" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B169" s="8">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D169" s="7"/>
-      <c r="E169" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B170" s="8">
+      <c r="D170" s="7"/>
+      <c r="E170" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="8">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C170" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E170" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
-      <c r="B171" s="8">
+      <c r="C171" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D171" s="7"/>
+      <c r="E171" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="8">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E171" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B172" s="8">
+      <c r="C172" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="8">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E172" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B173" s="8">
+      <c r="C173" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="8">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D173" s="7"/>
-      <c r="E173" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B174" s="8">
+      <c r="C174" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="8">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E174" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" ht="84" x14ac:dyDescent="0.15">
-      <c r="B175" s="8">
+      <c r="C175" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E175" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" ht="22.5">
+      <c r="B176" s="8">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E175" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B176" s="8">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
       <c r="C176" s="7" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="E176" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:5">
       <c r="B177" s="8">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
-      <c r="E177" s="5"/>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E177" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" ht="67.5">
       <c r="B178" s="8">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="5"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E178" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" ht="45">
       <c r="B179" s="8">
         <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E179" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="8">
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B182" s="14" t="s">
+      <c r="C180" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D180" s="7"/>
+      <c r="E180" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" ht="33.75">
+      <c r="B181" s="8">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E181" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" ht="90">
+      <c r="B182" s="8">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E182" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" ht="33.75">
+      <c r="B183" s="8">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E183" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" s="8">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="5"/>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" s="8">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" s="8">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C182" s="29" t="s">
+      <c r="C189" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" s="28"/>
+      <c r="E190" s="29"/>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" s="8">
+        <v>1</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D192" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" s="8">
+        <v>2</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" s="8">
+        <f t="shared" ref="B194:B195" si="13">B193+1</f>
+        <v>3</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D194" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B183" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D183" s="27"/>
-      <c r="E183" s="28"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B184" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E184" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B185" s="8">
-        <v>1</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D185" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E185" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B186" s="8">
-        <v>2</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D186" s="7"/>
-      <c r="E186" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B187" s="8">
-        <f t="shared" ref="B187:B188" si="13">B186+1</f>
-        <v>3</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E187" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B188" s="8">
+      <c r="E194" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" s="8">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D188" s="7"/>
-      <c r="E188" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B189" s="8">
+      <c r="C195" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D195" s="7"/>
+      <c r="E195" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" s="8">
         <v>5</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C196" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D196" s="7"/>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" s="8">
+        <v>6</v>
+      </c>
+      <c r="C197" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D189" s="7"/>
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B190" s="8">
-        <v>6</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D190" s="7"/>
-      <c r="E190" s="5"/>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B191" s="8">
+      <c r="D197" s="7"/>
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" s="8">
         <v>7</v>
       </c>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="4"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B193" s="17"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="19"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B194" s="14" t="s">
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" s="17"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="18"/>
+      <c r="E200" s="19"/>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C194" s="29" t="s">
+      <c r="C201" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D194" s="29"/>
-      <c r="E194" s="29"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B195" s="15" t="s">
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C195" s="26" t="s">
+      <c r="C202" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="27"/>
-      <c r="E195" s="28"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B196" s="9" t="s">
+      <c r="D202" s="28"/>
+      <c r="E202" s="29"/>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C203" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D203" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E196" s="10" t="s">
+      <c r="E203" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B197" s="8">
+    <row r="204" spans="2:5">
+      <c r="B204" s="8">
         <v>1</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="C204" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D197" s="13" t="s">
+      <c r="D204" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E197" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B198" s="8">
-        <f>B197+1</f>
+      <c r="E204" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" s="8">
+        <f>B204+1</f>
         <v>2</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C205" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D198" s="13" t="s">
+      <c r="D205" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E198" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B199" s="8">
-        <f t="shared" ref="B199:B200" si="14">B198+1</f>
+      <c r="E205" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" s="8">
+        <f t="shared" ref="B206:B207" si="14">B205+1</f>
         <v>3</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C206" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D199" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E199" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B200" s="8">
+      <c r="D206" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E206" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" s="8">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="C200" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D200" s="13" t="s">
+      <c r="C207" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D207" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E200" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B203" s="17"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="19"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B204" s="14" t="s">
+      <c r="E207" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="B210" s="17"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="19"/>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C204" s="29" t="s">
+      <c r="C211" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="B212" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D212" s="28"/>
+      <c r="E212" s="29"/>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="B213" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" ht="45">
+      <c r="B214" s="8">
+        <v>1</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E214" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5">
+      <c r="B215" s="8">
+        <f>B214+1</f>
+        <v>2</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D204" s="29"/>
-      <c r="E204" s="29"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B205" s="15" t="s">
+      <c r="D215" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E215" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="B216" s="8">
+        <f t="shared" ref="B216:B217" si="15">B215+1</f>
         <v>3</v>
       </c>
-      <c r="C205" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D205" s="27"/>
-      <c r="E205" s="28"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B206" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E206" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B207" s="8">
-        <v>1</v>
-      </c>
-      <c r="C207" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D207" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E207" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B208" s="8">
-        <f>B207+1</f>
-        <v>2</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D208" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E208" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B209" s="8">
-        <f t="shared" ref="B209:B210" si="15">B208+1</f>
-        <v>3</v>
-      </c>
-      <c r="C209" s="7"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B210" s="8">
+      <c r="C216" s="7"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5">
+      <c r="B217" s="8">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="C210" s="7"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B215" s="14" t="s">
+      <c r="C217" s="7"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5">
+      <c r="B222" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C215" s="29" t="s">
+      <c r="C222" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D215" s="29"/>
-      <c r="E215" s="29"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B216" s="15" t="s">
+      <c r="D222" s="26"/>
+      <c r="E222" s="26"/>
+    </row>
+    <row r="223" spans="2:5">
+      <c r="B223" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C216" s="26" t="s">
+      <c r="C223" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D216" s="27"/>
-      <c r="E216" s="28"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B217" s="9" t="s">
+      <c r="D223" s="28"/>
+      <c r="E223" s="29"/>
+    </row>
+    <row r="224" spans="2:5">
+      <c r="B224" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C224" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D224" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E217" s="10" t="s">
+      <c r="E224" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B218" s="8">
+    <row r="225" spans="2:5">
+      <c r="B225" s="8">
         <v>1</v>
       </c>
-      <c r="C218" s="13" t="s">
+      <c r="C225" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D218" s="13" t="s">
+      <c r="D225" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E218" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B219" s="8">
-        <f>B218+1</f>
+      <c r="E225" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5">
+      <c r="B226" s="8">
+        <f>B225+1</f>
         <v>2</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C226" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D219" s="6" t="s">
+      <c r="D226" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E219" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B220" s="8">
-        <f t="shared" ref="B220:B228" si="16">B219+1</f>
+      <c r="E226" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5">
+      <c r="B227" s="8">
+        <f t="shared" ref="B227:B235" si="16">B226+1</f>
         <v>3</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D220" s="7" t="s">
+      <c r="C227" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D227" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E220" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B221" s="8">
+      <c r="E227" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5">
+      <c r="B228" s="8">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C228" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D228" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E221" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B222" s="8">
+      <c r="E228" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5">
+      <c r="B229" s="8">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C229" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D229" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E222" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B223" s="8">
+      <c r="E229" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5">
+      <c r="B230" s="8">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="C223" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D223" s="7" t="s">
+      <c r="C230" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D230" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E223" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B224" s="8">
+      <c r="E230" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5">
+      <c r="B231" s="8">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D224" s="7" t="s">
+      <c r="C231" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D231" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E224" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B225" s="8">
+      <c r="E231" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" ht="22.5">
+      <c r="B232" s="8">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="C225" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D225" s="7" t="s">
+      <c r="C232" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D232" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E225" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B226" s="8">
+      <c r="E232" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5">
+      <c r="B233" s="8">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D226" s="7" t="s">
+      <c r="C233" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E226" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B227" s="8">
+      <c r="E233" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5">
+      <c r="B234" s="8">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="C227" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D227" s="7" t="s">
+      <c r="C234" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D234" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E227" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B228" s="8">
+      <c r="E234" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5">
+      <c r="B235" s="8">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="C228" s="6"/>
-      <c r="D228" s="7" t="s">
+      <c r="C235" s="6"/>
+      <c r="D235" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E228" s="21" t="s">
+      <c r="E235" s="21" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C215:E215"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C204:E204"/>
-    <mergeCell ref="C205:E205"/>
+    <mergeCell ref="C202:E202"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C104:E104"/>
     <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C148:E148"/>
     <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C222:E222"/>
+    <mergeCell ref="C223:E223"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C190:E190"/>
     <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C194:E194"/>
-    <mergeCell ref="C195:E195"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="C201:E201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E197:E200 E107:E116 E51:E62 E122:E128 E185:E188 E207:E210 E218:E228 E67:E76 E135:E145 E81:E100 E9:E22 E166:E176 E26:E46 E150:E161">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E204:E207 E108:E117 E52:E63 E123:E129 E192:E195 E214:E217 E225:E235 E68:E77 E136:E146 E82:E101 E167:E183 E9:E22 E151:E162 E26:E47">
       <formula1>"△,○,×"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15570" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15570" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
     <sheet name="Question" sheetId="5" r:id="rId2"/>
+    <sheet name="U-Boot" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="240">
   <si>
     <t>Name</t>
   </si>
@@ -534,10 +535,6 @@
   </si>
   <si>
     <t>What /proc used to? List up some /proc filesystem file?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/proc/cpuinfo, /proc/meminfo, /proc/pid/maps, /proc/stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -822,6 +819,43 @@
   </si>
   <si>
     <t>case {variable} in {possible-value-1}) {statement};; {possible-value-2}) {statement};; esac</t>
+  </si>
+  <si>
+    <t>Bootloader related</t>
+  </si>
+  <si>
+    <t>To check if one familiar with bootloader development</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which bootloader did you devleop? U-Boot or some other bootloader? The feature?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please list up some command in U-Boot?</t>
+  </si>
+  <si>
+    <t>printenv ; setenv; saveenv; bootm;bdinfo</t>
+  </si>
+  <si>
+    <t>How to pass Kernel Arguments in U-Boot?</t>
+  </si>
+  <si>
+    <t>setenv bootargs root=/dev/ram rw</t>
+  </si>
+  <si>
+    <t>/proc/cpuinfo, /proc/meminfo, /proc/pid/maps, /proc/stat
+/proc/cmdline</t>
+  </si>
+  <si>
+    <t>List up some env variables in U-Boot?</t>
+  </si>
+  <si>
+    <t>bootdelay / baudrate / netmask / ethaddr</t>
+  </si>
+  <si>
+    <t>Please describe U-Boot dir strucure?</t>
+  </si>
+  <si>
+    <t>Please describe U-Boot boot sequence?</t>
   </si>
 </sst>
 </file>
@@ -1138,6 +1172,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="dir_structure.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="95250"/>
+          <a:ext cx="6315075" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="bootloader-startup.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="4552950"/>
+          <a:ext cx="6353175" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1515,11 +1630,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1544,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
@@ -1554,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
@@ -1635,7 +1750,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="21" t="s">
@@ -1701,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="21" t="s">
@@ -1776,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="21" t="s">
@@ -1922,10 +2037,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>11</v>
@@ -2012,7 +2127,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="21" t="s">
@@ -2025,10 +2140,10 @@
         <v>18</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>11</v>
@@ -2040,10 +2155,10 @@
         <v>19</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>11</v>
@@ -2055,10 +2170,10 @@
         <v>20</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>11</v>
@@ -2070,10 +2185,10 @@
         <v>21</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>11</v>
@@ -2125,10 +2240,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>11</v>
@@ -2155,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>24</v>
@@ -2265,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="29"/>
@@ -2299,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>11</v>
@@ -2372,10 +2487,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>11</v>
@@ -2387,10 +2502,10 @@
         <v>7</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>11</v>
@@ -2405,13 +2520,13 @@
         <v>118</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:5" ht="22.5">
       <c r="B76" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -2419,8 +2534,8 @@
       <c r="C76" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>157</v>
+      <c r="D76" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>11</v>
@@ -2432,10 +2547,10 @@
         <v>10</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>11</v>
@@ -2452,7 +2567,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
@@ -2462,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="29"/>
@@ -2486,10 +2601,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>11</v>
@@ -2605,7 +2720,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="21" t="s">
@@ -2631,7 +2746,7 @@
         <v>12</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>117</v>
@@ -2646,7 +2761,7 @@
         <v>13</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="21" t="s">
@@ -2687,10 +2802,10 @@
         <v>16</v>
       </c>
       <c r="C97" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>11</v>
@@ -2702,7 +2817,7 @@
         <v>17</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="21" t="s">
@@ -2715,7 +2830,7 @@
         <v>18</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="21" t="s">
@@ -2796,7 +2911,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="21" t="s">
@@ -3016,7 +3131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
+    <row r="129" spans="1:5">
       <c r="B129" s="8">
         <v>7</v>
       </c>
@@ -3026,7 +3141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="1:5">
       <c r="B130" s="8">
         <v>8</v>
       </c>
@@ -3034,7 +3149,7 @@
       <c r="D130" s="7"/>
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="131" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B131" s="8">
         <v>9</v>
       </c>
@@ -3042,548 +3157,525 @@
       <c r="D131" s="7"/>
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="132" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B132" s="17"/>
       <c r="C132" s="18"/>
       <c r="D132" s="18"/>
       <c r="E132" s="19"/>
     </row>
-    <row r="133" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1"/>
-    <row r="134" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B134" s="15" t="s">
+    <row r="133" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B133" s="17"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="19"/>
+    </row>
+    <row r="134" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A135"/>
+      <c r="B135" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+    </row>
+    <row r="136" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A136"/>
+      <c r="B136" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D134" s="28"/>
-      <c r="E134" s="29"/>
-    </row>
-    <row r="135" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B135" s="9" t="s">
+      <c r="C136" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D136" s="28"/>
+      <c r="E136" s="29"/>
+    </row>
+    <row r="137" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A137"/>
+      <c r="B137" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C137" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D137" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="E137" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B136" s="8">
+    <row r="138" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A138"/>
+      <c r="B138" s="8">
         <v>1</v>
       </c>
-      <c r="C136" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" ht="22.5">
-      <c r="B137" s="8">
-        <f>B136+1</f>
+      <c r="C138" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D138" s="13"/>
+      <c r="E138" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A139"/>
+      <c r="B139" s="8">
+        <f>B138+1</f>
         <v>2</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" ht="33.75">
-      <c r="B138" s="8">
-        <f t="shared" ref="B138:B145" si="9">B137+1</f>
+      <c r="C139" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A140"/>
+      <c r="B140" s="8">
+        <f t="shared" ref="B140:B141" si="9">B139+1</f>
         <v>3</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" s="8">
+      <c r="C140" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A141"/>
+      <c r="B141" s="8">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D139" s="7" t="s">
+      <c r="C141" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A142"/>
+      <c r="B142" s="8">
+        <v>5</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A143"/>
+      <c r="B143" s="8">
+        <v>6</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A144"/>
+      <c r="B144" s="8">
+        <v>7</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A145"/>
+      <c r="B145" s="8">
+        <v>8</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B146" s="8">
+        <v>9</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B147" s="17"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="19"/>
+    </row>
+    <row r="148" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B148" s="17"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="19"/>
+    </row>
+    <row r="149" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B149" s="17"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="19"/>
+    </row>
+    <row r="150" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B150" s="17"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="19"/>
+    </row>
+    <row r="151" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1"/>
+    <row r="152" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B152" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" s="28"/>
+      <c r="E152" s="29"/>
+    </row>
+    <row r="153" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B153" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B154" s="8">
+        <v>1</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E139" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" ht="22.5">
-      <c r="B140" s="8">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D140" s="7" t="s">
+      <c r="E154" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="22.5">
+      <c r="B155" s="8">
+        <f>B154+1</f>
+        <v>2</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141" s="8">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D141" s="7" t="s">
+      <c r="E155" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="33.75">
+      <c r="B156" s="8">
+        <f t="shared" ref="B156:B163" si="10">B155+1</f>
+        <v>3</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E141" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" ht="33.75">
-      <c r="B142" s="8">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" s="8">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E143" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="8">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="C144" s="7"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="B145" s="8">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="B146" s="17"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="22"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="11"/>
-      <c r="B148" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="11"/>
-      <c r="B149" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D149" s="28"/>
-      <c r="E149" s="29"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="11"/>
-      <c r="B150" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="11"/>
-      <c r="B151" s="8">
-        <v>1</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D151" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="B152" s="8">
-        <f>B151+1</f>
-        <v>2</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="B153" s="8">
-        <f t="shared" ref="B153:B156" si="10">B152+1</f>
-        <v>3</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="B154" s="8">
+      <c r="E156" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="B157" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C157" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D157" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E154" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="B155" s="8">
+      <c r="E157" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="22.5">
+      <c r="B158" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D155" s="7" t="s">
+      <c r="C158" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D158" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E155" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="B156" s="8">
+      <c r="E158" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="B159" s="8">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C159" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="33.75">
+      <c r="B160" s="8">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="B161" s="8">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="B162" s="8">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" s="8">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" s="17"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="22"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="11"/>
+      <c r="B166" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="11"/>
+      <c r="B167" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D167" s="28"/>
+      <c r="E167" s="29"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="11"/>
+      <c r="B168" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="11"/>
+      <c r="B169" s="8">
+        <v>1</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="B170" s="8">
+        <f>B169+1</f>
+        <v>2</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" s="8">
+        <f t="shared" ref="B171:B174" si="11">B170+1</f>
+        <v>3</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="B173" s="8">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="B174" s="8">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="C174" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E156" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="B157" s="8">
-        <f t="shared" ref="B157:B161" si="11">B156+1</f>
+      <c r="E174" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="B175" s="8">
+        <f t="shared" ref="B175:B179" si="12">B174+1</f>
         <v>7</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C175" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D175" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E157" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="33.75">
-      <c r="B158" s="8">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E158" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="B159" s="8">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="B160" s="8">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5">
-      <c r="B161" s="8">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="C161" s="6"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5">
-      <c r="B162" s="17"/>
-      <c r="C162" s="25"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="22"/>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
-    </row>
-    <row r="165" spans="2:5">
-      <c r="B165" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D165" s="28"/>
-      <c r="E165" s="29"/>
-    </row>
-    <row r="166" spans="2:5">
-      <c r="B166" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5">
-      <c r="B167" s="8">
-        <v>1</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D167" s="13"/>
-      <c r="E167" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5">
-      <c r="B168" s="8">
-        <f>B167+1</f>
-        <v>2</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D168" s="13"/>
-      <c r="E168" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5">
-      <c r="B169" s="8">
-        <f>B168+1</f>
-        <v>3</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D169" s="6"/>
-      <c r="E169" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5">
-      <c r="B170" s="8">
-        <f t="shared" ref="B170:B186" si="12">B169+1</f>
-        <v>4</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D170" s="7"/>
-      <c r="E170" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5">
-      <c r="B171" s="8">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D171" s="7"/>
-      <c r="E171" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5">
-      <c r="B172" s="8">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E172" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5">
-      <c r="B173" s="8">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E173" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5">
-      <c r="B174" s="8">
+      <c r="E175" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="33.75">
+      <c r="B176" s="8">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E174" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5">
-      <c r="B175" s="8">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E175" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" ht="22.5">
-      <c r="B176" s="8">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>228</v>
+      <c r="C176" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="E176" s="21" t="s">
         <v>11</v>
@@ -3592,172 +3684,180 @@
     <row r="177" spans="2:5">
       <c r="B177" s="8">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="C177" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C177" s="6"/>
       <c r="D177" s="7"/>
       <c r="E177" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="67.5">
+    <row r="178" spans="2:5">
       <c r="B178" s="8">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>127</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="7"/>
       <c r="E178" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="45">
+    <row r="179" spans="2:5">
       <c r="B179" s="8">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="7"/>
       <c r="E179" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="8">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D180" s="7"/>
-      <c r="E180" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" ht="33.75">
-      <c r="B181" s="8">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E181" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" ht="90">
-      <c r="B182" s="8">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E182" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" ht="33.75">
-      <c r="B183" s="8">
-        <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E183" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="B180" s="17"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="22"/>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D183" s="28"/>
+      <c r="E183" s="29"/>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="8">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="5"/>
+      <c r="B184" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="8">
-        <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" s="13"/>
+      <c r="E185" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="186" spans="2:5">
       <c r="B186" s="8">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="4"/>
+        <f>B185+1</f>
+        <v>2</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D186" s="13"/>
+      <c r="E186" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" s="8">
+        <f>B186+1</f>
+        <v>3</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D187" s="6"/>
+      <c r="E187" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" s="8">
+        <f t="shared" ref="B188:B204" si="13">B187+1</f>
+        <v>4</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D188" s="7"/>
+      <c r="E188" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="189" spans="2:5">
-      <c r="B189" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
+      <c r="B189" s="8">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D189" s="7"/>
+      <c r="E189" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="190" spans="2:5">
-      <c r="B190" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D190" s="28"/>
-      <c r="E190" s="29"/>
+      <c r="B190" s="8">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E190" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="8">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="C191" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E191" s="10" t="s">
-        <v>9</v>
+      <c r="C191" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="2:5">
       <c r="B192" s="8">
-        <v>1</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>24</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="E192" s="21" t="s">
         <v>11</v>
@@ -3765,26 +3865,29 @@
     </row>
     <row r="193" spans="2:5">
       <c r="B193" s="8">
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D193" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="E193" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="2:5">
+    <row r="194" spans="2:5" ht="22.5">
       <c r="B194" s="8">
-        <f t="shared" ref="B194:B195" si="13">B193+1</f>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>85</v>
+        <v>226</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="E194" s="21" t="s">
         <v>11</v>
@@ -3793,274 +3896,336 @@
     <row r="195" spans="2:5">
       <c r="B195" s="8">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>88</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="2:5">
+    <row r="196" spans="2:5" ht="67.5">
       <c r="B196" s="8">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D196" s="7"/>
-      <c r="E196" s="4"/>
-    </row>
-    <row r="197" spans="2:5">
+        <v>120</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E196" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" ht="45">
       <c r="B197" s="8">
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D197" s="7"/>
-      <c r="E197" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E197" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="8">
-        <v>7</v>
-      </c>
-      <c r="C198" s="7"/>
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="D198" s="7"/>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="200" spans="2:5">
-      <c r="B200" s="17"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="19"/>
-    </row>
-    <row r="201" spans="2:5">
-      <c r="B201" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
+      <c r="E198" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" ht="33.75">
+      <c r="B199" s="8">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E199" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" ht="90">
+      <c r="B200" s="8">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E200" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" ht="33.75">
+      <c r="B201" s="8">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E201" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D202" s="28"/>
-      <c r="E202" s="29"/>
+      <c r="B202" s="8">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="5"/>
     </row>
     <row r="203" spans="2:5">
-      <c r="B203" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E203" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B203" s="8">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="5"/>
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="8">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D207" s="26"/>
+      <c r="E207" s="26"/>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" s="28"/>
+      <c r="E208" s="29"/>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="B209" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="B210" s="8">
         <v>1</v>
       </c>
-      <c r="C204" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D204" s="13" t="s">
+      <c r="C210" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D210" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E204" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5">
-      <c r="B205" s="8">
-        <f>B204+1</f>
+      <c r="E210" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211" s="8">
         <v>2</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D205" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E205" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5">
-      <c r="B206" s="8">
-        <f t="shared" ref="B206:B207" si="14">B205+1</f>
+      <c r="C211" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D211" s="7"/>
+      <c r="E211" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="B212" s="8">
+        <f t="shared" ref="B212:B213" si="14">B211+1</f>
         <v>3</v>
       </c>
-      <c r="C206" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D206" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E206" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5">
-      <c r="B207" s="8">
+      <c r="C212" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E212" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="B213" s="8">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="C207" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D207" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E207" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5">
-      <c r="B210" s="17"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="19"/>
-    </row>
-    <row r="211" spans="2:5">
-      <c r="B211" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C211" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D211" s="26"/>
-      <c r="E211" s="26"/>
-    </row>
-    <row r="212" spans="2:5">
-      <c r="B212" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D212" s="28"/>
-      <c r="E212" s="29"/>
-    </row>
-    <row r="213" spans="2:5">
-      <c r="B213" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E213" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5" ht="45">
+      <c r="C213" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D213" s="7"/>
+      <c r="E213" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5">
       <c r="B214" s="8">
-        <v>1</v>
-      </c>
-      <c r="C214" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D214" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E214" s="21" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D214" s="7"/>
+      <c r="E214" s="4"/>
     </row>
     <row r="215" spans="2:5">
       <c r="B215" s="8">
-        <f>B214+1</f>
-        <v>2</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D215" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E215" s="21" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="7"/>
+      <c r="E215" s="5"/>
     </row>
     <row r="216" spans="2:5">
       <c r="B216" s="8">
-        <f t="shared" ref="B216:B217" si="15">B215+1</f>
+        <v>7</v>
+      </c>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="4"/>
+    </row>
+    <row r="218" spans="2:5">
+      <c r="B218" s="17"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
+      <c r="E218" s="19"/>
+    </row>
+    <row r="219" spans="2:5">
+      <c r="B219" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+    </row>
+    <row r="220" spans="2:5">
+      <c r="B220" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C216" s="7"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5">
-      <c r="B217" s="8">
+      <c r="C220" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" s="28"/>
+      <c r="E220" s="29"/>
+    </row>
+    <row r="221" spans="2:5">
+      <c r="B221" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5">
+      <c r="B222" s="8">
+        <v>1</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D222" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5">
+      <c r="B223" s="8">
+        <f>B222+1</f>
+        <v>2</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E223" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5">
+      <c r="B224" s="8">
+        <f t="shared" ref="B224:B225" si="15">B223+1</f>
+        <v>3</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E224" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5">
+      <c r="B225" s="8">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="C217" s="7"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5">
-      <c r="B222" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C222" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D222" s="26"/>
-      <c r="E222" s="26"/>
-    </row>
-    <row r="223" spans="2:5">
-      <c r="B223" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C223" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D223" s="28"/>
-      <c r="E223" s="29"/>
-    </row>
-    <row r="224" spans="2:5">
-      <c r="B224" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E224" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5">
-      <c r="B225" s="8">
-        <v>1</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>23</v>
+      <c r="C225" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="D225" s="13" t="s">
         <v>24</v>
@@ -4069,106 +4234,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="2:5">
-      <c r="B226" s="8">
-        <f>B225+1</f>
-        <v>2</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E226" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5">
-      <c r="B227" s="8">
-        <f t="shared" ref="B227:B235" si="16">B226+1</f>
+    <row r="228" spans="2:5">
+      <c r="B228" s="17"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="18"/>
+      <c r="E228" s="19"/>
+    </row>
+    <row r="229" spans="2:5">
+      <c r="B229" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+    </row>
+    <row r="230" spans="2:5">
+      <c r="B230" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C227" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E227" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5">
-      <c r="B228" s="8">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E228" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5">
-      <c r="B229" s="8">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D229" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E229" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5">
-      <c r="B230" s="8">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E230" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="C230" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D230" s="28"/>
+      <c r="E230" s="29"/>
     </row>
     <row r="231" spans="2:5">
-      <c r="B231" s="8">
-        <f t="shared" si="16"/>
+      <c r="B231" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C231" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E231" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5" ht="22.5">
+      <c r="C231" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" ht="45">
       <c r="B232" s="8">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C232" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D232" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="E232" s="21" t="s">
         <v>11</v>
@@ -4176,13 +4290,13 @@
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="8">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>B232+1</f>
+        <v>2</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D233" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D233" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E233" s="21" t="s">
@@ -4191,15 +4305,11 @@
     </row>
     <row r="234" spans="2:5">
       <c r="B234" s="8">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>24</v>
-      </c>
+        <f t="shared" ref="B234:B235" si="16">B233+1</f>
+        <v>3</v>
+      </c>
+      <c r="C234" s="7"/>
+      <c r="D234" s="13"/>
       <c r="E234" s="21" t="s">
         <v>11</v>
       </c>
@@ -4207,53 +4317,264 @@
     <row r="235" spans="2:5">
       <c r="B235" s="8">
         <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="C235" s="6"/>
-      <c r="D235" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="7"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5">
+      <c r="B240" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" s="26"/>
+      <c r="E240" s="26"/>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D241" s="28"/>
+      <c r="E241" s="29"/>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243" s="8">
+        <v>1</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E235" s="21" t="s">
+      <c r="E243" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" s="8">
+        <f>B243+1</f>
+        <v>2</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E244" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" s="8">
+        <f t="shared" ref="B245:B253" si="17">B244+1</f>
+        <v>3</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E245" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246" s="8">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247" s="8">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E247" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" s="8">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E248" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" s="8">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E249" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" ht="22.5">
+      <c r="B250" s="8">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E250" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" s="8">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E251" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252" s="8">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E252" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="B253" s="8">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="C253" s="6"/>
+      <c r="D253" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E253" s="21" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C202:E202"/>
+  <mergeCells count="29">
+    <mergeCell ref="C220:E220"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C136:E136"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C105:E105"/>
     <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C166:E166"/>
     <mergeCell ref="C120:E120"/>
     <mergeCell ref="C121:E121"/>
     <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C152:E152"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C222:E222"/>
-    <mergeCell ref="C223:E223"/>
+    <mergeCell ref="C240:E240"/>
+    <mergeCell ref="C241:E241"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C208:E208"/>
     <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C189:E189"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="C183:E183"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C167:E167"/>
     <mergeCell ref="C79:E79"/>
     <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="C219:E219"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E204:E207 E108:E117 E52:E63 E123:E129 E192:E195 E214:E217 E225:E235 E68:E77 E136:E146 E82:E101 E167:E183 E9:E22 E151:E162 E26:E47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E222:E225 E108:E117 E52:E63 E123:E129 E210:E213 E232:E235 E243:E253 E68:E77 E154:E164 E82:E101 E185:E201 E9:E22 E169:E180 E26:E47 E138:E144">
       <formula1>"△,○,×"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="268">
   <si>
     <t>Name</t>
   </si>
@@ -634,14 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPL &amp; BSD license difference?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is EXPORT_SYMBOL() and EXPORT_SYMBOL_GPL() ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">If programmer wants some symbols(function/data) to be used in other kernel modules, then those symbols should be exported using these macro. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -704,10 +696,6 @@
   </si>
   <si>
     <t>What is NFS ? How to config nfs server?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux Development tool experience</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -805,12 +793,6 @@
     <t>To check if one familiar with bootloader development</t>
   </si>
   <si>
-    <t xml:space="preserve"> Which bootloader did you devleop? U-Boot or some other bootloader? The feature?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Please list up some command in U-Boot?</t>
-  </si>
-  <si>
     <t>printenv ; setenv; saveenv; bootm;bdinfo</t>
   </si>
   <si>
@@ -938,6 +920,58 @@
   </si>
   <si>
     <t>Explain different ARM registers especially SPSR and CPSR.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What /dev/mem used for? Memroy is physical address / virutal address?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is EXPORT_SYMBOL() and EXPORT_SYMBOL_GPL() ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPL &amp; LGPL &amp; BSD license difference?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which bootloader did you devleop? U-Boot or some other bootloader? The feature?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please list up some command in U-Boot?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux Development tool &amp; Userspace &amp; library experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load dynamic link library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is LD_PRELOAD used for?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What does dlopen() API mean?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is LD_LIBRARY_PATH used for?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What is meant by cross-compiler? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复代码 / 长方法 / 太多的参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,6 +1262,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1235,9 +1272,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1713,11 +1747,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C259" sqref="C259"/>
+      <pane ySplit="3" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1741,21 +1775,21 @@
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
@@ -1833,7 +1867,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="21" t="s">
@@ -1928,21 +1962,21 @@
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
@@ -2020,21 +2054,21 @@
       <c r="B32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
@@ -2055,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="21" t="s">
@@ -2306,10 +2340,10 @@
         <v>18</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>11</v>
@@ -2321,10 +2355,10 @@
         <v>19</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>11</v>
@@ -2336,10 +2370,10 @@
         <v>20</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>11</v>
@@ -2351,10 +2385,10 @@
         <v>21</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>11</v>
@@ -2366,10 +2400,10 @@
         <v>22</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>11</v>
@@ -2381,10 +2415,10 @@
         <v>23</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>11</v>
@@ -2413,21 +2447,21 @@
       <c r="B62" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29"/>
     </row>
     <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
     </row>
     <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="9" t="s">
@@ -2448,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>163</v>
@@ -2478,10 +2512,10 @@
         <v>3</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>11</v>
@@ -2492,10 +2526,10 @@
         <v>3.1</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>11</v>
@@ -2506,7 +2540,7 @@
         <v>3.2</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="21" t="s">
@@ -2518,7 +2552,7 @@
         <v>3.3</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="21" t="s">
@@ -2607,10 +2641,10 @@
         <v>8</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>11</v>
@@ -2622,10 +2656,10 @@
         <v>9</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>11</v>
@@ -2659,21 +2693,21 @@
       <c r="B83" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="28"/>
+      <c r="C83" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" s="28"/>
+      <c r="E83" s="29"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="29"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" s="9" t="s">
@@ -2694,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>154</v>
@@ -2720,7 +2754,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" s="8">
-        <f t="shared" ref="B88:B95" si="4">B87+1</f>
+        <f t="shared" ref="B88:B98" si="4">B87+1</f>
         <v>3</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -2815,7 +2849,7 @@
         <v>152</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>11</v>
@@ -2827,159 +2861,161 @@
         <v>10</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E95" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="22"/>
+      <c r="B96" s="8">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B97" s="17"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="22"/>
+      <c r="B97" s="8">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="22"/>
+      <c r="B98" s="8">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
-      <c r="E99" s="19"/>
+      <c r="E99" s="22"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="22"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="19"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B103" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C103" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B101" s="15" t="s">
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B104" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D101" s="27"/>
-      <c r="E101" s="28"/>
-    </row>
-    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="9" t="s">
+      <c r="C104" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" s="28"/>
+      <c r="E104" s="29"/>
+    </row>
+    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D105" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E105" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="8">
+    <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="8">
         <v>1</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C106" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D106" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E103" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="8">
-        <f>B103+1</f>
+      <c r="E106" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="8">
+        <f>B106+1</f>
         <v>2</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C107" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B105" s="8">
-        <f t="shared" ref="B105:B117" si="5">B104+1</f>
+      <c r="D107" s="13"/>
+      <c r="E107" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B108" s="8">
+        <f t="shared" ref="B108:B120" si="5">B107+1</f>
         <v>3</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C108" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B106" s="8">
+      <c r="D108" s="6"/>
+      <c r="E108" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="B109" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C109" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B107" s="8">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D107" s="7"/>
-      <c r="E107" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B108" s="8">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B109" s="8">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="21" t="s">
@@ -2989,10 +3025,10 @@
     <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" s="8">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="21" t="s">
@@ -3002,10 +3038,10 @@
     <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" s="8">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="21" t="s">
@@ -3015,10 +3051,10 @@
     <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" s="8">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="21" t="s">
@@ -3028,10 +3064,10 @@
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B113" s="8">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="21" t="s">
@@ -3041,14 +3077,12 @@
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B114" s="8">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D114" s="7"/>
       <c r="E114" s="21" t="s">
         <v>11</v>
       </c>
@@ -3056,10 +3090,10 @@
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="8">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="21" t="s">
@@ -3069,79 +3103,83 @@
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B116" s="8">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="63" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" s="8">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>142</v>
+        <v>169</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E117" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" s="8">
-        <f t="shared" ref="B118:B122" si="6">B117+1</f>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D118" s="7"/>
       <c r="E118" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B119" s="8">
-        <f t="shared" si="6"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:5" ht="63" x14ac:dyDescent="0.15">
       <c r="B120" s="8">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D120" s="7"/>
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="E120" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B121" s="8">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
+        <f t="shared" ref="B121:B125" si="6">B120+1</f>
+        <v>16</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="E121" s="21" t="s">
         <v>11</v>
       </c>
@@ -3149,138 +3187,140 @@
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B122" s="8">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="C122" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="D122" s="7"/>
       <c r="E122" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B126" s="14" t="s">
+    <row r="123" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B123" s="8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B124" s="8">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B125" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B129" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C129" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B127" s="15" t="s">
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B130" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C130" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D127" s="27"/>
-      <c r="E127" s="28"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B128" s="9" t="s">
+      <c r="D130" s="28"/>
+      <c r="E130" s="29"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B131" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D131" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E128" s="10" t="s">
+      <c r="E131" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B129" s="8">
-        <v>1</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B130" s="8">
-        <f>B129+1</f>
-        <v>2</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B131" s="8">
-        <f>B130+1</f>
-        <v>3</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="8">
-        <f t="shared" ref="B132:B138" si="7">B131+1</f>
-        <v>4</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>90</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D132" s="13"/>
       <c r="E132" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="8">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f>B132+1</f>
+        <v>2</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D133" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="D133" s="13"/>
       <c r="E133" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="8">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D134" s="7"/>
+        <f>B133+1</f>
+        <v>3</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="E134" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="8">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D135" s="7"/>
+        <f t="shared" ref="B135:B142" si="7">B134+1</f>
+        <v>4</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="E135" s="21" t="s">
         <v>11</v>
       </c>
@@ -3288,25 +3328,23 @@
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="8">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D136" s="7"/>
       <c r="E136" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="8">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>144</v>
+        <v>6</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="21" t="s">
@@ -3316,295 +3354,276 @@
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" s="8">
         <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B139" s="8">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B140" s="8">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D140" s="7"/>
+      <c r="E140" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B141" s="8">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C141" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D141" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E138" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B141" s="14" t="s">
+      <c r="E141" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B142" s="8">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B143" s="17"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="22"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B144" s="17"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="22"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B147" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C141" s="29" t="s">
+      <c r="C147" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B142" s="15" t="s">
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B148" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C148" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D142" s="27"/>
-      <c r="E142" s="28"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B143" s="9" t="s">
+      <c r="D148" s="28"/>
+      <c r="E148" s="29"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B149" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C149" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D149" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E143" s="10" t="s">
+      <c r="E149" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B144" s="8">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B150" s="8">
         <v>1</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D144" s="13"/>
-      <c r="E144" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B145" s="8">
-        <f>B144+1</f>
+      <c r="D150" s="13"/>
+      <c r="E150" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B151" s="8">
+        <f>B150+1</f>
         <v>2</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B146" s="8">
-        <f t="shared" ref="B146:B147" si="8">B145+1</f>
+      <c r="D151" s="6"/>
+      <c r="E151" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B152" s="8">
+        <f t="shared" ref="B152:B153" si="8">B151+1</f>
         <v>3</v>
       </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B147" s="8">
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B153" s="8">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B148" s="8">
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B154" s="8">
         <v>5</v>
       </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B149" s="8">
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B155" s="8">
         <v>6</v>
       </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B150" s="8">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B156" s="8">
         <v>7</v>
       </c>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B151" s="8">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B157" s="8">
         <v>8</v>
       </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="8">
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="8">
         <v>9</v>
       </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="17"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="19"/>
-    </row>
-    <row r="154" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="17"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="19"/>
-    </row>
-    <row r="155" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155"/>
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-    </row>
-    <row r="156" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156"/>
-      <c r="B156" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-    </row>
-    <row r="157" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157"/>
-      <c r="B157" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D157" s="27"/>
-      <c r="E157" s="28"/>
-    </row>
-    <row r="158" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158"/>
-      <c r="B158" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E158" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159"/>
-      <c r="B159" s="8">
-        <v>1</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D159" s="13"/>
-      <c r="E159" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160"/>
-      <c r="B160" s="8">
-        <f>B159+1</f>
-        <v>2</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="17"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="19"/>
+    </row>
+    <row r="160" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="17"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="19"/>
     </row>
     <row r="161" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161"/>
-      <c r="B161" s="8">
-        <f t="shared" ref="B161:B162" si="9">B160+1</f>
-        <v>3</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E161" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
     </row>
     <row r="162" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162"/>
-      <c r="B162" s="8">
-        <f t="shared" si="9"/>
+      <c r="B162" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="C162" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
     </row>
     <row r="163" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163"/>
-      <c r="B163" s="8">
-        <v>5</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="B163" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D163" s="28"/>
+      <c r="E163" s="29"/>
     </row>
     <row r="164" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164"/>
-      <c r="B164" s="8">
-        <v>6</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="21" t="s">
-        <v>11</v>
+      <c r="B164" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165"/>
       <c r="B165" s="8">
-        <v>7</v>
-      </c>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D165" s="13"/>
       <c r="E165" s="21" t="s">
         <v>11</v>
       </c>
@@ -3612,581 +3631,578 @@
     <row r="166" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166"/>
       <c r="B166" s="8">
+        <f>B165+1</f>
+        <v>2</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167"/>
+      <c r="B167" s="8">
+        <f t="shared" ref="B167:B168" si="9">B166+1</f>
+        <v>3</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E167" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168"/>
+      <c r="B168" s="8">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E168" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169"/>
+      <c r="B169" s="8">
+        <v>5</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D169" s="7"/>
+      <c r="E169" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170"/>
+      <c r="B170" s="8">
+        <v>6</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D170" s="7"/>
+      <c r="E170" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171"/>
+      <c r="B171" s="8">
+        <v>7</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172"/>
+      <c r="B172" s="8">
         <v>8</v>
       </c>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="8">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="8">
         <v>9</v>
       </c>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B168" s="17"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="19"/>
-    </row>
-    <row r="169" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="17"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="19"/>
-    </row>
-    <row r="170" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="17"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="19"/>
-    </row>
-    <row r="171" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="17"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="19"/>
-    </row>
-    <row r="172" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="15" t="s">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="17"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="19"/>
+    </row>
+    <row r="175" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="17"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="19"/>
+    </row>
+    <row r="176" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="17"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="19"/>
+    </row>
+    <row r="177" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="17"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="19"/>
+    </row>
+    <row r="178" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C173" s="26" t="s">
+      <c r="C179" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D173" s="27"/>
-      <c r="E173" s="28"/>
-    </row>
-    <row r="174" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="9" t="s">
+      <c r="D179" s="28"/>
+      <c r="E179" s="29"/>
+    </row>
+    <row r="180" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C180" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D180" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E174" s="10" t="s">
+      <c r="E180" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="8">
+    <row r="181" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="8">
         <v>1</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C181" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="D181" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E175" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B176" s="8">
-        <f>B175+1</f>
+      <c r="E181" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B182" s="8">
+        <f>B181+1</f>
         <v>2</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D182" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E176" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B177" s="8">
-        <f t="shared" ref="B177:B184" si="10">B176+1</f>
+      <c r="E182" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B183" s="8">
+        <f t="shared" ref="B183:B190" si="10">B182+1</f>
         <v>3</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C183" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D183" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E177" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B178" s="8">
+      <c r="E183" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B184" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C184" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D184" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E178" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B179" s="8">
+      <c r="E184" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B185" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D179" s="7" t="s">
+      <c r="C185" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D185" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E179" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B180" s="8">
+      <c r="E185" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B186" s="8">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C186" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D186" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E180" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B181" s="8">
+      <c r="E186" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B187" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E181" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B182" s="8">
+      <c r="C187" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E187" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B188" s="8">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E182" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B183" s="8">
+      <c r="C188" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B189" s="8">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="C183" s="7"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B184" s="8">
+      <c r="C189" s="7"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B190" s="8">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="C184" s="7"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B185" s="17"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="22"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A187" s="11"/>
-      <c r="B187" s="14" t="s">
+      <c r="C190" s="7"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B191" s="17"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="22"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A193" s="11"/>
+      <c r="B193" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C187" s="29" t="s">
+      <c r="C193" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D187" s="29"/>
-      <c r="E187" s="29"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A188" s="11"/>
-      <c r="B188" s="15" t="s">
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194" s="11"/>
+      <c r="B194" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C188" s="26" t="s">
+      <c r="C194" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D188" s="27"/>
-      <c r="E188" s="28"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A189" s="11"/>
-      <c r="B189" s="9" t="s">
+      <c r="D194" s="28"/>
+      <c r="E194" s="29"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195" s="11"/>
+      <c r="B195" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C195" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D189" s="10" t="s">
+      <c r="D195" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E189" s="10" t="s">
+      <c r="E195" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A190" s="11"/>
-      <c r="B190" s="8">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196" s="11"/>
+      <c r="B196" s="8">
         <v>1</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C196" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D190" s="13" t="s">
+      <c r="D196" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E190" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B191" s="8">
-        <f>B190+1</f>
+      <c r="E196" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B197" s="8">
+        <f>B196+1</f>
         <v>2</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C197" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D197" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E191" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B192" s="8">
-        <f t="shared" ref="B192:B195" si="11">B191+1</f>
+      <c r="E197" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B198" s="8">
+        <f t="shared" ref="B198:B201" si="11">B197+1</f>
         <v>3</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C198" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="D198" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E192" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B193" s="8">
+      <c r="E198" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B199" s="8">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C199" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D199" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E193" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B194" s="8">
+      <c r="E199" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B200" s="8">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C200" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D200" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E194" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B195" s="8">
+      <c r="E200" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B201" s="8">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C201" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D201" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E195" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B196" s="8">
-        <f t="shared" ref="B196:B200" si="12">B195+1</f>
+      <c r="E201" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B202" s="8">
+        <f t="shared" ref="B202:B206" si="12">B201+1</f>
         <v>7</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C202" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D202" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E196" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B197" s="8">
+      <c r="E202" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B203" s="8">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C203" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D203" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E197" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B198" s="8">
+      <c r="E203" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B204" s="8">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="C198" s="6"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B199" s="8">
+      <c r="C204" s="6"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B205" s="8">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="C199" s="6"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B200" s="8">
+      <c r="C205" s="6"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B206" s="8">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="C200" s="6"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B201" s="17"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="22"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B203" s="14" t="s">
+      <c r="C206" s="6"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B207" s="17"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="22"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B209" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C203" s="29" t="s">
+      <c r="C209" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B204" s="15" t="s">
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B210" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C204" s="26" t="s">
+      <c r="C210" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="27"/>
-      <c r="E204" s="28"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B205" s="9" t="s">
+      <c r="D210" s="28"/>
+      <c r="E210" s="29"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B211" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C211" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="D211" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E205" s="10" t="s">
+      <c r="E211" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B206" s="8">
-        <v>1</v>
-      </c>
-      <c r="C206" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D206" s="13"/>
-      <c r="E206" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B207" s="8">
-        <f>B206+1</f>
-        <v>2</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D207" s="13"/>
-      <c r="E207" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B208" s="8">
-        <f>B207+1</f>
-        <v>3</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D208" s="6"/>
-      <c r="E208" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B209" s="8">
-        <f t="shared" ref="B209:B225" si="13">B208+1</f>
-        <v>4</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D209" s="7"/>
-      <c r="E209" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B210" s="8">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D210" s="7"/>
-      <c r="E210" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B211" s="8">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E211" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B212" s="8">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212" s="13"/>
       <c r="E212" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B213" s="8">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>217</v>
-      </c>
+        <f>B212+1</f>
+        <v>2</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D213" s="13"/>
       <c r="E213" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B214" s="8">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>219</v>
-      </c>
+        <f>B213+1</f>
+        <v>3</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D214" s="6"/>
       <c r="E214" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B215" s="8">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" ref="B215:B231" si="13">B214+1</f>
+        <v>4</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D215" s="6" t="s">
-        <v>221</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D215" s="7"/>
       <c r="E215" s="21" t="s">
         <v>11</v>
       </c>
@@ -4194,39 +4210,41 @@
     <row r="216" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B216" s="8">
         <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="C216" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D216" s="7"/>
       <c r="E216" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B217" s="8">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E217" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B218" s="8">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>119</v>
+        <v>209</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="E218" s="21" t="s">
         <v>11</v>
@@ -4235,587 +4253,583 @@
     <row r="219" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B219" s="8">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D219" s="7"/>
+        <v>213</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="E219" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B220" s="8">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>120</v>
+        <v>215</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="E220" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="84" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B221" s="8">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="E221" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B222" s="8">
         <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>123</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
       <c r="E222" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B223" s="8">
         <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="5"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E223" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" ht="42" x14ac:dyDescent="0.15">
       <c r="B224" s="8">
         <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E224" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B225" s="8">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="C225" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="D225" s="7"/>
-      <c r="E225" s="4"/>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B228" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C228" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D228" s="29"/>
-      <c r="E228" s="29"/>
+      <c r="E225" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B226" s="8">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E226" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" ht="84" x14ac:dyDescent="0.15">
+      <c r="B227" s="8">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E227" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B228" s="8">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E228" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B229" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D229" s="27"/>
-      <c r="E229" s="28"/>
+      <c r="B229" s="8">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="5"/>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B230" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E230" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B230" s="8">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="5"/>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B231" s="8">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="4"/>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B234" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D234" s="26"/>
+      <c r="E234" s="26"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B235" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D235" s="28"/>
+      <c r="E235" s="29"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B236" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B237" s="8">
         <v>1</v>
       </c>
-      <c r="C231" s="13" t="s">
+      <c r="C237" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D231" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E231" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B232" s="8">
+      <c r="D237" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E237" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B238" s="8">
         <v>2</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C238" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D232" s="7"/>
-      <c r="E232" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B233" s="8">
-        <f t="shared" ref="B233:B234" si="14">B232+1</f>
+      <c r="D238" s="7"/>
+      <c r="E238" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B239" s="8">
+        <f t="shared" ref="B239:B240" si="14">B238+1</f>
         <v>3</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C239" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D239" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E233" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B234" s="8">
+      <c r="E239" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B240" s="8">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C240" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D234" s="7"/>
-      <c r="E234" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B235" s="8">
+      <c r="D240" s="7"/>
+      <c r="E240" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B241" s="8">
         <v>5</v>
       </c>
-      <c r="C235" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D235" s="7"/>
-      <c r="E235" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B236" s="8">
+      <c r="C241" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D241" s="7"/>
+      <c r="E241" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B242" s="8">
         <v>6</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C242" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D236" s="7"/>
-      <c r="E236" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B237" s="8">
-        <f t="shared" ref="B237:B238" si="15">B236+1</f>
+      <c r="D242" s="7"/>
+      <c r="E242" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B243" s="8">
+        <f t="shared" ref="B243:B244" si="15">B242+1</f>
         <v>7</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E237" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="B238" s="8">
+      <c r="C243" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E243" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B244" s="8">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="C238" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E238" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B239" s="17"/>
-      <c r="C239" s="25"/>
-      <c r="D239" s="25"/>
-      <c r="E239" s="22"/>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B240" s="17"/>
-      <c r="C240" s="25"/>
-      <c r="D240" s="25"/>
-      <c r="E240" s="22"/>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B241" s="17"/>
-      <c r="C241" s="25"/>
-      <c r="D241" s="25"/>
-      <c r="E241" s="22"/>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B242" s="17"/>
-      <c r="C242" s="18"/>
-      <c r="D242" s="18"/>
-      <c r="E242" s="19"/>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B243" s="14" t="s">
+      <c r="C244" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E244" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B245" s="17"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="25"/>
+      <c r="E245" s="22"/>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B246" s="17"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="25"/>
+      <c r="E246" s="22"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B247" s="17"/>
+      <c r="C247" s="25"/>
+      <c r="D247" s="25"/>
+      <c r="E247" s="22"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B248" s="17"/>
+      <c r="C248" s="18"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="19"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B249" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C243" s="29" t="s">
+      <c r="C249" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D243" s="29"/>
-      <c r="E243" s="29"/>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B244" s="15" t="s">
+      <c r="D249" s="26"/>
+      <c r="E249" s="26"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B250" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="26" t="s">
+      <c r="C250" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D244" s="27"/>
-      <c r="E244" s="28"/>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B245" s="9" t="s">
+      <c r="D250" s="28"/>
+      <c r="E250" s="29"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B251" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C245" s="10" t="s">
+      <c r="C251" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D245" s="10" t="s">
+      <c r="D251" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E245" s="10" t="s">
+      <c r="E251" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B246" s="8">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B252" s="8">
         <v>1</v>
       </c>
-      <c r="C246" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D246" s="13" t="s">
+      <c r="C252" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D252" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E246" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B247" s="8">
-        <f>B246+1</f>
+      <c r="E252" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B253" s="8">
+        <f>B252+1</f>
         <v>2</v>
       </c>
-      <c r="C247" s="6" t="s">
+      <c r="C253" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D247" s="13" t="s">
+      <c r="D253" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E247" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B248" s="8">
-        <f t="shared" ref="B248:B249" si="16">B247+1</f>
+      <c r="E253" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B254" s="8">
+        <f t="shared" ref="B254:B255" si="16">B253+1</f>
         <v>3</v>
       </c>
-      <c r="C248" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D248" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E248" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B249" s="8">
+      <c r="C254" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E254" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B255" s="8">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C255" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D249" s="13" t="s">
+      <c r="D255" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E249" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B252" s="17"/>
-      <c r="C252" s="18"/>
-      <c r="D252" s="18"/>
-      <c r="E252" s="19"/>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B253" s="14" t="s">
+      <c r="E255" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B258" s="17"/>
+      <c r="C258" s="18"/>
+      <c r="D258" s="18"/>
+      <c r="E258" s="19"/>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B259" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C253" s="29" t="s">
+      <c r="C259" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D259" s="26"/>
+      <c r="E259" s="26"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B260" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D260" s="28"/>
+      <c r="E260" s="29"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B261" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="B262" s="8">
+        <v>1</v>
+      </c>
+      <c r="C262" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E262" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B263" s="8">
+        <f>B262+1</f>
+        <v>2</v>
+      </c>
+      <c r="C263" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D253" s="29"/>
-      <c r="E253" s="29"/>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B254" s="15" t="s">
+      <c r="D263" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E263" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B264" s="8">
+        <f t="shared" ref="B264:B265" si="17">B263+1</f>
         <v>3</v>
       </c>
-      <c r="C254" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D254" s="27"/>
-      <c r="E254" s="28"/>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B255" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E255" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B256" s="8">
-        <v>1</v>
-      </c>
-      <c r="C256" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D256" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E256" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B257" s="8">
-        <f>B256+1</f>
-        <v>2</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D257" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E257" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B258" s="8">
-        <f t="shared" ref="B258:B259" si="17">B257+1</f>
-        <v>3</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D258" s="13"/>
-      <c r="E258" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B259" s="8">
+      <c r="C264" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D264" s="13"/>
+      <c r="E264" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B265" s="8">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="C259" s="7"/>
-      <c r="D259" s="13"/>
-      <c r="E259" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B264" s="14" t="s">
+      <c r="C265" s="7"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B270" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C264" s="29" t="s">
+      <c r="C270" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D264" s="29"/>
-      <c r="E264" s="29"/>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B265" s="15" t="s">
+      <c r="D270" s="26"/>
+      <c r="E270" s="26"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B271" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="26" t="s">
+      <c r="C271" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D265" s="27"/>
-      <c r="E265" s="28"/>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B266" s="9" t="s">
+      <c r="D271" s="28"/>
+      <c r="E271" s="29"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B272" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C266" s="10" t="s">
+      <c r="C272" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D266" s="10" t="s">
+      <c r="D272" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E266" s="10" t="s">
+      <c r="E272" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B267" s="8">
-        <v>1</v>
-      </c>
-      <c r="C267" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D267" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E267" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B268" s="8">
-        <f>B267+1</f>
-        <v>2</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E268" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B269" s="8">
-        <f t="shared" ref="B269:B277" si="18">B268+1</f>
-        <v>3</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D269" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E269" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B270" s="8">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E270" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B271" s="8">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D271" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E271" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B272" s="8">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D272" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E272" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B273" s="8">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D273" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D273" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E273" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B274" s="8">
-        <f t="shared" si="18"/>
-        <v>8</v>
+        <f>B273+1</f>
+        <v>2</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D274" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D274" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E274" s="21" t="s">
@@ -4824,11 +4838,11 @@
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B275" s="8">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>171</v>
+        <f t="shared" ref="B275:B283" si="18">B274+1</f>
+        <v>3</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>24</v>
@@ -4840,10 +4854,10 @@
     <row r="276" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B276" s="8">
         <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>179</v>
+        <v>4</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>24</v>
@@ -4855,9 +4869,11 @@
     <row r="277" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B277" s="8">
         <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="C277" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="D277" s="7" t="s">
         <v>24</v>
       </c>
@@ -4865,43 +4881,131 @@
         <v>11</v>
       </c>
     </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B278" s="8">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E278" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B279" s="8">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E279" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B280" s="8">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E280" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B281" s="8">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E281" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B282" s="8">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E282" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B283" s="8">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="C283" s="6"/>
+      <c r="D283" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E283" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C264:E264"/>
-    <mergeCell ref="C265:E265"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="C203:E203"/>
-    <mergeCell ref="C204:E204"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C253:E253"/>
-    <mergeCell ref="C254:E254"/>
-    <mergeCell ref="C243:E243"/>
-    <mergeCell ref="C244:E244"/>
-    <mergeCell ref="C156:E156"/>
-    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C250:E250"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="C163:E163"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C193:E193"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:E148"/>
     <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="C179:E179"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C270:E270"/>
+    <mergeCell ref="C271:E271"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C235:E235"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C234:E234"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C194:E194"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C260:E260"/>
+    <mergeCell ref="C249:E249"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E246:E249 E129:E138 E35:E60 E144:E150 E231:E241 E256:E259 E267:E277 E86:E98 E175:E185 E103:E122 E206:E222 E25:E31 E190:E201 E159:E165 E9:E21 E65:E81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E252:E255 E86:E101 E35:E60 E150:E156 E237:E247 E262:E265 E273:E283 E65:E81 E181:E191 E106:E125 E212:E228 E25:E31 E196:E207 E165:E171 E9:E21 E132:E144">
       <formula1>"△,○,×"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="272">
   <si>
     <t>Name</t>
   </si>
@@ -972,6 +972,22 @@
   </si>
   <si>
     <t>重复代码 / 长方法 / 太多的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to improve system boot-up speed?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use valgrind? How to check memory leak with valgrind?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automake &amp; autoconf &amp; configure used for?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automake -&gt; Makefile.in, autoconf-&gt;configure; configure-&gt;Makefile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1262,9 +1278,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1272,6 +1285,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1747,11 +1763,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D237" sqref="D237"/>
+      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1775,21 +1791,21 @@
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
@@ -1962,21 +1978,21 @@
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
@@ -2054,21 +2070,21 @@
       <c r="B32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
@@ -2447,21 +2463,21 @@
       <c r="B62" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="29"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="28"/>
     </row>
     <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="28"/>
     </row>
     <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="9" t="s">
@@ -2560,8 +2576,12 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B71" s="8"/>
-      <c r="C71" s="6"/>
+      <c r="B71" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="D71" s="23"/>
       <c r="E71" s="21" t="s">
         <v>11</v>
@@ -2693,21 +2713,21 @@
       <c r="B83" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="29"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="28"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="29"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="28"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" s="9" t="s">
@@ -2754,7 +2774,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" s="8">
-        <f t="shared" ref="B88:B98" si="4">B87+1</f>
+        <f t="shared" ref="B88:B99" si="4">B87+1</f>
         <v>3</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -2795,20 +2815,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B91" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>11</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" s="21"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" s="8">
@@ -2816,10 +2834,10 @@
         <v>7</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>11</v>
@@ -2831,40 +2849,40 @@
         <v>8</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>224</v>
+        <v>115</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B95" s="8">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>195</v>
+        <v>152</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="E95" s="21" t="s">
         <v>11</v>
@@ -2876,10 +2894,10 @@
         <v>11</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>11</v>
@@ -2891,9 +2909,11 @@
         <v>12</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D97" s="7"/>
+        <v>264</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="E97" s="21" t="s">
         <v>11</v>
       </c>
@@ -2904,7 +2924,7 @@
         <v>13</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="21" t="s">
@@ -2912,10 +2932,17 @@
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="22"/>
+      <c r="B99" s="8">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="17"/>
@@ -2933,102 +2960,95 @@
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
-      <c r="E102" s="19"/>
+      <c r="E102" s="22"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="17"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="19"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B104" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C104" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B104" s="15" t="s">
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B105" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C105" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="29"/>
-    </row>
-    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="9" t="s">
+      <c r="D105" s="27"/>
+      <c r="E105" s="28"/>
+    </row>
+    <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C106" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D106" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E106" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="8">
-        <v>1</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="8">
-        <f>B106+1</f>
+        <v>1</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="8">
+        <f>B107+1</f>
         <v>2</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C108" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B108" s="8">
-        <f t="shared" ref="B108:B120" si="5">B107+1</f>
+      <c r="D108" s="13"/>
+      <c r="E108" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B109" s="8">
+        <f t="shared" ref="B109:B121" si="5">B108+1</f>
         <v>3</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C109" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B109" s="8">
+      <c r="D109" s="6"/>
+      <c r="E109" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="B110" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C110" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B110" s="8">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="21" t="s">
@@ -3038,10 +3058,10 @@
     <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="21" t="s">
@@ -3051,10 +3071,10 @@
     <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="21" t="s">
@@ -3064,10 +3084,10 @@
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B113" s="8">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="21" t="s">
@@ -3077,10 +3097,10 @@
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B114" s="8">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="21" t="s">
@@ -3090,10 +3110,10 @@
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="8">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="21" t="s">
@@ -3103,10 +3123,10 @@
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B116" s="8">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="21" t="s">
@@ -3116,14 +3136,12 @@
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" s="8">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D117" s="7"/>
       <c r="E117" s="21" t="s">
         <v>11</v>
       </c>
@@ -3131,12 +3149,14 @@
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" s="8">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D118" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="E118" s="21" t="s">
         <v>11</v>
       </c>
@@ -3144,83 +3164,81 @@
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B119" s="8">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="63" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B120" s="8">
         <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="63" x14ac:dyDescent="0.15">
+      <c r="B121" s="8">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E120" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B121" s="8">
-        <f t="shared" ref="B121:B125" si="6">B120+1</f>
+      <c r="E121" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B122" s="8">
+        <f t="shared" ref="B122:B126" si="6">B121+1</f>
         <v>16</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C122" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D122" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E121" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B122" s="8">
+      <c r="E122" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B123" s="8">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C123" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B123" s="8">
+      <c r="D123" s="7"/>
+      <c r="E123" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B124" s="8">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D123" s="7"/>
-      <c r="E123" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B124" s="8">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="D124" s="7"/>
       <c r="E124" s="21" t="s">
         <v>11</v>
       </c>
@@ -3228,67 +3246,69 @@
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="8">
         <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B126" s="8">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B129" s="14" t="s">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B130" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C130" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B130" s="15" t="s">
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B131" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C131" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D130" s="28"/>
-      <c r="E130" s="29"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B131" s="9" t="s">
+      <c r="D131" s="27"/>
+      <c r="E131" s="28"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B132" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D132" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E132" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B132" s="8">
-        <v>1</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="8">
-        <f>B132+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="21" t="s">
@@ -3298,28 +3318,26 @@
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="8">
         <f>B133+1</f>
-        <v>3</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D134" s="13"/>
       <c r="E134" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="8">
-        <f t="shared" ref="B135:B142" si="7">B134+1</f>
-        <v>4</v>
+        <f>B134+1</f>
+        <v>3</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E135" s="21" t="s">
         <v>11</v>
@@ -3327,13 +3345,15 @@
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="8">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D136" s="7"/>
+        <f t="shared" ref="B136:B145" si="7">B135+1</f>
+        <v>4</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="E136" s="21" t="s">
         <v>11</v>
       </c>
@@ -3341,10 +3361,10 @@
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="8">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="21" t="s">
@@ -3354,10 +3374,10 @@
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" s="8">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="21" t="s">
@@ -3367,42 +3387,40 @@
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" s="8">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D139" s="7"/>
       <c r="E139" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" s="8">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D140" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="E140" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B141" s="8">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>146</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141" s="7"/>
       <c r="E141" s="21" t="s">
         <v>11</v>
       </c>
@@ -3410,93 +3428,109 @@
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" s="8">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C142" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B143" s="8">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="C143" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D142" s="7"/>
-      <c r="E142" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B143" s="17"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="22"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B144" s="17"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="22"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B147" s="14" t="s">
+      <c r="B144" s="8">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B145" s="8">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B148" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C148" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B148" s="15" t="s">
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B149" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C149" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D148" s="28"/>
-      <c r="E148" s="29"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B149" s="9" t="s">
+      <c r="D149" s="27"/>
+      <c r="E149" s="28"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B150" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C150" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D150" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="E150" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B150" s="8">
-        <v>1</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D150" s="13"/>
-      <c r="E150" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="8">
-        <f>B150+1</f>
-        <v>2</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D151" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D151" s="13"/>
       <c r="E151" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="8">
-        <f t="shared" ref="B152:B153" si="8">B151+1</f>
-        <v>3</v>
-      </c>
-      <c r="C152" s="6"/>
+        <f>B151+1</f>
+        <v>2</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="D152" s="6"/>
       <c r="E152" s="21" t="s">
         <v>11</v>
@@ -3504,18 +3538,19 @@
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="8">
+        <f t="shared" ref="B153:B154" si="8">B152+1</f>
+        <v>3</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B154" s="8">
         <f t="shared" si="8"/>
         <v>4</v>
-      </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B154" s="8">
-        <v>5</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
@@ -3525,7 +3560,7 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -3535,7 +3570,7 @@
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -3545,25 +3580,29 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E157" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="4"/>
     </row>
     <row r="159" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="17"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="19"/>
+      <c r="B159" s="8">
+        <v>9</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="4"/>
     </row>
     <row r="160" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" s="17"/>
@@ -3572,74 +3611,64 @@
       <c r="E160" s="19"/>
     </row>
     <row r="161" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161"/>
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="19"/>
     </row>
     <row r="162" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162"/>
-      <c r="B162" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
     </row>
     <row r="163" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163"/>
-      <c r="B163" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D163" s="28"/>
+      <c r="B163" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D163" s="29"/>
       <c r="E163" s="29"/>
     </row>
     <row r="164" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164"/>
-      <c r="B164" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E164" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B164" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D164" s="27"/>
+      <c r="E164" s="28"/>
     </row>
     <row r="165" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165"/>
-      <c r="B165" s="8">
-        <v>1</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D165" s="13"/>
-      <c r="E165" s="21" t="s">
-        <v>11</v>
+      <c r="B165" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166"/>
       <c r="B166" s="8">
-        <f>B165+1</f>
-        <v>2</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>221</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D166" s="13"/>
       <c r="E166" s="21" t="s">
         <v>11</v>
       </c>
@@ -3647,14 +3676,14 @@
     <row r="167" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167"/>
       <c r="B167" s="8">
-        <f t="shared" ref="B167:B168" si="9">B166+1</f>
-        <v>3</v>
+        <f>B166+1</f>
+        <v>2</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E167" s="21" t="s">
         <v>11</v>
@@ -3663,14 +3692,14 @@
     <row r="168" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168"/>
       <c r="B168" s="8">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>226</v>
+        <f t="shared" ref="B168:B169" si="9">B167+1</f>
+        <v>3</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="E168" s="21" t="s">
         <v>11</v>
@@ -3679,12 +3708,15 @@
     <row r="169" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169"/>
       <c r="B169" s="8">
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D169" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="E169" s="21" t="s">
         <v>11</v>
       </c>
@@ -3692,10 +3724,10 @@
     <row r="170" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170"/>
       <c r="B170" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="21" t="s">
@@ -3705,9 +3737,11 @@
     <row r="171" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171"/>
       <c r="B171" s="8">
-        <v>7</v>
-      </c>
-      <c r="C171" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="D171" s="7"/>
       <c r="E171" s="21" t="s">
         <v>11</v>
@@ -3716,25 +3750,30 @@
     <row r="172" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172"/>
       <c r="B172" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
-      <c r="E172" s="4"/>
+      <c r="E172" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="173" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173"/>
       <c r="B173" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="4"/>
     </row>
     <row r="174" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="17"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="19"/>
+      <c r="B174" s="8">
+        <v>9</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="4"/>
     </row>
     <row r="175" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B175" s="17"/>
@@ -3754,67 +3793,58 @@
       <c r="D177" s="18"/>
       <c r="E177" s="19"/>
     </row>
-    <row r="178" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="15" t="s">
+    <row r="178" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="17"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="19"/>
+    </row>
+    <row r="179" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C180" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D179" s="28"/>
-      <c r="E179" s="29"/>
-    </row>
-    <row r="180" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="9" t="s">
+      <c r="D180" s="27"/>
+      <c r="E180" s="28"/>
+    </row>
+    <row r="181" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C181" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D180" s="10" t="s">
+      <c r="D181" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E180" s="10" t="s">
+      <c r="E181" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="8">
+    <row r="182" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="8">
         <v>1</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C182" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D181" s="13" t="s">
+      <c r="D182" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E181" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B182" s="8">
-        <f>B181+1</f>
+      <c r="E182" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B183" s="8">
+        <f>B182+1</f>
         <v>2</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C183" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E182" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B183" s="8">
-        <f t="shared" ref="B183:B190" si="10">B182+1</f>
-        <v>3</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>39</v>
@@ -3823,76 +3853,76 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B184" s="8">
+        <f t="shared" ref="B184:B191" si="10">B183+1</f>
+        <v>3</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E184" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B185" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C185" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D185" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E184" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B185" s="8">
+      <c r="E185" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B186" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C186" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D186" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E185" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B186" s="8">
+      <c r="E186" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B187" s="8">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C187" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D187" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E186" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B187" s="8">
+      <c r="E187" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B188" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C188" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D188" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="E187" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B188" s="8">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="E188" s="21" t="s">
         <v>11</v>
@@ -3901,10 +3931,14 @@
     <row r="189" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B189" s="8">
         <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="C189" s="7"/>
-      <c r="D189" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="E189" s="21" t="s">
         <v>11</v>
       </c>
@@ -3912,7 +3946,7 @@
     <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B190" s="8">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="6"/>
@@ -3921,72 +3955,68 @@
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B191" s="17"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="22"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A193" s="11"/>
-      <c r="B193" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C193" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
+      <c r="B191" s="8">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B192" s="17"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="22"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="11"/>
-      <c r="B194" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D194" s="28"/>
+      <c r="B194" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="29"/>
       <c r="E194" s="29"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="11"/>
-      <c r="B195" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B195" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D195" s="27"/>
+      <c r="E195" s="28"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="11"/>
-      <c r="B196" s="8">
+      <c r="B196" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197" s="11"/>
+      <c r="B197" s="8">
         <v>1</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C197" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D196" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E196" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B197" s="8">
-        <f>B196+1</f>
-        <v>2</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D197" s="6" t="s">
+      <c r="D197" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E197" s="21" t="s">
@@ -3995,11 +4025,11 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B198" s="8">
-        <f t="shared" ref="B198:B201" si="11">B197+1</f>
-        <v>3</v>
+        <f>B197+1</f>
+        <v>2</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>39</v>
@@ -4010,13 +4040,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B199" s="8">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D199" s="7" t="s">
+        <f t="shared" ref="B199:B202" si="11">B198+1</f>
+        <v>3</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D199" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E199" s="21" t="s">
@@ -4026,10 +4056,10 @@
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B200" s="8">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>39</v>
@@ -4041,10 +4071,10 @@
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B201" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>39</v>
@@ -4055,41 +4085,45 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B202" s="8">
-        <f t="shared" ref="B202:B206" si="12">B201+1</f>
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E202" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B203" s="8">
+        <f t="shared" ref="B203:B207" si="12">B202+1</f>
         <v>7</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C203" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D203" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E202" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B203" s="8">
+      <c r="E203" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B204" s="8">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C204" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D204" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E203" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B204" s="8">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="C204" s="6"/>
-      <c r="D204" s="7"/>
       <c r="E204" s="21" t="s">
         <v>11</v>
       </c>
@@ -4097,7 +4131,7 @@
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B205" s="8">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="7"/>
@@ -4108,7 +4142,7 @@
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B206" s="8">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="7"/>
@@ -4117,64 +4151,62 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B207" s="17"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="22"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B209" s="14" t="s">
+      <c r="B207" s="8">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B208" s="17"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="22"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B210" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="26" t="s">
+      <c r="C210" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B210" s="15" t="s">
+      <c r="D210" s="29"/>
+      <c r="E210" s="29"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B211" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C210" s="27" t="s">
+      <c r="C211" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D210" s="28"/>
-      <c r="E210" s="29"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B211" s="9" t="s">
+      <c r="D211" s="27"/>
+      <c r="E211" s="28"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B212" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C212" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D212" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E211" s="10" t="s">
+      <c r="E212" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B212" s="8">
-        <v>1</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D212" s="13"/>
-      <c r="E212" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B213" s="8">
-        <f>B212+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="D213" s="13"/>
       <c r="E213" s="21" t="s">
@@ -4184,36 +4216,36 @@
     <row r="214" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B214" s="8">
         <f>B213+1</f>
-        <v>3</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D214" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D214" s="13"/>
       <c r="E214" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B215" s="8">
-        <f t="shared" ref="B215:B231" si="13">B214+1</f>
-        <v>4</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D215" s="7"/>
+        <f>B214+1</f>
+        <v>3</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D215" s="6"/>
       <c r="E215" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B216" s="8">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" ref="B216:B232" si="13">B215+1</f>
+        <v>4</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D216" s="7"/>
       <c r="E216" s="21" t="s">
@@ -4223,14 +4255,12 @@
     <row r="217" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B217" s="8">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D217" s="7"/>
       <c r="E217" s="21" t="s">
         <v>11</v>
       </c>
@@ -4238,13 +4268,13 @@
     <row r="218" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B218" s="8">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="E218" s="21" t="s">
         <v>11</v>
@@ -4253,13 +4283,13 @@
     <row r="219" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B219" s="8">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E219" s="21" t="s">
         <v>11</v>
@@ -4268,145 +4298,151 @@
     <row r="220" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B220" s="8">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E220" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B221" s="8">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="E221" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B222" s="8">
         <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="E222" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B223" s="8">
         <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>124</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
       <c r="E223" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B224" s="8">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E224" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:5" ht="42" x14ac:dyDescent="0.15">
       <c r="B225" s="8">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D225" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="E225" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B226" s="8">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D226" s="7"/>
       <c r="E226" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="84" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B227" s="8">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E227" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:5" ht="84" x14ac:dyDescent="0.15">
       <c r="B228" s="8">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E228" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B229" s="8">
         <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E229" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B230" s="8">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
@@ -4415,106 +4451,103 @@
     <row r="231" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B231" s="8">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
-      <c r="E231" s="4"/>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B234" s="14" t="s">
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B232" s="8">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="4"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B235" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C234" s="26" t="s">
+      <c r="C235" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D234" s="26"/>
-      <c r="E234" s="26"/>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B235" s="15" t="s">
+      <c r="D235" s="29"/>
+      <c r="E235" s="29"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B236" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C235" s="27" t="s">
+      <c r="C236" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D235" s="28"/>
-      <c r="E235" s="29"/>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B236" s="9" t="s">
+      <c r="D236" s="27"/>
+      <c r="E236" s="28"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B237" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C236" s="10" t="s">
+      <c r="C237" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D236" s="10" t="s">
+      <c r="D237" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E236" s="10" t="s">
+      <c r="E237" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B237" s="8">
-        <v>1</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D237" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E237" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B238" s="8">
-        <v>2</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D238" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D238" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="E238" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B239" s="8">
-        <f t="shared" ref="B239:B240" si="14">B238+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D239" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D239" s="7"/>
       <c r="E239" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B240" s="8">
+        <f t="shared" ref="B240:B241" si="14">B239+1</f>
+        <v>3</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E240" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B241" s="8">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C241" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="D240" s="7"/>
-      <c r="E240" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B241" s="8">
-        <v>5</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="D241" s="7"/>
       <c r="E241" s="21" t="s">
@@ -4523,10 +4556,10 @@
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B242" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="D242" s="7"/>
       <c r="E242" s="21" t="s">
@@ -4535,39 +4568,45 @@
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B243" s="8">
-        <f t="shared" ref="B243:B244" si="15">B242+1</f>
+        <v>6</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D243" s="7"/>
+      <c r="E243" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B244" s="8">
+        <f t="shared" ref="B244:B245" si="15">B243+1</f>
         <v>7</v>
       </c>
-      <c r="C243" s="6" t="s">
+      <c r="C244" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D243" s="6" t="s">
+      <c r="D244" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E243" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="B244" s="8">
+      <c r="E244" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B245" s="8">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C245" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D244" s="6" t="s">
+      <c r="D245" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E244" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B245" s="17"/>
-      <c r="C245" s="25"/>
-      <c r="D245" s="25"/>
-      <c r="E245" s="22"/>
+      <c r="E245" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B246" s="17"/>
@@ -4583,65 +4622,56 @@
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B248" s="17"/>
-      <c r="C248" s="18"/>
-      <c r="D248" s="18"/>
-      <c r="E248" s="19"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="25"/>
+      <c r="E248" s="22"/>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B249" s="14" t="s">
+      <c r="B249" s="17"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="18"/>
+      <c r="E249" s="19"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B250" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C249" s="26" t="s">
+      <c r="C250" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D249" s="26"/>
-      <c r="E249" s="26"/>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B250" s="15" t="s">
+      <c r="D250" s="29"/>
+      <c r="E250" s="29"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B251" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C250" s="27" t="s">
+      <c r="C251" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D250" s="28"/>
-      <c r="E250" s="29"/>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B251" s="9" t="s">
+      <c r="D251" s="27"/>
+      <c r="E251" s="28"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B252" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C251" s="10" t="s">
+      <c r="C252" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D251" s="10" t="s">
+      <c r="D252" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E251" s="10" t="s">
+      <c r="E252" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B252" s="8">
-        <v>1</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D252" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E252" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B253" s="8">
-        <f>B252+1</f>
-        <v>2</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="D253" s="13" t="s">
         <v>24</v>
@@ -4652,14 +4682,14 @@
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B254" s="8">
-        <f t="shared" ref="B254:B255" si="16">B253+1</f>
-        <v>3</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>252</v>
+        <f>B253+1</f>
+        <v>2</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="E254" s="21" t="s">
         <v>11</v>
@@ -4667,83 +4697,83 @@
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B255" s="8">
+        <f t="shared" ref="B255:B256" si="16">B254+1</f>
+        <v>3</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E255" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B256" s="8">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C256" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D255" s="13" t="s">
+      <c r="D256" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E255" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B258" s="17"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="18"/>
-      <c r="E258" s="19"/>
+      <c r="E256" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B259" s="14" t="s">
+      <c r="B259" s="17"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="18"/>
+      <c r="E259" s="19"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B260" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C259" s="26" t="s">
+      <c r="C260" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D259" s="26"/>
-      <c r="E259" s="26"/>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B260" s="15" t="s">
+      <c r="D260" s="29"/>
+      <c r="E260" s="29"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B261" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="27" t="s">
+      <c r="C261" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D260" s="28"/>
-      <c r="E260" s="29"/>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B261" s="9" t="s">
+      <c r="D261" s="27"/>
+      <c r="E261" s="28"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B262" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C261" s="10" t="s">
+      <c r="C262" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D261" s="10" t="s">
+      <c r="D262" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E261" s="10" t="s">
+      <c r="E262" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B262" s="8">
+    <row r="263" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="B263" s="8">
         <v>1</v>
       </c>
-      <c r="C262" s="23" t="s">
+      <c r="C263" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D262" s="13" t="s">
+      <c r="D263" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="E262" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B263" s="8">
-        <f>B262+1</f>
-        <v>2</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D263" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="E263" s="21" t="s">
         <v>11</v>
@@ -4751,85 +4781,85 @@
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B264" s="8">
-        <f t="shared" ref="B264:B265" si="17">B263+1</f>
-        <v>3</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D264" s="13"/>
+        <f>B263+1</f>
+        <v>2</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="E264" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B265" s="8">
+        <f t="shared" ref="B265:B266" si="17">B264+1</f>
+        <v>3</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D265" s="13"/>
+      <c r="E265" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B266" s="8">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="C265" s="7"/>
-      <c r="D265" s="13"/>
-      <c r="E265" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B270" s="14" t="s">
+      <c r="C266" s="7"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B271" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C270" s="26" t="s">
+      <c r="C271" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D270" s="26"/>
-      <c r="E270" s="26"/>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B271" s="15" t="s">
+      <c r="D271" s="29"/>
+      <c r="E271" s="29"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B272" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C271" s="27" t="s">
+      <c r="C272" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D271" s="28"/>
-      <c r="E271" s="29"/>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B272" s="9" t="s">
+      <c r="D272" s="27"/>
+      <c r="E272" s="28"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B273" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C272" s="10" t="s">
+      <c r="C273" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D272" s="10" t="s">
+      <c r="D273" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E272" s="10" t="s">
+      <c r="E273" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B273" s="8">
-        <v>1</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D273" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E273" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B274" s="8">
-        <f>B273+1</f>
-        <v>2</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D274" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D274" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E274" s="21" t="s">
@@ -4838,13 +4868,13 @@
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B275" s="8">
-        <f t="shared" ref="B275:B283" si="18">B274+1</f>
-        <v>3</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D275" s="7" t="s">
+        <f>B274+1</f>
+        <v>2</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D275" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E275" s="21" t="s">
@@ -4853,11 +4883,11 @@
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B276" s="8">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" ref="B276:B284" si="18">B275+1</f>
+        <v>3</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>24</v>
@@ -4869,10 +4899,10 @@
     <row r="277" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B277" s="8">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>24</v>
@@ -4884,10 +4914,10 @@
     <row r="278" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B278" s="8">
         <f t="shared" si="18"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="D278" s="7" t="s">
         <v>24</v>
@@ -4899,10 +4929,10 @@
     <row r="279" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B279" s="8">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>24</v>
@@ -4911,13 +4941,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B280" s="8">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>137</v>
+        <v>7</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="D280" s="7" t="s">
         <v>24</v>
@@ -4926,13 +4956,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B281" s="8">
         <f t="shared" si="18"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="D281" s="7" t="s">
         <v>24</v>
@@ -4944,10 +4974,10 @@
     <row r="282" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B282" s="8">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="D282" s="7" t="s">
         <v>24</v>
@@ -4959,9 +4989,11 @@
     <row r="283" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B283" s="8">
         <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="C283" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="D283" s="7" t="s">
         <v>24</v>
       </c>
@@ -4969,43 +5001,56 @@
         <v>11</v>
       </c>
     </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B284" s="8">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="C284" s="6"/>
+      <c r="D284" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E284" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C271:E271"/>
+    <mergeCell ref="C272:E272"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C236:E236"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C235:E235"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C195:E195"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C260:E260"/>
+    <mergeCell ref="C261:E261"/>
     <mergeCell ref="C250:E250"/>
-    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="C251:E251"/>
     <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C164:E164"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C129:E129"/>
     <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C193:E193"/>
-    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C194:E194"/>
     <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C149:E149"/>
     <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="C180:E180"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C270:E270"/>
-    <mergeCell ref="C271:E271"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C235:E235"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C234:E234"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C194:E194"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C260:E260"/>
-    <mergeCell ref="C249:E249"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E252:E255 E86:E101 E35:E60 E150:E156 E237:E247 E262:E265 E273:E283 E65:E81 E181:E191 E106:E125 E212:E228 E25:E31 E196:E207 E165:E171 E9:E21 E132:E144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E253:E256 E86:E102 E35:E60 E151:E157 E238:E248 E263:E266 E274:E284 E65:E81 E182:E192 E107:E126 E213:E229 E25:E31 E197:E208 E166:E172 E9:E21 E133:E145">
       <formula1>"△,○,×"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15570" windowHeight="11640" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Question" sheetId="5" r:id="rId2"/>
     <sheet name="U-Boot" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="273">
   <si>
     <t>Name</t>
   </si>
@@ -990,23 +990,26 @@
     <t>automake -&gt; Makefile.in, autoconf-&gt;configure; configure-&gt;Makefile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Know about filesystem? List up some filesystems? What's the main feature? Describe the sturcture?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1014,7 +1017,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1022,7 +1025,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1030,7 +1033,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1038,7 +1041,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1046,7 +1049,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1054,7 +1057,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1062,7 +1065,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1071,7 +1074,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1079,7 +1082,7 @@
     <font>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1088,7 +1091,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1096,13 +1099,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1278,6 +1281,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1287,15 +1293,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 强调文字颜色 1" xfId="2" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
     <cellStyle name="警告文本" xfId="3" builtinId="11"/>
-    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1697,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1705,19 +1708,19 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="83.125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" ht="15" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" ht="15" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1733,27 +1736,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" ht="15" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" ht="15" customHeight="1">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="24" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="14.45" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1762,52 +1765,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="3" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="62.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.25" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="9" t="s">
         <v>7</v>
@@ -1822,7 +1825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="B9" s="8">
         <v>1</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="B10" s="8">
         <f>B9+1</f>
         <v>2</v>
@@ -1851,7 +1854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="B11" s="8">
         <f t="shared" ref="B11:B19" si="0">B10+1</f>
         <v>3</v>
@@ -1864,7 +1867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1877,7 +1880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1890,7 +1893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="12"/>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
@@ -1904,7 +1907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1917,7 +1920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1930,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1941,7 +1944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1951,7 +1954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1962,39 +1965,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" s="17"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" s="17"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
         <v>7</v>
@@ -2009,7 +2012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="B25" s="8">
         <v>1</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="22.5">
       <c r="B26" s="8">
         <f>B25+1</f>
         <v>2</v>
@@ -2036,57 +2039,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" s="17"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="B28" s="17"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" s="17"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="12" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" s="17"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="B32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="2:5" ht="15" customHeight="1">
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" ht="15" customHeight="1">
       <c r="B35" s="8">
         <v>1</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" ht="15" customHeight="1">
       <c r="B36" s="8">
         <f>B35+1</f>
         <v>2</v>
@@ -2127,7 +2130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" ht="23.45" customHeight="1">
       <c r="B37" s="8">
         <f t="shared" ref="B37:B50" si="1">B36+1</f>
         <v>3</v>
@@ -2142,7 +2145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" ht="23.45" customHeight="1">
       <c r="B38" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2157,7 +2160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" ht="15" customHeight="1">
       <c r="B39" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2172,7 +2175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" ht="15" customHeight="1">
       <c r="B40" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2187,7 +2190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5">
       <c r="B41" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2202,7 +2205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5">
       <c r="B42" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2217,7 +2220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2232,7 +2235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5">
       <c r="B44" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2247,7 +2250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" ht="33.75">
       <c r="B45" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2262,7 +2265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5">
       <c r="B46" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2277,7 +2280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5">
       <c r="B47" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2292,7 +2295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5">
       <c r="B48" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2307,7 +2310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5">
       <c r="B49" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2322,7 +2325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="67.5">
       <c r="B50" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2337,7 +2340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5">
       <c r="B51" s="8">
         <f t="shared" ref="B51:B57" si="2">B50+1</f>
         <v>17</v>
@@ -2350,7 +2353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5">
       <c r="B52" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2365,7 +2368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5">
       <c r="B53" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2380,7 +2383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5">
       <c r="B54" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2395,7 +2398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5">
       <c r="B55" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2410,7 +2413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5">
       <c r="B56" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2425,7 +2428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5">
       <c r="B57" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2440,46 +2443,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5">
       <c r="B58" s="17"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5">
       <c r="B59" s="17"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5">
       <c r="B60" s="17"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="15" customHeight="1"/>
+    <row r="62" spans="2:5" ht="19.899999999999999" customHeight="1">
       <c r="B62" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="28"/>
-    </row>
-    <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D62" s="28"/>
+      <c r="E62" s="29"/>
+    </row>
+    <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B63" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="28"/>
-    </row>
-    <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
+    </row>
+    <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B64" s="9" t="s">
         <v>7</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="24" customFormat="1" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" s="24" customFormat="1" ht="78.75">
       <c r="B65" s="20">
         <v>1</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5">
       <c r="B66" s="8">
         <f>B65+1</f>
         <v>2</v>
@@ -2522,7 +2525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="22.5">
       <c r="B67" s="8">
         <f t="shared" ref="B67:B78" si="3">B66+1</f>
         <v>3</v>
@@ -2537,7 +2540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5">
       <c r="B68" s="8">
         <v>3.1</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="22.5">
       <c r="B69" s="8">
         <v>3.2</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5">
       <c r="B70" s="8">
         <v>3.3</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5">
       <c r="B71" s="8">
         <v>3.4</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:5">
       <c r="B72" s="8"/>
       <c r="C72" s="6"/>
       <c r="D72" s="23"/>
@@ -2595,7 +2598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5">
       <c r="B73" s="8">
         <f>B67+1</f>
         <v>4</v>
@@ -2610,7 +2613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5">
       <c r="B74" s="8">
         <f>B73+1</f>
         <v>5</v>
@@ -2625,7 +2628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5">
       <c r="B75" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2640,7 +2643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5">
       <c r="B76" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2655,7 +2658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:5">
       <c r="B77" s="8">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2670,7 +2673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5">
       <c r="B78" s="8">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2685,51 +2688,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5">
       <c r="B79" s="17"/>
       <c r="C79" s="25"/>
       <c r="D79" s="18"/>
       <c r="E79" s="22"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5">
       <c r="B80" s="17"/>
       <c r="C80" s="25"/>
       <c r="D80" s="18"/>
       <c r="E80" s="22"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:5">
       <c r="B81" s="17"/>
       <c r="C81" s="25"/>
       <c r="D81" s="18"/>
       <c r="E81" s="22"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:5">
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="19"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5">
       <c r="B83" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="28"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D83" s="28"/>
+      <c r="E83" s="29"/>
+    </row>
+    <row r="84" spans="2:5">
       <c r="B84" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="28"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D84" s="28"/>
+      <c r="E84" s="29"/>
+    </row>
+    <row r="85" spans="2:5">
       <c r="B85" s="9" t="s">
         <v>7</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:5" ht="22.5">
       <c r="B86" s="8">
         <v>1</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:5" ht="22.5">
       <c r="B87" s="8">
         <f>B86+1</f>
         <v>2</v>
@@ -2772,7 +2775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:5">
       <c r="B88" s="8">
         <f t="shared" ref="B88:B99" si="4">B87+1</f>
         <v>3</v>
@@ -2785,7 +2788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:5">
       <c r="B89" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2800,7 +2803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:5">
       <c r="B90" s="8">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2815,7 +2818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5">
       <c r="B91" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2826,9 +2829,11 @@
       <c r="D91" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E91" s="21"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E91" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
       <c r="B92" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -2843,7 +2848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5">
       <c r="B93" s="8">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -2858,7 +2863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5">
       <c r="B94" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -2873,7 +2878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:5" ht="22.5">
       <c r="B95" s="8">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2888,7 +2893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:5">
       <c r="B96" s="8">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2903,7 +2908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:5">
       <c r="B97" s="8">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2918,7 +2923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:5">
       <c r="B98" s="8">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2931,7 +2936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:5">
       <c r="B99" s="8">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -2944,51 +2949,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:5">
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="E100" s="22"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:5">
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="22"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:5">
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="22"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:5">
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
       <c r="E103" s="19"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:5">
       <c r="B104" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+    </row>
+    <row r="105" spans="2:5">
       <c r="B105" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="28"/>
-    </row>
-    <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="28"/>
+      <c r="E105" s="29"/>
+    </row>
+    <row r="106" spans="2:5" ht="15" customHeight="1">
       <c r="B106" s="9" t="s">
         <v>7</v>
       </c>
@@ -3002,7 +3007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:5" ht="15" customHeight="1">
       <c r="B107" s="8">
         <v>1</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:5" ht="15" customHeight="1">
       <c r="B108" s="8">
         <f>B107+1</f>
         <v>2</v>
@@ -3029,7 +3034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:5">
       <c r="B109" s="8">
         <f t="shared" ref="B109:B121" si="5">B108+1</f>
         <v>3</v>
@@ -3042,7 +3047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:5" ht="45">
       <c r="B110" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3055,7 +3060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:5">
       <c r="B111" s="8">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3068,7 +3073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:5">
       <c r="B112" s="8">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -3081,7 +3086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:5">
       <c r="B113" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3094,7 +3099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:5">
       <c r="B114" s="8">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -3107,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:5">
       <c r="B115" s="8">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -3120,7 +3125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:5">
       <c r="B116" s="8">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -3133,7 +3138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:5">
       <c r="B117" s="8">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -3146,7 +3151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:5">
       <c r="B118" s="8">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -3161,7 +3166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:5">
       <c r="B119" s="8">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -3174,7 +3179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:5">
       <c r="B120" s="8">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -3187,7 +3192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="63" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:5" ht="67.5">
       <c r="B121" s="8">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -3202,7 +3207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:5" ht="33.75">
       <c r="B122" s="8">
         <f t="shared" ref="B122:B126" si="6">B121+1</f>
         <v>16</v>
@@ -3217,7 +3222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:5">
       <c r="B123" s="8">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -3230,7 +3235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:5" ht="22.5">
       <c r="B124" s="8">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -3243,7 +3248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:5">
       <c r="B125" s="8">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -3258,38 +3263,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:5" ht="22.5">
       <c r="B126" s="8">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="C126" s="7"/>
+      <c r="C126" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="D126" s="7"/>
       <c r="E126" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:5">
       <c r="B130" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="C130" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+    </row>
+    <row r="131" spans="2:5">
       <c r="B131" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D131" s="27"/>
-      <c r="E131" s="28"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D131" s="28"/>
+      <c r="E131" s="29"/>
+    </row>
+    <row r="132" spans="2:5">
       <c r="B132" s="9" t="s">
         <v>7</v>
       </c>
@@ -3303,7 +3310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:5">
       <c r="B133" s="8">
         <v>1</v>
       </c>
@@ -3315,7 +3322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:5">
       <c r="B134" s="8">
         <f>B133+1</f>
         <v>2</v>
@@ -3328,7 +3335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:5">
       <c r="B135" s="8">
         <f>B134+1</f>
         <v>3</v>
@@ -3343,7 +3350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:5">
       <c r="B136" s="8">
         <f t="shared" ref="B136:B145" si="7">B135+1</f>
         <v>4</v>
@@ -3358,7 +3365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:5">
       <c r="B137" s="8">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -3371,7 +3378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:5">
       <c r="B138" s="8">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -3384,7 +3391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:5">
       <c r="B139" s="8">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -3397,7 +3404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:5">
       <c r="B140" s="8">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -3412,7 +3419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:5" ht="22.5">
       <c r="B141" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -3425,7 +3432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:5">
       <c r="B142" s="8">
         <f t="shared" si="7"/>
         <v>10</v>
@@ -3440,7 +3447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:5">
       <c r="B143" s="8">
         <f t="shared" si="7"/>
         <v>11</v>
@@ -3453,7 +3460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:5">
       <c r="B144" s="8">
         <f t="shared" si="7"/>
         <v>12</v>
@@ -3466,7 +3473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:5">
       <c r="B145" s="8">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -3477,27 +3484,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:5">
       <c r="B148" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="29" t="s">
+      <c r="C148" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="2:5">
       <c r="B149" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D149" s="27"/>
-      <c r="E149" s="28"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D149" s="28"/>
+      <c r="E149" s="29"/>
+    </row>
+    <row r="150" spans="2:5">
       <c r="B150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +3518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:5">
       <c r="B151" s="8">
         <v>1</v>
       </c>
@@ -3523,7 +3530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:5">
       <c r="B152" s="8">
         <f>B151+1</f>
         <v>2</v>
@@ -3536,7 +3543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:5">
       <c r="B153" s="8">
         <f t="shared" ref="B153:B154" si="8">B152+1</f>
         <v>3</v>
@@ -3547,7 +3554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:5">
       <c r="B154" s="8">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -3558,7 +3565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:5">
       <c r="B155" s="8">
         <v>5</v>
       </c>
@@ -3568,7 +3575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:5">
       <c r="B156" s="8">
         <v>6</v>
       </c>
@@ -3578,7 +3585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:5">
       <c r="B157" s="8">
         <v>7</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:5">
       <c r="B158" s="8">
         <v>8</v>
       </c>
@@ -3596,7 +3603,7 @@
       <c r="D158" s="7"/>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B159" s="8">
         <v>9</v>
       </c>
@@ -3604,48 +3611,48 @@
       <c r="D159" s="7"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B160" s="17"/>
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
       <c r="E160" s="19"/>
     </row>
-    <row r="161" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B161" s="17"/>
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
       <c r="E161" s="19"/>
     </row>
-    <row r="162" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
     </row>
-    <row r="163" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A163"/>
       <c r="B163" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C163" s="29" t="s">
+      <c r="C163" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-    </row>
-    <row r="164" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+    </row>
+    <row r="164" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A164"/>
       <c r="B164" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C164" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D164" s="27"/>
-      <c r="E164" s="28"/>
-    </row>
-    <row r="165" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D164" s="28"/>
+      <c r="E164" s="29"/>
+    </row>
+    <row r="165" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A165"/>
       <c r="B165" s="9" t="s">
         <v>7</v>
@@ -3660,7 +3667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A166"/>
       <c r="B166" s="8">
         <v>1</v>
@@ -3673,7 +3680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A167"/>
       <c r="B167" s="8">
         <f>B166+1</f>
@@ -3689,7 +3696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A168"/>
       <c r="B168" s="8">
         <f t="shared" ref="B168:B169" si="9">B167+1</f>
@@ -3705,7 +3712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A169"/>
       <c r="B169" s="8">
         <f t="shared" si="9"/>
@@ -3721,7 +3728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A170"/>
       <c r="B170" s="8">
         <v>5</v>
@@ -3734,7 +3741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A171"/>
       <c r="B171" s="8">
         <v>6</v>
@@ -3747,7 +3754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A172"/>
       <c r="B172" s="8">
         <v>7</v>
@@ -3758,7 +3765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A173"/>
       <c r="B173" s="8">
         <v>8</v>
@@ -3767,7 +3774,7 @@
       <c r="D173" s="7"/>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B174" s="8">
         <v>9</v>
       </c>
@@ -3775,42 +3782,42 @@
       <c r="D174" s="7"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B175" s="17"/>
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
       <c r="E175" s="19"/>
     </row>
-    <row r="176" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B176" s="17"/>
       <c r="C176" s="18"/>
       <c r="D176" s="18"/>
       <c r="E176" s="19"/>
     </row>
-    <row r="177" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B177" s="17"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="19"/>
     </row>
-    <row r="178" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B178" s="17"/>
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
       <c r="E178" s="19"/>
     </row>
-    <row r="179" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1"/>
+    <row r="180" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B180" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C180" s="26" t="s">
+      <c r="C180" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D180" s="27"/>
-      <c r="E180" s="28"/>
-    </row>
-    <row r="181" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D180" s="28"/>
+      <c r="E180" s="29"/>
+    </row>
+    <row r="181" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B181" s="9" t="s">
         <v>7</v>
       </c>
@@ -3824,7 +3831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B182" s="8">
         <v>1</v>
       </c>
@@ -3838,7 +3845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:5" ht="22.5">
       <c r="B183" s="8">
         <f>B182+1</f>
         <v>2</v>
@@ -3853,7 +3860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:5" ht="33.75">
       <c r="B184" s="8">
         <f t="shared" ref="B184:B191" si="10">B183+1</f>
         <v>3</v>
@@ -3868,7 +3875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:5">
       <c r="B185" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -3883,7 +3890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:5" ht="22.5">
       <c r="B186" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -3898,7 +3905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:5">
       <c r="B187" s="8">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -3913,7 +3920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:5" ht="33.75">
       <c r="B188" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -3928,7 +3935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:5">
       <c r="B189" s="8">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -3943,7 +3950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:5">
       <c r="B190" s="8">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -3954,7 +3961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:5">
       <c r="B191" s="8">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -3965,35 +3972,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:5">
       <c r="B192" s="17"/>
       <c r="C192" s="18"/>
       <c r="D192" s="18"/>
       <c r="E192" s="22"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5">
       <c r="A194" s="11"/>
       <c r="B194" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C194" s="29" t="s">
+      <c r="C194" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D194" s="29"/>
-      <c r="E194" s="29"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="11"/>
       <c r="B195" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C195" s="26" t="s">
+      <c r="C195" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D195" s="27"/>
-      <c r="E195" s="28"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D195" s="28"/>
+      <c r="E195" s="29"/>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="11"/>
       <c r="B196" s="9" t="s">
         <v>7</v>
@@ -4008,7 +4015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5">
       <c r="A197" s="11"/>
       <c r="B197" s="8">
         <v>1</v>
@@ -4023,7 +4030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5">
       <c r="B198" s="8">
         <f>B197+1</f>
         <v>2</v>
@@ -4038,7 +4045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5">
       <c r="B199" s="8">
         <f t="shared" ref="B199:B202" si="11">B198+1</f>
         <v>3</v>
@@ -4053,7 +4060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5">
       <c r="B200" s="8">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -4068,7 +4075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5">
       <c r="B201" s="8">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4083,7 +4090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5">
       <c r="B202" s="8">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -4098,7 +4105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5">
       <c r="B203" s="8">
         <f t="shared" ref="B203:B207" si="12">B202+1</f>
         <v>7</v>
@@ -4113,7 +4120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" ht="33.75">
       <c r="B204" s="8">
         <f t="shared" si="12"/>
         <v>8</v>
@@ -4128,7 +4135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5">
       <c r="B205" s="8">
         <f t="shared" si="12"/>
         <v>9</v>
@@ -4139,7 +4146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5">
       <c r="B206" s="8">
         <f t="shared" si="12"/>
         <v>10</v>
@@ -4150,7 +4157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5">
       <c r="B207" s="8">
         <f t="shared" si="12"/>
         <v>11</v>
@@ -4161,33 +4168,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5">
       <c r="B208" s="17"/>
       <c r="C208" s="25"/>
       <c r="D208" s="18"/>
       <c r="E208" s="22"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:5">
       <c r="B210" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C210" s="29" t="s">
+      <c r="C210" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D210" s="29"/>
-      <c r="E210" s="29"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D210" s="26"/>
+      <c r="E210" s="26"/>
+    </row>
+    <row r="211" spans="2:5">
       <c r="B211" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C211" s="26" t="s">
+      <c r="C211" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D211" s="27"/>
-      <c r="E211" s="28"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D211" s="28"/>
+      <c r="E211" s="29"/>
+    </row>
+    <row r="212" spans="2:5">
       <c r="B212" s="9" t="s">
         <v>7</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:5">
       <c r="B213" s="8">
         <v>1</v>
       </c>
@@ -4213,7 +4220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:5">
       <c r="B214" s="8">
         <f>B213+1</f>
         <v>2</v>
@@ -4226,7 +4233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:5">
       <c r="B215" s="8">
         <f>B214+1</f>
         <v>3</v>
@@ -4239,7 +4246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:5">
       <c r="B216" s="8">
         <f t="shared" ref="B216:B232" si="13">B215+1</f>
         <v>4</v>
@@ -4252,7 +4259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:5">
       <c r="B217" s="8">
         <f t="shared" si="13"/>
         <v>5</v>
@@ -4265,7 +4272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:5">
       <c r="B218" s="8">
         <f t="shared" si="13"/>
         <v>6</v>
@@ -4280,7 +4287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:5">
       <c r="B219" s="8">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -4295,7 +4302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:5">
       <c r="B220" s="8">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -4310,7 +4317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:5">
       <c r="B221" s="8">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4325,7 +4332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:5" ht="22.5">
       <c r="B222" s="8">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -4340,7 +4347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:5">
       <c r="B223" s="8">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -4351,7 +4358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:5" ht="67.5">
       <c r="B224" s="8">
         <f t="shared" si="13"/>
         <v>12</v>
@@ -4366,7 +4373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:5" ht="45">
       <c r="B225" s="8">
         <f t="shared" si="13"/>
         <v>13</v>
@@ -4381,7 +4388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:5">
       <c r="B226" s="8">
         <f t="shared" si="13"/>
         <v>14</v>
@@ -4394,7 +4401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:5" ht="33.75">
       <c r="B227" s="8">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -4409,7 +4416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="84" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:5" ht="90">
       <c r="B228" s="8">
         <f t="shared" si="13"/>
         <v>16</v>
@@ -4424,7 +4431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:5" ht="33.75">
       <c r="B229" s="8">
         <f t="shared" si="13"/>
         <v>17</v>
@@ -4439,7 +4446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:5">
       <c r="B230" s="8">
         <f t="shared" si="13"/>
         <v>18</v>
@@ -4448,7 +4455,7 @@
       <c r="D230" s="7"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:5">
       <c r="B231" s="8">
         <f t="shared" si="13"/>
         <v>19</v>
@@ -4457,7 +4464,7 @@
       <c r="D231" s="7"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:5">
       <c r="B232" s="8">
         <f t="shared" si="13"/>
         <v>20</v>
@@ -4466,27 +4473,27 @@
       <c r="D232" s="7"/>
       <c r="E232" s="4"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:5">
       <c r="B235" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C235" s="29" t="s">
+      <c r="C235" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D235" s="29"/>
-      <c r="E235" s="29"/>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D235" s="26"/>
+      <c r="E235" s="26"/>
+    </row>
+    <row r="236" spans="2:5">
       <c r="B236" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C236" s="26" t="s">
+      <c r="C236" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D236" s="27"/>
-      <c r="E236" s="28"/>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D236" s="28"/>
+      <c r="E236" s="29"/>
+    </row>
+    <row r="237" spans="2:5">
       <c r="B237" s="9" t="s">
         <v>7</v>
       </c>
@@ -4500,7 +4507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:5">
       <c r="B238" s="8">
         <v>1</v>
       </c>
@@ -4514,7 +4521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:5">
       <c r="B239" s="8">
         <v>2</v>
       </c>
@@ -4526,7 +4533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:5">
       <c r="B240" s="8">
         <f t="shared" ref="B240:B241" si="14">B239+1</f>
         <v>3</v>
@@ -4541,7 +4548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:5">
       <c r="B241" s="8">
         <f t="shared" si="14"/>
         <v>4</v>
@@ -4554,7 +4561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:5">
       <c r="B242" s="8">
         <v>5</v>
       </c>
@@ -4566,7 +4573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:5">
       <c r="B243" s="8">
         <v>6</v>
       </c>
@@ -4578,7 +4585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:5">
       <c r="B244" s="8">
         <f t="shared" ref="B244:B245" si="15">B243+1</f>
         <v>7</v>
@@ -4593,7 +4600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:5" ht="45">
       <c r="B245" s="8">
         <f t="shared" si="15"/>
         <v>8</v>
@@ -4608,51 +4615,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:5">
       <c r="B246" s="17"/>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
       <c r="E246" s="22"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:5">
       <c r="B247" s="17"/>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
       <c r="E247" s="22"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:5">
       <c r="B248" s="17"/>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
       <c r="E248" s="22"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:5">
       <c r="B249" s="17"/>
       <c r="C249" s="18"/>
       <c r="D249" s="18"/>
       <c r="E249" s="19"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:5">
       <c r="B250" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C250" s="29" t="s">
+      <c r="C250" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D250" s="29"/>
-      <c r="E250" s="29"/>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D250" s="26"/>
+      <c r="E250" s="26"/>
+    </row>
+    <row r="251" spans="2:5">
       <c r="B251" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C251" s="26" t="s">
+      <c r="C251" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D251" s="27"/>
-      <c r="E251" s="28"/>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D251" s="28"/>
+      <c r="E251" s="29"/>
+    </row>
+    <row r="252" spans="2:5">
       <c r="B252" s="9" t="s">
         <v>7</v>
       </c>
@@ -4666,7 +4673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:5">
       <c r="B253" s="8">
         <v>1</v>
       </c>
@@ -4680,7 +4687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:5">
       <c r="B254" s="8">
         <f>B253+1</f>
         <v>2</v>
@@ -4695,7 +4702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:5">
       <c r="B255" s="8">
         <f t="shared" ref="B255:B256" si="16">B254+1</f>
         <v>3</v>
@@ -4710,7 +4717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:5">
       <c r="B256" s="8">
         <f t="shared" si="16"/>
         <v>4</v>
@@ -4725,33 +4732,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:5">
       <c r="B259" s="17"/>
       <c r="C259" s="18"/>
       <c r="D259" s="18"/>
       <c r="E259" s="19"/>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:5">
       <c r="B260" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C260" s="29" t="s">
+      <c r="C260" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D260" s="29"/>
-      <c r="E260" s="29"/>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D260" s="26"/>
+      <c r="E260" s="26"/>
+    </row>
+    <row r="261" spans="2:5">
       <c r="B261" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C261" s="26" t="s">
+      <c r="C261" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D261" s="27"/>
-      <c r="E261" s="28"/>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D261" s="28"/>
+      <c r="E261" s="29"/>
+    </row>
+    <row r="262" spans="2:5">
       <c r="B262" s="9" t="s">
         <v>7</v>
       </c>
@@ -4765,7 +4772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:5" ht="45">
       <c r="B263" s="8">
         <v>1</v>
       </c>
@@ -4779,7 +4786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:5">
       <c r="B264" s="8">
         <f>B263+1</f>
         <v>2</v>
@@ -4794,7 +4801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:5">
       <c r="B265" s="8">
         <f t="shared" ref="B265:B266" si="17">B264+1</f>
         <v>3</v>
@@ -4807,7 +4814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:5">
       <c r="B266" s="8">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -4818,27 +4825,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:5">
       <c r="B271" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C271" s="29" t="s">
+      <c r="C271" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D271" s="29"/>
-      <c r="E271" s="29"/>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D271" s="26"/>
+      <c r="E271" s="26"/>
+    </row>
+    <row r="272" spans="2:5">
       <c r="B272" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C272" s="26" t="s">
+      <c r="C272" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D272" s="27"/>
-      <c r="E272" s="28"/>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D272" s="28"/>
+      <c r="E272" s="29"/>
+    </row>
+    <row r="273" spans="2:5">
       <c r="B273" s="9" t="s">
         <v>7</v>
       </c>
@@ -4852,7 +4859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:5">
       <c r="B274" s="8">
         <v>1</v>
       </c>
@@ -4866,7 +4873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:5">
       <c r="B275" s="8">
         <f>B274+1</f>
         <v>2</v>
@@ -4881,7 +4888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:5">
       <c r="B276" s="8">
         <f t="shared" ref="B276:B284" si="18">B275+1</f>
         <v>3</v>
@@ -4896,7 +4903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:5">
       <c r="B277" s="8">
         <f t="shared" si="18"/>
         <v>4</v>
@@ -4911,7 +4918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:5">
       <c r="B278" s="8">
         <f t="shared" si="18"/>
         <v>5</v>
@@ -4926,7 +4933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:5">
       <c r="B279" s="8">
         <f t="shared" si="18"/>
         <v>6</v>
@@ -4941,7 +4948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:5">
       <c r="B280" s="8">
         <f t="shared" si="18"/>
         <v>7</v>
@@ -4956,7 +4963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:5" ht="22.5">
       <c r="B281" s="8">
         <f t="shared" si="18"/>
         <v>8</v>
@@ -4971,7 +4978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:5">
       <c r="B282" s="8">
         <f t="shared" si="18"/>
         <v>9</v>
@@ -4986,7 +4993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:5">
       <c r="B283" s="8">
         <f t="shared" si="18"/>
         <v>10</v>
@@ -5001,7 +5008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:5">
       <c r="B284" s="8">
         <f t="shared" si="18"/>
         <v>11</v>
@@ -5016,6 +5023,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C251:E251"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C194:E194"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C271:E271"/>
     <mergeCell ref="C272:E272"/>
     <mergeCell ref="C33:E33"/>
@@ -5032,25 +5054,10 @@
     <mergeCell ref="C260:E260"/>
     <mergeCell ref="C261:E261"/>
     <mergeCell ref="C250:E250"/>
-    <mergeCell ref="C251:E251"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C194:E194"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E253:E256 E86:E102 E35:E60 E151:E157 E238:E248 E263:E266 E274:E284 E65:E81 E182:E192 E107:E126 E213:E229 E25:E31 E197:E208 E166:E172 E9:E21 E133:E145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E253:E256 E133:E145 E35:E60 E151:E157 E238:E248 E263:E266 E274:E284 E65:E81 E182:E192 E107:E126 E213:E229 E25:E31 E197:E208 E166:E172 E9:E21 E86:E102">
       <formula1>"△,○,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5060,14 +5067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15570" windowHeight="11640" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Question" sheetId="5" r:id="rId2"/>
     <sheet name="U-Boot" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="277">
   <si>
     <t>Name</t>
   </si>
@@ -991,25 +991,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Know about filesystem? List up some filesystems? What's the main feature? Describe the sturcture?</t>
+    <t>Know about filesystem?
+List up some filesystems?
+List up some NAND-specified filesystem?
+What's the main feature?
+Describe the sturcture?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JFFS, JFFS2, YAFFS
+UBIFS
+LogFS
+F2FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">– Erase-before-write
+– Random access
+– Limited program/erase (P/E) cycle
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is the difference between NAND memory and harddisk ? Or the feature of NAND?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is the difference between NAND memory and Nor memory?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1017,7 +1044,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1025,7 +1052,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1033,7 +1060,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1041,7 +1068,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1049,7 +1076,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1057,7 +1084,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1065,7 +1092,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1074,7 +1101,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1082,7 +1109,7 @@
     <font>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1091,7 +1118,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1099,13 +1126,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1297,8 +1324,8 @@
   <cellStyles count="4">
     <cellStyle name="20% - 强调文字颜色 1" xfId="2" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="警告文本" xfId="3" builtinId="11"/>
     <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
-    <cellStyle name="警告文本" xfId="3" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1700,7 +1727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1708,19 +1735,19 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="83.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1">
+    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1">
+    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1736,27 +1763,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1">
+    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1">
+    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="24" ht="14.45" customHeight="1"/>
+    <row r="24" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1765,32 +1792,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D126" sqref="D126"/>
+      <pane ySplit="3" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.25" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1"/>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1"/>
-    <row r="4" spans="1:5" ht="15" customHeight="1"/>
-    <row r="5" spans="1:5" ht="15" customHeight="1"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
@@ -1800,7 +1827,7 @@
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
@@ -1810,7 +1837,7 @@
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="9" t="s">
         <v>7</v>
@@ -1825,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8">
         <v>1</v>
       </c>
@@ -1839,7 +1866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <f>B9+1</f>
         <v>2</v>
@@ -1854,7 +1881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <f t="shared" ref="B11:B19" si="0">B10+1</f>
         <v>3</v>
@@ -1867,7 +1894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1880,7 +1907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1893,7 +1920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
@@ -1907,7 +1934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1920,7 +1947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1933,7 +1960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1944,7 +1971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1954,7 +1981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1965,19 +1992,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
@@ -1987,7 +2014,7 @@
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
@@ -1997,7 +2024,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
         <v>7</v>
@@ -2012,7 +2039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8">
         <v>1</v>
       </c>
@@ -2026,7 +2053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="22.5">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B26" s="8">
         <f>B25+1</f>
         <v>2</v>
@@ -2039,37 +2066,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" s="17"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28" s="17"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1">
+    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="17"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1">
+    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="14" t="s">
         <v>4</v>
       </c>
@@ -2079,7 +2106,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1">
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
@@ -2089,7 +2116,7 @@
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
     </row>
-    <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
@@ -2103,7 +2130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="8">
         <v>1</v>
       </c>
@@ -2115,7 +2142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8">
         <f>B35+1</f>
         <v>2</v>
@@ -2130,7 +2157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="23.45" customHeight="1">
+    <row r="37" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="8">
         <f t="shared" ref="B37:B50" si="1">B36+1</f>
         <v>3</v>
@@ -2145,7 +2172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="23.45" customHeight="1">
+    <row r="38" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2160,7 +2187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1">
+    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2175,7 +2202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2190,7 +2217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2205,7 +2232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B42" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2220,7 +2247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2235,7 +2262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B44" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2250,7 +2277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="33.75">
+    <row r="45" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B45" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2265,7 +2292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B46" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2280,7 +2307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B47" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2295,7 +2322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B48" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2310,7 +2337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2325,7 +2352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="67.5">
+    <row r="50" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B50" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2340,7 +2367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="8">
         <f t="shared" ref="B51:B57" si="2">B50+1</f>
         <v>17</v>
@@ -2353,7 +2380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2368,7 +2395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2383,7 +2410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2398,7 +2425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2413,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2428,7 +2455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2443,26 +2470,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B58" s="17"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" s="17"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" s="17"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1"/>
-    <row r="62" spans="2:5" ht="19.899999999999999" customHeight="1">
+    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="14" t="s">
         <v>4</v>
       </c>
@@ -2472,7 +2499,7 @@
       <c r="D62" s="28"/>
       <c r="E62" s="29"/>
     </row>
-    <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="15" t="s">
         <v>3</v>
       </c>
@@ -2482,7 +2509,7 @@
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
     </row>
-    <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="9" t="s">
         <v>7</v>
       </c>
@@ -2496,7 +2523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="24" customFormat="1" ht="78.75">
+    <row r="65" spans="2:5" s="24" customFormat="1" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B65" s="20">
         <v>1</v>
       </c>
@@ -2510,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" s="8">
         <f>B65+1</f>
         <v>2</v>
@@ -2525,7 +2552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="22.5">
+    <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B67" s="8">
         <f t="shared" ref="B67:B78" si="3">B66+1</f>
         <v>3</v>
@@ -2540,7 +2567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="8">
         <v>3.1</v>
       </c>
@@ -2554,7 +2581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="22.5">
+    <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B69" s="8">
         <v>3.2</v>
       </c>
@@ -2566,7 +2593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" s="8">
         <v>3.3</v>
       </c>
@@ -2578,7 +2605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="8">
         <v>3.4</v>
       </c>
@@ -2590,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" s="8"/>
       <c r="C72" s="6"/>
       <c r="D72" s="23"/>
@@ -2598,7 +2625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="8">
         <f>B67+1</f>
         <v>4</v>
@@ -2613,7 +2640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" s="8">
         <f>B73+1</f>
         <v>5</v>
@@ -2628,7 +2655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2643,7 +2670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2658,7 +2685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" s="8">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2673,7 +2700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" s="8">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2688,31 +2715,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" s="17"/>
       <c r="C79" s="25"/>
       <c r="D79" s="18"/>
       <c r="E79" s="22"/>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" s="17"/>
       <c r="C80" s="25"/>
       <c r="D80" s="18"/>
       <c r="E80" s="22"/>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="17"/>
       <c r="C81" s="25"/>
       <c r="D81" s="18"/>
       <c r="E81" s="22"/>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="19"/>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="14" t="s">
         <v>4</v>
       </c>
@@ -2722,7 +2749,7 @@
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="15" t="s">
         <v>3</v>
       </c>
@@ -2732,7 +2759,7 @@
       <c r="D84" s="28"/>
       <c r="E84" s="29"/>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" s="9" t="s">
         <v>7</v>
       </c>
@@ -2746,7 +2773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="22.5">
+    <row r="86" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B86" s="8">
         <v>1</v>
       </c>
@@ -2760,7 +2787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="22.5">
+    <row r="87" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B87" s="8">
         <f>B86+1</f>
         <v>2</v>
@@ -2775,7 +2802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" s="8">
         <f t="shared" ref="B88:B99" si="4">B87+1</f>
         <v>3</v>
@@ -2788,7 +2815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2803,7 +2830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" s="8">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2818,7 +2845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B91" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2833,7 +2860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -2848,7 +2875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" s="8">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -2863,7 +2890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -2878,7 +2905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="22.5">
+    <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B95" s="8">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2893,7 +2920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" s="8">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2908,7 +2935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" s="8">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2923,7 +2950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" s="8">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2936,7 +2963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" s="8">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -2949,31 +2976,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="E100" s="22"/>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="22"/>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="22"/>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
       <c r="E103" s="19"/>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" s="14" t="s">
         <v>4</v>
       </c>
@@ -2983,7 +3010,7 @@
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" s="15" t="s">
         <v>3</v>
       </c>
@@ -2993,7 +3020,7 @@
       <c r="D105" s="28"/>
       <c r="E105" s="29"/>
     </row>
-    <row r="106" spans="2:5" ht="15" customHeight="1">
+    <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="9" t="s">
         <v>7</v>
       </c>
@@ -3007,7 +3034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1">
+    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="8">
         <v>1</v>
       </c>
@@ -3021,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1">
+    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="8">
         <f>B107+1</f>
         <v>2</v>
@@ -3034,7 +3061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B109" s="8">
         <f t="shared" ref="B109:B121" si="5">B108+1</f>
         <v>3</v>
@@ -3047,7 +3074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="45">
+    <row r="110" spans="2:5" ht="42" x14ac:dyDescent="0.15">
       <c r="B110" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3060,7 +3087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" s="8">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3073,7 +3100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" s="8">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -3086,7 +3113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="2:5">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B113" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3099,7 +3126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="2:5">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B114" s="8">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -3112,7 +3139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="2:5">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="8">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -3125,7 +3152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="2:5">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B116" s="8">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -3138,7 +3165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="2:5">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" s="8">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -3151,7 +3178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="2:5">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" s="8">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -3166,7 +3193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="2:5">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B119" s="8">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -3179,7 +3206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:5">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B120" s="8">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -3192,7 +3219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="67.5">
+    <row r="121" spans="2:5" ht="63" x14ac:dyDescent="0.15">
       <c r="B121" s="8">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -3207,7 +3234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="33.75">
+    <row r="122" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B122" s="8">
         <f t="shared" ref="B122:B126" si="6">B121+1</f>
         <v>16</v>
@@ -3222,7 +3249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="2:5">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B123" s="8">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -3235,7 +3262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="22.5">
+    <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B124" s="8">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -3248,7 +3275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="2:5">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="8">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -3263,7 +3290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="22.5">
+    <row r="126" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B126" s="8">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -3271,12 +3298,14 @@
       <c r="C126" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D126" s="7"/>
+      <c r="D126" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="E126" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" s="14" t="s">
         <v>4</v>
       </c>
@@ -3286,7 +3315,7 @@
       <c r="D130" s="26"/>
       <c r="E130" s="26"/>
     </row>
-    <row r="131" spans="2:5">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" s="15" t="s">
         <v>3</v>
       </c>
@@ -3296,7 +3325,7 @@
       <c r="D131" s="28"/>
       <c r="E131" s="29"/>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
         <v>7</v>
       </c>
@@ -3310,7 +3339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="8">
         <v>1</v>
       </c>
@@ -3322,7 +3351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="2:5">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="8">
         <f>B133+1</f>
         <v>2</v>
@@ -3335,7 +3364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="8">
         <f>B134+1</f>
         <v>3</v>
@@ -3350,7 +3379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="2:5">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="8">
         <f t="shared" ref="B136:B145" si="7">B135+1</f>
         <v>4</v>
@@ -3365,7 +3394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="8">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -3378,7 +3407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="2:5">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" s="8">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -3391,7 +3420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="2:5">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" s="8">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -3404,7 +3433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="2:5">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" s="8">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -3419,7 +3448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="22.5">
+    <row r="141" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B141" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -3432,7 +3461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="2:5">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" s="8">
         <f t="shared" si="7"/>
         <v>10</v>
@@ -3447,7 +3476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="2:5">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" s="8">
         <f t="shared" si="7"/>
         <v>11</v>
@@ -3460,7 +3489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="2:5">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" s="8">
         <f t="shared" si="7"/>
         <v>12</v>
@@ -3473,7 +3502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" s="8">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -3484,7 +3513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" s="14" t="s">
         <v>4</v>
       </c>
@@ -3494,7 +3523,7 @@
       <c r="D148" s="26"/>
       <c r="E148" s="26"/>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" s="15" t="s">
         <v>3</v>
       </c>
@@ -3504,7 +3533,7 @@
       <c r="D149" s="28"/>
       <c r="E149" s="29"/>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3518,7 +3547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="8">
         <v>1</v>
       </c>
@@ -3530,7 +3559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="8">
         <f>B151+1</f>
         <v>2</v>
@@ -3543,29 +3572,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="2:5">
+    <row r="153" spans="2:5" ht="42" x14ac:dyDescent="0.15">
       <c r="B153" s="8">
         <f t="shared" ref="B153:B154" si="8">B152+1</f>
         <v>3</v>
       </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
+      <c r="C153" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>274</v>
+      </c>
       <c r="E153" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="2:5">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="8">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C154" s="7"/>
+      <c r="C154" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="D154" s="7"/>
       <c r="E154" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="8">
         <v>5</v>
       </c>
@@ -3575,7 +3610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="2:5">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" s="8">
         <v>6</v>
       </c>
@@ -3585,7 +3620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="8">
         <v>7</v>
       </c>
@@ -3595,7 +3630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="2:5">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="8">
         <v>8</v>
       </c>
@@ -3603,7 +3638,7 @@
       <c r="D158" s="7"/>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="159" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B159" s="8">
         <v>9</v>
       </c>
@@ -3611,26 +3646,26 @@
       <c r="D159" s="7"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="160" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" s="17"/>
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
       <c r="E160" s="19"/>
     </row>
-    <row r="161" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="161" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B161" s="17"/>
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
       <c r="E161" s="19"/>
     </row>
-    <row r="162" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="162" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
     </row>
-    <row r="163" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="163" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163"/>
       <c r="B163" s="14" t="s">
         <v>4</v>
@@ -3641,7 +3676,7 @@
       <c r="D163" s="26"/>
       <c r="E163" s="26"/>
     </row>
-    <row r="164" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="164" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164"/>
       <c r="B164" s="15" t="s">
         <v>3</v>
@@ -3652,7 +3687,7 @@
       <c r="D164" s="28"/>
       <c r="E164" s="29"/>
     </row>
-    <row r="165" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="165" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165"/>
       <c r="B165" s="9" t="s">
         <v>7</v>
@@ -3667,7 +3702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="166" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166"/>
       <c r="B166" s="8">
         <v>1</v>
@@ -3680,7 +3715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="167" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167"/>
       <c r="B167" s="8">
         <f>B166+1</f>
@@ -3696,7 +3731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="168" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168"/>
       <c r="B168" s="8">
         <f t="shared" ref="B168:B169" si="9">B167+1</f>
@@ -3712,7 +3747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="169" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169"/>
       <c r="B169" s="8">
         <f t="shared" si="9"/>
@@ -3728,7 +3763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="170" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170"/>
       <c r="B170" s="8">
         <v>5</v>
@@ -3741,7 +3776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="171" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171"/>
       <c r="B171" s="8">
         <v>6</v>
@@ -3754,7 +3789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="172" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172"/>
       <c r="B172" s="8">
         <v>7</v>
@@ -3765,7 +3800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="173" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173"/>
       <c r="B173" s="8">
         <v>8</v>
@@ -3774,7 +3809,7 @@
       <c r="D173" s="7"/>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="174" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B174" s="8">
         <v>9</v>
       </c>
@@ -3782,32 +3817,32 @@
       <c r="D174" s="7"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="175" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B175" s="17"/>
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
       <c r="E175" s="19"/>
     </row>
-    <row r="176" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="176" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B176" s="17"/>
       <c r="C176" s="18"/>
       <c r="D176" s="18"/>
       <c r="E176" s="19"/>
     </row>
-    <row r="177" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="177" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" s="17"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="19"/>
     </row>
-    <row r="178" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="178" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" s="17"/>
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
       <c r="E178" s="19"/>
     </row>
-    <row r="179" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1"/>
-    <row r="180" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="179" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B180" s="15" t="s">
         <v>3</v>
       </c>
@@ -3817,7 +3852,7 @@
       <c r="D180" s="28"/>
       <c r="E180" s="29"/>
     </row>
-    <row r="181" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="181" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B181" s="9" t="s">
         <v>7</v>
       </c>
@@ -3831,7 +3866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="182" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B182" s="8">
         <v>1</v>
       </c>
@@ -3845,7 +3880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="2:5" ht="22.5">
+    <row r="183" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B183" s="8">
         <f>B182+1</f>
         <v>2</v>
@@ -3860,7 +3895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="2:5" ht="33.75">
+    <row r="184" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B184" s="8">
         <f t="shared" ref="B184:B191" si="10">B183+1</f>
         <v>3</v>
@@ -3875,7 +3910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B185" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -3890,7 +3925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="22.5">
+    <row r="186" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B186" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -3905,7 +3940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="2:5">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B187" s="8">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -3920,7 +3955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="33.75">
+    <row r="188" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B188" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -3935,7 +3970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="2:5">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B189" s="8">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -3950,7 +3985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="2:5">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B190" s="8">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -3961,7 +3996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="2:5">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B191" s="8">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -3972,13 +4007,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B192" s="17"/>
       <c r="C192" s="18"/>
       <c r="D192" s="18"/>
       <c r="E192" s="22"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="11"/>
       <c r="B194" s="14" t="s">
         <v>4</v>
@@ -3989,7 +4024,7 @@
       <c r="D194" s="26"/>
       <c r="E194" s="26"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="11"/>
       <c r="B195" s="15" t="s">
         <v>3</v>
@@ -4000,7 +4035,7 @@
       <c r="D195" s="28"/>
       <c r="E195" s="29"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="11"/>
       <c r="B196" s="9" t="s">
         <v>7</v>
@@ -4015,7 +4050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" s="11"/>
       <c r="B197" s="8">
         <v>1</v>
@@ -4030,7 +4065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B198" s="8">
         <f>B197+1</f>
         <v>2</v>
@@ -4045,7 +4080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B199" s="8">
         <f t="shared" ref="B199:B202" si="11">B198+1</f>
         <v>3</v>
@@ -4060,7 +4095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B200" s="8">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -4075,7 +4110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B201" s="8">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4090,7 +4125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B202" s="8">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -4105,7 +4140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B203" s="8">
         <f t="shared" ref="B203:B207" si="12">B202+1</f>
         <v>7</v>
@@ -4120,7 +4155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="33.75">
+    <row r="204" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B204" s="8">
         <f t="shared" si="12"/>
         <v>8</v>
@@ -4135,7 +4170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B205" s="8">
         <f t="shared" si="12"/>
         <v>9</v>
@@ -4146,7 +4181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B206" s="8">
         <f t="shared" si="12"/>
         <v>10</v>
@@ -4157,7 +4192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B207" s="8">
         <f t="shared" si="12"/>
         <v>11</v>
@@ -4168,13 +4203,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B208" s="17"/>
       <c r="C208" s="25"/>
       <c r="D208" s="18"/>
       <c r="E208" s="22"/>
     </row>
-    <row r="210" spans="2:5">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B210" s="14" t="s">
         <v>4</v>
       </c>
@@ -4184,7 +4219,7 @@
       <c r="D210" s="26"/>
       <c r="E210" s="26"/>
     </row>
-    <row r="211" spans="2:5">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B211" s="15" t="s">
         <v>3</v>
       </c>
@@ -4194,7 +4229,7 @@
       <c r="D211" s="28"/>
       <c r="E211" s="29"/>
     </row>
-    <row r="212" spans="2:5">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B212" s="9" t="s">
         <v>7</v>
       </c>
@@ -4208,7 +4243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="2:5">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B213" s="8">
         <v>1</v>
       </c>
@@ -4220,7 +4255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="2:5">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B214" s="8">
         <f>B213+1</f>
         <v>2</v>
@@ -4233,7 +4268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="2:5">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B215" s="8">
         <f>B214+1</f>
         <v>3</v>
@@ -4246,7 +4281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="2:5">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B216" s="8">
         <f t="shared" ref="B216:B232" si="13">B215+1</f>
         <v>4</v>
@@ -4259,7 +4294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="2:5">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B217" s="8">
         <f t="shared" si="13"/>
         <v>5</v>
@@ -4272,7 +4307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="2:5">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B218" s="8">
         <f t="shared" si="13"/>
         <v>6</v>
@@ -4287,7 +4322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="2:5">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B219" s="8">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -4302,7 +4337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="2:5">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B220" s="8">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -4317,7 +4352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="2:5">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B221" s="8">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4332,7 +4367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="22.5">
+    <row r="222" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B222" s="8">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -4347,7 +4382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="2:5">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B223" s="8">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -4358,7 +4393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="67.5">
+    <row r="224" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B224" s="8">
         <f t="shared" si="13"/>
         <v>12</v>
@@ -4373,7 +4408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="2:5" ht="45">
+    <row r="225" spans="2:5" ht="42" x14ac:dyDescent="0.15">
       <c r="B225" s="8">
         <f t="shared" si="13"/>
         <v>13</v>
@@ -4388,7 +4423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="2:5">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B226" s="8">
         <f t="shared" si="13"/>
         <v>14</v>
@@ -4401,7 +4436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="33.75">
+    <row r="227" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B227" s="8">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -4416,7 +4451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="90">
+    <row r="228" spans="2:5" ht="84" x14ac:dyDescent="0.15">
       <c r="B228" s="8">
         <f t="shared" si="13"/>
         <v>16</v>
@@ -4431,7 +4466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="2:5" ht="33.75">
+    <row r="229" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B229" s="8">
         <f t="shared" si="13"/>
         <v>17</v>
@@ -4446,7 +4481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="2:5">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B230" s="8">
         <f t="shared" si="13"/>
         <v>18</v>
@@ -4455,7 +4490,7 @@
       <c r="D230" s="7"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="2:5">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B231" s="8">
         <f t="shared" si="13"/>
         <v>19</v>
@@ -4464,7 +4499,7 @@
       <c r="D231" s="7"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="2:5">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B232" s="8">
         <f t="shared" si="13"/>
         <v>20</v>
@@ -4473,7 +4508,7 @@
       <c r="D232" s="7"/>
       <c r="E232" s="4"/>
     </row>
-    <row r="235" spans="2:5">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B235" s="14" t="s">
         <v>4</v>
       </c>
@@ -4483,7 +4518,7 @@
       <c r="D235" s="26"/>
       <c r="E235" s="26"/>
     </row>
-    <row r="236" spans="2:5">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B236" s="15" t="s">
         <v>3</v>
       </c>
@@ -4493,7 +4528,7 @@
       <c r="D236" s="28"/>
       <c r="E236" s="29"/>
     </row>
-    <row r="237" spans="2:5">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B237" s="9" t="s">
         <v>7</v>
       </c>
@@ -4507,7 +4542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="2:5">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B238" s="8">
         <v>1</v>
       </c>
@@ -4521,7 +4556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="2:5">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B239" s="8">
         <v>2</v>
       </c>
@@ -4533,7 +4568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="2:5">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B240" s="8">
         <f t="shared" ref="B240:B241" si="14">B239+1</f>
         <v>3</v>
@@ -4548,7 +4583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="2:5">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B241" s="8">
         <f t="shared" si="14"/>
         <v>4</v>
@@ -4561,7 +4596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="2:5">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B242" s="8">
         <v>5</v>
       </c>
@@ -4573,7 +4608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="2:5">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B243" s="8">
         <v>6</v>
       </c>
@@ -4585,7 +4620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="2:5">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B244" s="8">
         <f t="shared" ref="B244:B245" si="15">B243+1</f>
         <v>7</v>
@@ -4600,7 +4635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="45">
+    <row r="245" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B245" s="8">
         <f t="shared" si="15"/>
         <v>8</v>
@@ -4615,31 +4650,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="2:5">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B246" s="17"/>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
       <c r="E246" s="22"/>
     </row>
-    <row r="247" spans="2:5">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B247" s="17"/>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
       <c r="E247" s="22"/>
     </row>
-    <row r="248" spans="2:5">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B248" s="17"/>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
       <c r="E248" s="22"/>
     </row>
-    <row r="249" spans="2:5">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B249" s="17"/>
       <c r="C249" s="18"/>
       <c r="D249" s="18"/>
       <c r="E249" s="19"/>
     </row>
-    <row r="250" spans="2:5">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B250" s="14" t="s">
         <v>4</v>
       </c>
@@ -4649,7 +4684,7 @@
       <c r="D250" s="26"/>
       <c r="E250" s="26"/>
     </row>
-    <row r="251" spans="2:5">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B251" s="15" t="s">
         <v>3</v>
       </c>
@@ -4659,7 +4694,7 @@
       <c r="D251" s="28"/>
       <c r="E251" s="29"/>
     </row>
-    <row r="252" spans="2:5">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B252" s="9" t="s">
         <v>7</v>
       </c>
@@ -4673,7 +4708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="2:5">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B253" s="8">
         <v>1</v>
       </c>
@@ -4687,7 +4722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="2:5">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B254" s="8">
         <f>B253+1</f>
         <v>2</v>
@@ -4702,7 +4737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="2:5">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B255" s="8">
         <f t="shared" ref="B255:B256" si="16">B254+1</f>
         <v>3</v>
@@ -4717,7 +4752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="2:5">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B256" s="8">
         <f t="shared" si="16"/>
         <v>4</v>
@@ -4732,13 +4767,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="2:5">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B259" s="17"/>
       <c r="C259" s="18"/>
       <c r="D259" s="18"/>
       <c r="E259" s="19"/>
     </row>
-    <row r="260" spans="2:5">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B260" s="14" t="s">
         <v>4</v>
       </c>
@@ -4748,7 +4783,7 @@
       <c r="D260" s="26"/>
       <c r="E260" s="26"/>
     </row>
-    <row r="261" spans="2:5">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B261" s="15" t="s">
         <v>3</v>
       </c>
@@ -4758,7 +4793,7 @@
       <c r="D261" s="28"/>
       <c r="E261" s="29"/>
     </row>
-    <row r="262" spans="2:5">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B262" s="9" t="s">
         <v>7</v>
       </c>
@@ -4772,7 +4807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="45">
+    <row r="263" spans="2:5" ht="42" x14ac:dyDescent="0.15">
       <c r="B263" s="8">
         <v>1</v>
       </c>
@@ -4786,7 +4821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="2:5">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B264" s="8">
         <f>B263+1</f>
         <v>2</v>
@@ -4801,7 +4836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="2:5">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B265" s="8">
         <f t="shared" ref="B265:B266" si="17">B264+1</f>
         <v>3</v>
@@ -4814,7 +4849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="2:5">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B266" s="8">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -4825,7 +4860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="2:5">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B271" s="14" t="s">
         <v>4</v>
       </c>
@@ -4835,7 +4870,7 @@
       <c r="D271" s="26"/>
       <c r="E271" s="26"/>
     </row>
-    <row r="272" spans="2:5">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B272" s="15" t="s">
         <v>3</v>
       </c>
@@ -4845,7 +4880,7 @@
       <c r="D272" s="28"/>
       <c r="E272" s="29"/>
     </row>
-    <row r="273" spans="2:5">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B273" s="9" t="s">
         <v>7</v>
       </c>
@@ -4859,7 +4894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="2:5">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B274" s="8">
         <v>1</v>
       </c>
@@ -4873,7 +4908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="2:5">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B275" s="8">
         <f>B274+1</f>
         <v>2</v>
@@ -4888,7 +4923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="2:5">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B276" s="8">
         <f t="shared" ref="B276:B284" si="18">B275+1</f>
         <v>3</v>
@@ -4903,7 +4938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="2:5">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B277" s="8">
         <f t="shared" si="18"/>
         <v>4</v>
@@ -4918,7 +4953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="2:5">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B278" s="8">
         <f t="shared" si="18"/>
         <v>5</v>
@@ -4933,7 +4968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="2:5">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B279" s="8">
         <f t="shared" si="18"/>
         <v>6</v>
@@ -4948,7 +4983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="2:5">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B280" s="8">
         <f t="shared" si="18"/>
         <v>7</v>
@@ -4963,7 +4998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="22.5">
+    <row r="281" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B281" s="8">
         <f t="shared" si="18"/>
         <v>8</v>
@@ -4978,7 +5013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="2:5">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B282" s="8">
         <f t="shared" si="18"/>
         <v>9</v>
@@ -4993,7 +5028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="2:5">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B283" s="8">
         <f t="shared" si="18"/>
         <v>10</v>
@@ -5008,7 +5043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="2:5">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B284" s="8">
         <f t="shared" si="18"/>
         <v>11</v>
@@ -5067,14 +5102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="292">
   <si>
     <t>Name</t>
   </si>
@@ -325,9 +325,6 @@
     <t>explain interrupt latency and how to improve it?</t>
   </si>
   <si>
-    <t>If experience in other OS, compare the other OS with embeded linux, adv &amp; dis?</t>
-  </si>
-  <si>
     <t>What is the function of DMA controlled in embedded system?</t>
   </si>
   <si>
@@ -347,12 +344,6 @@
   </si>
   <si>
     <t>What is the difference between procfs and sysfs?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interrupt related : 
-trigger, kernel processing
-What are the APIs that are used to register an interrupt handler?
-</t>
   </si>
   <si>
     <t>Use gcc to compile one program, gcc option? The related steps? How to link to a local libfoo.so library?</t>
@@ -1018,6 +1009,73 @@
   </si>
   <si>
     <t xml:space="preserve"> What is the difference between NAND memory and Nor memory?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you refer to the arguments passed to a shell script?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - $1, $2 and so on. $0 is your script name.</t>
+  </si>
+  <si>
+    <t>Difference between Mutex and Spinlock.</t>
+  </si>
+  <si>
+    <t>Can we have mutex or spinlock in ISR?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel interrupt related</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To check if one familiar with linux kernel interrupt machinism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_irq() / free_irq()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the APIs that are used to register an interrupt handler?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the different bottom-half mechanisms in Linux?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Softirq, Tasklet and Workqueues</t>
+  </si>
+  <si>
+    <t>What is bottom half and top half.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain about the interrupt mechanims in linux?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Softirq is guaranteed to run on the CPU it was scheduled on, where as tasklets don’t have that guarantee. 
+The same tasklet can't run on two separate CPUs at the same time, where as a softirq can. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the differences between softirqs and tasklets and work queue?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future work direction: techinal ? Management ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If experience in other OS, compare the other OS with embeded linux, adv &amp; dis?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any experience in RTOS? Describe the RTOS feature.IPC machinism? Support Arch?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1229,7 +1287,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1308,7 +1366,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1318,6 +1382,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1793,11 +1860,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
+      <pane ySplit="3" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1821,21 +1888,21 @@
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
+      <c r="C7" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
@@ -1887,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="21" t="s">
@@ -1900,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="21" t="s">
@@ -1913,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="21" t="s">
@@ -2008,21 +2075,21 @@
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
+      <c r="C23" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
@@ -2044,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>24</v>
@@ -2053,24 +2120,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="8">
         <f>B25+1</f>
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="22"/>
+    <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="8">
+        <f>B26+1</f>
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28" s="17"/>
@@ -2100,21 +2174,21 @@
       <c r="B32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
+      <c r="C32" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
@@ -2135,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="21" t="s">
@@ -2148,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>13</v>
@@ -2163,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>14</v>
@@ -2193,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>15</v>
@@ -2208,10 +2282,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>11</v>
@@ -2223,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>16</v>
@@ -2253,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>18</v>
@@ -2283,10 +2357,10 @@
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>11</v>
@@ -2343,10 +2417,10 @@
         <v>15</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>11</v>
@@ -2358,10 +2432,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>11</v>
@@ -2373,7 +2447,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="21" t="s">
@@ -2386,10 +2460,10 @@
         <v>18</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>11</v>
@@ -2401,10 +2475,10 @@
         <v>19</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>11</v>
@@ -2416,10 +2490,10 @@
         <v>20</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>11</v>
@@ -2431,10 +2505,10 @@
         <v>21</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>11</v>
@@ -2446,10 +2520,10 @@
         <v>22</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>11</v>
@@ -2461,10 +2535,10 @@
         <v>23</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>11</v>
@@ -2493,21 +2567,21 @@
       <c r="B62" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="31"/>
     </row>
     <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="31"/>
     </row>
     <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="9" t="s">
@@ -2528,10 +2602,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>11</v>
@@ -2543,10 +2617,10 @@
         <v>2</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>11</v>
@@ -2558,10 +2632,10 @@
         <v>3</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" s="23" t="s">
         <v>244</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>246</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>11</v>
@@ -2572,10 +2646,10 @@
         <v>3.1</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>11</v>
@@ -2586,7 +2660,7 @@
         <v>3.2</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="21" t="s">
@@ -2598,7 +2672,7 @@
         <v>3.3</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="21" t="s">
@@ -2610,7 +2684,7 @@
         <v>3.4</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="21" t="s">
@@ -2676,10 +2750,10 @@
         <v>7</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>11</v>
@@ -2691,10 +2765,10 @@
         <v>8</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>11</v>
@@ -2706,10 +2780,10 @@
         <v>9</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>11</v>
@@ -2743,21 +2817,21 @@
       <c r="B83" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="29"/>
+      <c r="C83" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="31"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="29"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="31"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" s="9" t="s">
@@ -2778,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>11</v>
@@ -2793,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>71</v>
@@ -2851,10 +2925,10 @@
         <v>6</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E91" s="21" t="s">
         <v>11</v>
@@ -2866,10 +2940,10 @@
         <v>7</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>11</v>
@@ -2881,10 +2955,10 @@
         <v>8</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>11</v>
@@ -2896,10 +2970,10 @@
         <v>9</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>11</v>
@@ -2911,10 +2985,10 @@
         <v>10</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E95" s="21" t="s">
         <v>11</v>
@@ -2926,10 +3000,10 @@
         <v>11</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>11</v>
@@ -2941,10 +3015,10 @@
         <v>12</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>11</v>
@@ -2956,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="21" t="s">
@@ -2969,7 +3043,7 @@
         <v>14</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="21" t="s">
@@ -3004,21 +3078,21 @@
       <c r="B104" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
+      <c r="C104" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" s="30"/>
+      <c r="E104" s="31"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="29"/>
+      <c r="C105" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="27"/>
+      <c r="E105" s="28"/>
     </row>
     <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="9" t="s">
@@ -3039,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>11</v>
@@ -3074,14 +3148,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="C110" s="6"/>
       <c r="D110" s="7"/>
       <c r="E110" s="21" t="s">
         <v>11</v>
@@ -3145,7 +3217,7 @@
         <v>9</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="21" t="s">
@@ -3158,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="21" t="s">
@@ -3171,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="21" t="s">
@@ -3184,10 +3256,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E118" s="21" t="s">
         <v>11</v>
@@ -3199,7 +3271,7 @@
         <v>13</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="21" t="s">
@@ -3212,7 +3284,7 @@
         <v>14</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="21" t="s">
@@ -3225,10 +3297,10 @@
         <v>15</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E121" s="21" t="s">
         <v>11</v>
@@ -3236,14 +3308,14 @@
     </row>
     <row r="122" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B122" s="8">
-        <f t="shared" ref="B122:B126" si="6">B121+1</f>
+        <f t="shared" ref="B122:B128" si="6">B121+1</f>
         <v>16</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E122" s="21" t="s">
         <v>11</v>
@@ -3255,7 +3327,7 @@
         <v>17</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="21" t="s">
@@ -3268,7 +3340,7 @@
         <v>18</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="21" t="s">
@@ -3281,10 +3353,10 @@
         <v>19</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E125" s="21" t="s">
         <v>11</v>
@@ -3296,99 +3368,115 @@
         <v>20</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E126" s="21" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B127" s="8">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B128" s="8">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B129" s="17"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="22"/>
+    </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="17"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="22"/>
+    </row>
+    <row r="131" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="17"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="22"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B132" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C130" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B131" s="15" t="s">
+      <c r="C132" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" s="30"/>
+      <c r="E132" s="31"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B133" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D131" s="28"/>
-      <c r="E131" s="29"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B132" s="9" t="s">
+      <c r="C133" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D133" s="27"/>
+      <c r="E133" s="28"/>
+    </row>
+    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D134" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E134" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B133" s="8">
+    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="8">
         <v>1</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D133" s="13"/>
-      <c r="E133" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B134" s="8">
-        <f>B133+1</f>
+      <c r="C135" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D135" s="13"/>
+      <c r="E135" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="8">
+        <f>B135+1</f>
         <v>2</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D134" s="13"/>
-      <c r="E134" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B135" s="8">
-        <f>B134+1</f>
-        <v>3</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B136" s="8">
-        <f t="shared" ref="B136:B145" si="7">B135+1</f>
-        <v>4</v>
-      </c>
       <c r="C136" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>90</v>
+        <v>282</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="E136" s="21" t="s">
         <v>11</v>
@@ -3396,26 +3484,28 @@
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="8">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D137" s="7"/>
+        <f t="shared" ref="B137:B139" si="7">B136+1</f>
+        <v>3</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D137" s="6"/>
       <c r="E137" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B138" s="8">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D138" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="E138" s="21" t="s">
         <v>11</v>
       </c>
@@ -3423,136 +3513,107 @@
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" s="8">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B140" s="17"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="22"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B141" s="17"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B142" s="17"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="22"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B143" s="17"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="22"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B144" s="17"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="22"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B145" s="17"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="22"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B147" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B148" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D148" s="30"/>
+      <c r="E148" s="31"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B149" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D139" s="7"/>
-      <c r="E139" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B140" s="8">
-        <f t="shared" si="7"/>
+      <c r="C149" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B141" s="8">
-        <f t="shared" si="7"/>
+      <c r="D149" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D141" s="7"/>
-      <c r="E141" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B142" s="8">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B143" s="8">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D143" s="7"/>
-      <c r="E143" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B144" s="8">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D144" s="7"/>
-      <c r="E144" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B145" s="8">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B148" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B149" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D149" s="28"/>
-      <c r="E149" s="29"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B150" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>9</v>
+      <c r="B150" s="8">
+        <v>1</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D150" s="13"/>
+      <c r="E150" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="8">
-        <v>1</v>
+        <f>B150+1</f>
+        <v>2</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="21" t="s">
@@ -3562,26 +3623,28 @@
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="8">
         <f>B151+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D152" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="E152" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="8">
-        <f t="shared" ref="B153:B154" si="8">B152+1</f>
-        <v>3</v>
+        <f t="shared" ref="B153:B162" si="8">B152+1</f>
+        <v>4</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>275</v>
+        <v>89</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="E153" s="21" t="s">
         <v>11</v>
@@ -3590,10 +3653,10 @@
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="8">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="21" t="s">
@@ -3602,9 +3665,12 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="8">
-        <v>5</v>
-      </c>
-      <c r="C155" s="7"/>
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="D155" s="7"/>
       <c r="E155" s="21" t="s">
         <v>11</v>
@@ -3612,9 +3678,12 @@
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" s="8">
-        <v>6</v>
-      </c>
-      <c r="C156" s="7"/>
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="D156" s="7"/>
       <c r="E156" s="21" t="s">
         <v>11</v>
@@ -3622,177 +3691,174 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B158" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D158" s="7"/>
+      <c r="E158" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B159" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B160" s="8">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B161" s="8">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B162" s="8">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B165" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B166" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D166" s="30"/>
+      <c r="E166" s="31"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B167" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B158" s="8">
+      <c r="C167" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="8">
+      <c r="D167" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="17"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="19"/>
-    </row>
-    <row r="161" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="17"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="19"/>
-    </row>
-    <row r="162" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162"/>
-      <c r="B162"/>
-      <c r="C162"/>
-      <c r="D162"/>
-      <c r="E162"/>
-    </row>
-    <row r="163" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163"/>
-      <c r="B163" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
-    </row>
-    <row r="164" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164"/>
-      <c r="B164" s="15" t="s">
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B168" s="8">
+        <v>1</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D168" s="13"/>
+      <c r="E168" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B169" s="8">
+        <f>B168+1</f>
+        <v>2</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="B170" s="8">
+        <f t="shared" ref="B170:B171" si="9">B169+1</f>
         <v>3</v>
       </c>
-      <c r="C164" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D164" s="28"/>
-      <c r="E164" s="29"/>
-    </row>
-    <row r="165" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165"/>
-      <c r="B165" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E165" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166"/>
-      <c r="B166" s="8">
-        <v>1</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D166" s="13"/>
-      <c r="E166" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167"/>
-      <c r="B167" s="8">
-        <f>B166+1</f>
-        <v>2</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E167" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168"/>
-      <c r="B168" s="8">
-        <f t="shared" ref="B168:B169" si="9">B167+1</f>
-        <v>3</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E168" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169"/>
-      <c r="B169" s="8">
+      <c r="C170" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B171" s="8">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="C169" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E169" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170"/>
-      <c r="B170" s="8">
-        <v>5</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D170" s="7"/>
-      <c r="E170" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171"/>
-      <c r="B171" s="8">
-        <v>6</v>
-      </c>
       <c r="C171" s="7" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172"/>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
@@ -3800,953 +3866,951 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173"/>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B173" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
-      <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E173" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B174" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
-      <c r="E174" s="4"/>
-    </row>
-    <row r="175" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="17"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="19"/>
-    </row>
-    <row r="176" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="17"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="19"/>
-    </row>
-    <row r="177" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E174" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B175" s="8">
+        <v>8</v>
+      </c>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="8">
+        <v>9</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" s="17"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="19"/>
     </row>
-    <row r="178" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" s="17"/>
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
       <c r="E178" s="19"/>
     </row>
-    <row r="179" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="15" t="s">
+    <row r="179" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180"/>
+      <c r="B180" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+    </row>
+    <row r="181" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181"/>
+      <c r="B181" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C180" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D180" s="28"/>
-      <c r="E180" s="29"/>
-    </row>
-    <row r="181" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="9" t="s">
+      <c r="C181" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D181" s="30"/>
+      <c r="E181" s="31"/>
+    </row>
+    <row r="182" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182"/>
+      <c r="B182" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C182" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D182" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E181" s="10" t="s">
+      <c r="E182" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="8">
+    <row r="183" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183"/>
+      <c r="B183" s="8">
         <v>1</v>
       </c>
-      <c r="C182" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D182" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E182" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B183" s="8">
-        <f>B182+1</f>
+      <c r="C183" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D183" s="13"/>
+      <c r="E183" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184"/>
+      <c r="B184" s="8">
+        <f>B183+1</f>
         <v>2</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E183" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B184" s="8">
-        <f t="shared" ref="B184:B191" si="10">B183+1</f>
+      <c r="C184" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E184" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185"/>
+      <c r="B185" s="8">
+        <f t="shared" ref="B185:B186" si="10">B184+1</f>
         <v>3</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E184" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B185" s="8">
+      <c r="C185" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186"/>
+      <c r="B186" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E185" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B186" s="8">
-        <f t="shared" si="10"/>
+      <c r="C186" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E186" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187"/>
+      <c r="B187" s="8">
         <v>5</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E186" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B187" s="8">
-        <f t="shared" si="10"/>
+      <c r="C187" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D187" s="7"/>
+      <c r="E187" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188"/>
+      <c r="B188" s="8">
         <v>6</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E187" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B188" s="8">
-        <f t="shared" si="10"/>
+      <c r="C188" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D188" s="7"/>
+      <c r="E188" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189"/>
+      <c r="B189" s="8">
         <v>7</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E188" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B189" s="8">
-        <f t="shared" si="10"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190"/>
+      <c r="B190" s="8">
         <v>8</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B190" s="8">
-        <f t="shared" si="10"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="8">
         <v>9</v>
       </c>
-      <c r="C190" s="7"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B191" s="8">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
       <c r="C191" s="7"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D191" s="7"/>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B192" s="17"/>
       <c r="C192" s="18"/>
       <c r="D192" s="18"/>
-      <c r="E192" s="22"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A194" s="11"/>
-      <c r="B194" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A195" s="11"/>
-      <c r="B195" s="15" t="s">
+      <c r="E192" s="19"/>
+    </row>
+    <row r="193" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="17"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="19"/>
+    </row>
+    <row r="194" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="17"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="19"/>
+    </row>
+    <row r="195" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="17"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="19"/>
+    </row>
+    <row r="196" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C195" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D195" s="28"/>
-      <c r="E195" s="29"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A196" s="11"/>
-      <c r="B196" s="9" t="s">
+      <c r="C197" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D197" s="30"/>
+      <c r="E197" s="31"/>
+    </row>
+    <row r="198" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C198" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D198" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E196" s="10" t="s">
+      <c r="E198" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A197" s="11"/>
-      <c r="B197" s="8">
+    <row r="199" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="8">
         <v>1</v>
       </c>
-      <c r="C197" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D197" s="13" t="s">
+      <c r="C199" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D199" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E197" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B198" s="8">
-        <f>B197+1</f>
+      <c r="E199" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B200" s="8">
+        <f>B199+1</f>
         <v>2</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D198" s="6" t="s">
+      <c r="C200" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D200" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E198" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B199" s="8">
-        <f t="shared" ref="B199:B202" si="11">B198+1</f>
+      <c r="E200" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B201" s="8">
+        <f t="shared" ref="B201:B208" si="11">B200+1</f>
         <v>3</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D199" s="6" t="s">
+      <c r="C201" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E199" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B200" s="8">
+      <c r="E201" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B202" s="8">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C202" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D202" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E200" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B201" s="8">
+      <c r="E202" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B203" s="8">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="C201" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D201" s="7" t="s">
+      <c r="C203" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E201" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B202" s="8">
+      <c r="E203" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B204" s="8">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="C202" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D202" s="7" t="s">
+      <c r="C204" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E202" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B203" s="8">
-        <f t="shared" ref="B203:B207" si="12">B202+1</f>
+      <c r="E204" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B205" s="8">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="C203" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E203" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B204" s="8">
-        <f t="shared" si="12"/>
+      <c r="C205" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E205" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B206" s="8">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E204" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B205" s="8">
-        <f t="shared" si="12"/>
+      <c r="C206" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E206" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B207" s="8">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="C205" s="6"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B206" s="8">
-        <f t="shared" si="12"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B208" s="8">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="C206" s="6"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B207" s="8">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="C207" s="6"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B208" s="17"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="22"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B210" s="14" t="s">
+      <c r="C208" s="7"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B209" s="17"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="18"/>
+      <c r="E209" s="22"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A211" s="11"/>
+      <c r="B211" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C210" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B211" s="15" t="s">
+      <c r="C211" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A212" s="11"/>
+      <c r="B212" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C211" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D211" s="28"/>
-      <c r="E211" s="29"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B212" s="9" t="s">
+      <c r="C212" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D212" s="30"/>
+      <c r="E212" s="31"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A213" s="11"/>
+      <c r="B213" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C213" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D212" s="10" t="s">
+      <c r="D213" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E212" s="10" t="s">
+      <c r="E213" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B213" s="8">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A214" s="11"/>
+      <c r="B214" s="8">
         <v>1</v>
       </c>
-      <c r="C213" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D213" s="13"/>
-      <c r="E213" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B214" s="8">
-        <f>B213+1</f>
-        <v>2</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D214" s="13"/>
+      <c r="C214" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="E214" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B215" s="8">
         <f>B214+1</f>
+        <v>2</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E215" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B216" s="8">
+        <f t="shared" ref="B216:B219" si="12">B215+1</f>
         <v>3</v>
       </c>
-      <c r="C215" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D215" s="6"/>
-      <c r="E215" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B216" s="8">
-        <f t="shared" ref="B216:B232" si="13">B215+1</f>
+      <c r="C216" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E216" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B217" s="8">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C216" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D216" s="7"/>
-      <c r="E216" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B217" s="8">
-        <f t="shared" si="13"/>
+      <c r="C217" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E217" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B218" s="8">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C217" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D217" s="7"/>
-      <c r="E217" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B218" s="8">
-        <f t="shared" si="13"/>
+      <c r="C218" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E218" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B219" s="8">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C219" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E219" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B220" s="8">
+        <f t="shared" ref="B220:B224" si="13">B219+1</f>
+        <v>7</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D220" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D218" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E218" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B219" s="8">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E219" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B220" s="8">
+      <c r="E220" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B221" s="8">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E220" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B221" s="8">
+      <c r="C221" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E221" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B222" s="8">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="C221" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E221" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B222" s="8">
+      <c r="C222" s="6"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B223" s="8">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="C222" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E222" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B223" s="8">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="C223" s="7"/>
+      <c r="C223" s="6"/>
       <c r="D223" s="7"/>
       <c r="E223" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B224" s="8">
         <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="C224" s="6"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B225" s="17"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="18"/>
+      <c r="E225" s="22"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B227" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D227" s="32"/>
+      <c r="E227" s="32"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B228" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D228" s="30"/>
+      <c r="E228" s="31"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B229" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E224" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B225" s="8">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E225" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B226" s="8">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D226" s="7"/>
-      <c r="E226" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B227" s="8">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E227" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5" ht="84" x14ac:dyDescent="0.15">
-      <c r="B228" s="8">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E228" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B229" s="8">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E229" s="21" t="s">
-        <v>11</v>
+      <c r="E229" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B230" s="8">
-        <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D230" s="13"/>
+      <c r="E230" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B231" s="8">
-        <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="5"/>
+        <f>B230+1</f>
+        <v>2</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D231" s="13"/>
+      <c r="E231" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B232" s="8">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="4"/>
+        <f>B231+1</f>
+        <v>3</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D232" s="6"/>
+      <c r="E232" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B233" s="8">
+        <f t="shared" ref="B233:B249" si="14">B232+1</f>
+        <v>4</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D233" s="7"/>
+      <c r="E233" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B234" s="8">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D234" s="7"/>
+      <c r="E234" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B235" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D235" s="26"/>
-      <c r="E235" s="26"/>
+      <c r="B235" s="8">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E235" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B236" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D236" s="28"/>
-      <c r="E236" s="29"/>
+      <c r="B236" s="8">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E236" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B237" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C237" s="10" t="s">
+      <c r="B237" s="8">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="D237" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E237" s="10" t="s">
-        <v>9</v>
+      <c r="C237" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E237" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B238" s="8">
-        <v>1</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D238" s="13" t="s">
-        <v>267</v>
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="E238" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B239" s="8">
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>10</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D239" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="E239" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B240" s="8">
-        <f t="shared" ref="B240:B241" si="14">B239+1</f>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>84</v>
+        <v>275</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="E240" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B241" s="8">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D241" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="E241" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:5" ht="42" x14ac:dyDescent="0.15">
       <c r="B242" s="8">
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>13</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D242" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="E242" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B243" s="8">
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="D243" s="7"/>
       <c r="E243" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B244" s="8">
-        <f t="shared" ref="B244:B245" si="15">B243+1</f>
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E244" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" ht="84" x14ac:dyDescent="0.15">
+      <c r="B245" s="8">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E245" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B246" s="8">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E246" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B247" s="8">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="5"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B248" s="8">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="5"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B249" s="8">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="4"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B252" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D252" s="32"/>
+      <c r="E252" s="32"/>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B253" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D253" s="30"/>
+      <c r="E253" s="31"/>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B254" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C244" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E244" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="B245" s="8">
-        <f t="shared" si="15"/>
+      <c r="C254" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E245" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B246" s="17"/>
-      <c r="C246" s="25"/>
-      <c r="D246" s="25"/>
-      <c r="E246" s="22"/>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B247" s="17"/>
-      <c r="C247" s="25"/>
-      <c r="D247" s="25"/>
-      <c r="E247" s="22"/>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B248" s="17"/>
-      <c r="C248" s="25"/>
-      <c r="D248" s="25"/>
-      <c r="E248" s="22"/>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B249" s="17"/>
-      <c r="C249" s="18"/>
-      <c r="D249" s="18"/>
-      <c r="E249" s="19"/>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B250" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D250" s="26"/>
-      <c r="E250" s="26"/>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B251" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C251" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" s="28"/>
-      <c r="E251" s="29"/>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B252" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="10" t="s">
+      <c r="D254" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E252" s="10" t="s">
+      <c r="E254" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B253" s="8">
-        <v>1</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D253" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E253" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B254" s="8">
-        <f>B253+1</f>
-        <v>2</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D254" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E254" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B255" s="8">
-        <f t="shared" ref="B255:B256" si="16">B254+1</f>
-        <v>3</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>252</v>
+        <v>1</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="D255" s="13" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E255" s="21" t="s">
         <v>11</v>
@@ -4754,259 +4818,278 @@
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B256" s="8">
+        <v>2</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" s="7"/>
+      <c r="E256" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B257" s="8">
+        <f t="shared" ref="B257:B258" si="15">B256+1</f>
+        <v>3</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E257" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B258" s="8">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D258" s="7"/>
+      <c r="E258" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B259" s="8">
+        <v>5</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D259" s="7"/>
+      <c r="E259" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B260" s="8">
+        <v>6</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D260" s="7"/>
+      <c r="E260" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B261" s="8">
+        <f t="shared" ref="B261:B262" si="16">B260+1</f>
+        <v>7</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E261" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B262" s="8">
         <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E262" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B263" s="17"/>
+      <c r="C263" s="25"/>
+      <c r="D263" s="25"/>
+      <c r="E263" s="22"/>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B264" s="17"/>
+      <c r="C264" s="25"/>
+      <c r="D264" s="25"/>
+      <c r="E264" s="22"/>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B265" s="17"/>
+      <c r="C265" s="25"/>
+      <c r="D265" s="25"/>
+      <c r="E265" s="22"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B266" s="17"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="18"/>
+      <c r="E266" s="19"/>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B267" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C256" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D256" s="13" t="s">
+      <c r="C267" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D267" s="32"/>
+      <c r="E267" s="32"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B268" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" s="30"/>
+      <c r="E268" s="31"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B269" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B270" s="8">
+        <v>1</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D270" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E256" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B259" s="17"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="18"/>
-      <c r="E259" s="19"/>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B260" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C260" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D260" s="26"/>
-      <c r="E260" s="26"/>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B261" s="15" t="s">
+      <c r="E270" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B271" s="8">
+        <f>B270+1</f>
+        <v>2</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E271" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B272" s="8">
+        <f t="shared" ref="B272:B273" si="17">B271+1</f>
         <v>3</v>
       </c>
-      <c r="C261" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="D261" s="28"/>
-      <c r="E261" s="29"/>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B262" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E262" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B263" s="8">
-        <v>1</v>
-      </c>
-      <c r="C263" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D263" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E263" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B264" s="8">
-        <f>B263+1</f>
-        <v>2</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D264" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E264" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B265" s="8">
-        <f t="shared" ref="B265:B266" si="17">B264+1</f>
-        <v>3</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D265" s="13"/>
-      <c r="E265" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B266" s="8">
+      <c r="C272" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D272" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E272" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B273" s="8">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="C266" s="7"/>
-      <c r="D266" s="13"/>
-      <c r="E266" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B271" s="14" t="s">
+      <c r="C273" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D273" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E273" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B276" s="17"/>
+      <c r="C276" s="18"/>
+      <c r="D276" s="18"/>
+      <c r="E276" s="19"/>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B277" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C271" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D271" s="26"/>
-      <c r="E271" s="26"/>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B272" s="15" t="s">
+      <c r="C277" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D277" s="32"/>
+      <c r="E277" s="32"/>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B278" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C272" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D272" s="28"/>
-      <c r="E272" s="29"/>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B273" s="9" t="s">
+      <c r="C278" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D278" s="30"/>
+      <c r="E278" s="31"/>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B279" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C273" s="10" t="s">
+      <c r="C279" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D273" s="10" t="s">
+      <c r="D279" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E273" s="10" t="s">
+      <c r="E279" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B274" s="8">
+    <row r="280" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="B280" s="8">
         <v>1</v>
       </c>
-      <c r="C274" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D274" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E274" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B275" s="8">
-        <f>B274+1</f>
+      <c r="C280" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D280" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E280" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B281" s="8">
+        <f>B280+1</f>
         <v>2</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E275" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B276" s="8">
-        <f t="shared" ref="B276:B284" si="18">B275+1</f>
-        <v>3</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D276" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E276" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B277" s="8">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D277" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E277" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B278" s="8">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D278" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E278" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B279" s="8">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D279" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E279" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B280" s="8">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D280" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E280" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="281" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B281" s="8">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
       <c r="C281" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D281" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D281" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E281" s="21" t="s">
@@ -5015,15 +5098,13 @@
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B282" s="8">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D282" s="7" t="s">
-        <v>24</v>
-      </c>
+        <f t="shared" ref="B282:B283" si="18">B281+1</f>
+        <v>3</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D282" s="13"/>
       <c r="E282" s="21" t="s">
         <v>11</v>
       </c>
@@ -5031,68 +5112,249 @@
     <row r="283" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B283" s="8">
         <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="C283" s="7"/>
+      <c r="D283" s="13"/>
+      <c r="E283" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B288" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D288" s="32"/>
+      <c r="E288" s="32"/>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B289" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D289" s="30"/>
+      <c r="E289" s="31"/>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B290" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B291" s="8">
+        <v>1</v>
+      </c>
+      <c r="C291" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D291" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E291" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B292" s="8">
+        <f>B291+1</f>
+        <v>2</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E292" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B293" s="8">
+        <f t="shared" ref="B293:B301" si="19">B292+1</f>
+        <v>3</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E293" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B294" s="8">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E294" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B295" s="8">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E295" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B296" s="8">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E296" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B297" s="8">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E297" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B298" s="8">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E298" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B299" s="8">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D299" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E299" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B300" s="8">
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D283" s="7" t="s">
+      <c r="C300" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D300" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E283" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B284" s="8">
-        <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="C284" s="6"/>
-      <c r="D284" s="7" t="s">
+      <c r="E300" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B301" s="8">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D301" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E284" s="21" t="s">
+      <c r="E301" s="21" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C251:E251"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C253:E253"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C252:E252"/>
+    <mergeCell ref="C227:E227"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C278:E278"/>
+    <mergeCell ref="C267:E267"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="C181:E181"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C194:E194"/>
+    <mergeCell ref="C147:E147"/>
     <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C166:E166"/>
     <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="C197:E197"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C271:E271"/>
-    <mergeCell ref="C272:E272"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C236:E236"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C235:E235"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C195:E195"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C260:E260"/>
-    <mergeCell ref="C261:E261"/>
-    <mergeCell ref="C250:E250"/>
+    <mergeCell ref="C132:E132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E253:E256 E133:E145 E35:E60 E151:E157 E238:E248 E263:E266 E274:E284 E65:E81 E182:E192 E107:E126 E213:E229 E25:E31 E197:E208 E166:E172 E9:E21 E86:E102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E270:E273 E150:E162 E35:E60 E168:E174 E255:E265 E280:E283 E291:E301 E65:E81 E199:E209 E86:E102 E230:E246 E135:E145 E214:E225 E183:E189 E9:E21 E107:E131 E25:E31">
       <formula1>"△,○,×"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15570" windowHeight="11640" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Question" sheetId="5" r:id="rId2"/>
     <sheet name="U-Boot" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="302">
   <si>
     <t>Name</t>
   </si>
@@ -1078,23 +1078,53 @@
     <t>Any experience in RTOS? Describe the RTOS feature.IPC machinism? Support Arch?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>What is the reason of insmod error: Invalid module format?</t>
+  </si>
+  <si>
+    <t>Can you accept over-time work?</t>
+  </si>
+  <si>
+    <t>What is the feature of RedBoot?</t>
+  </si>
+  <si>
+    <t>List up some console command of RedBoot?</t>
+  </si>
+  <si>
+    <t>What is your work about the bootloader?</t>
+  </si>
+  <si>
+    <t>Can RedBoot use gdb to debug? Describe the processing.</t>
+  </si>
+  <si>
+    <t>What is bootloader used for?</t>
+  </si>
+  <si>
+    <t>Any tool to format code?</t>
+  </si>
+  <si>
+    <t>indent</t>
+  </si>
+  <si>
+    <t>strcpy / memcpy difference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1102,7 +1132,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1110,7 +1140,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1118,7 +1148,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1126,7 +1156,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1134,7 +1164,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1142,7 +1172,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1150,7 +1180,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1159,7 +1189,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1167,7 +1197,7 @@
     <font>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1176,7 +1206,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1184,13 +1214,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1375,6 +1405,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1384,15 +1417,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 强调文字颜色 1" xfId="2" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
     <cellStyle name="警告文本" xfId="3" builtinId="11"/>
-    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1794,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1802,19 +1832,19 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="83.125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" ht="15" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" ht="15" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1830,27 +1860,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" ht="15" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" ht="15" customHeight="1">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="24" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="14.45" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1859,52 +1889,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="62.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.25" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="9" t="s">
         <v>7</v>
@@ -1919,7 +1949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="B9" s="8">
         <v>1</v>
       </c>
@@ -1933,7 +1963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="B10" s="8">
         <f>B9+1</f>
         <v>2</v>
@@ -1948,7 +1978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="B11" s="8">
         <f t="shared" ref="B11:B19" si="0">B10+1</f>
         <v>3</v>
@@ -1961,7 +1991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1974,7 +2004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1987,7 +2017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="12"/>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
@@ -2001,7 +2031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2014,7 +2044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2027,7 +2057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2038,7 +2068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2048,7 +2078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2059,39 +2089,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" s="17"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" s="17"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
         <v>7</v>
@@ -2106,7 +2136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="B25" s="8">
         <v>1</v>
       </c>
@@ -2120,7 +2150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="22.5" customHeight="1">
       <c r="B26" s="8">
         <f>B25+1</f>
         <v>2</v>
@@ -2133,7 +2163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="22.5" customHeight="1">
       <c r="B27" s="8">
         <f>B26+1</f>
         <v>3</v>
@@ -2146,51 +2176,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="B28" s="17"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" s="17"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="12" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" s="17"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="B32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="2:5" ht="15" customHeight="1">
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" ht="15" customHeight="1">
       <c r="B35" s="8">
         <v>1</v>
       </c>
@@ -2216,7 +2246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" ht="15" customHeight="1">
       <c r="B36" s="8">
         <f>B35+1</f>
         <v>2</v>
@@ -2231,7 +2261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" ht="23.45" customHeight="1">
       <c r="B37" s="8">
         <f t="shared" ref="B37:B50" si="1">B36+1</f>
         <v>3</v>
@@ -2246,7 +2276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" ht="23.45" customHeight="1">
       <c r="B38" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2261,7 +2291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" ht="15" customHeight="1">
       <c r="B39" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2276,7 +2306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" ht="15" customHeight="1">
       <c r="B40" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2291,7 +2321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5">
       <c r="B41" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2306,7 +2336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5">
       <c r="B42" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2321,7 +2351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2336,7 +2366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5">
       <c r="B44" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2351,7 +2381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" ht="33.75">
       <c r="B45" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2366,7 +2396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5">
       <c r="B46" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2381,7 +2411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5">
       <c r="B47" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2396,7 +2426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5">
       <c r="B48" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2411,7 +2441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5">
       <c r="B49" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2426,7 +2456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="67.5">
       <c r="B50" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2441,7 +2471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5">
       <c r="B51" s="8">
         <f t="shared" ref="B51:B57" si="2">B50+1</f>
         <v>17</v>
@@ -2454,7 +2484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5">
       <c r="B52" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2469,7 +2499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5">
       <c r="B53" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2484,7 +2514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5">
       <c r="B54" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2499,7 +2529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5">
       <c r="B55" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2514,7 +2544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5">
       <c r="B56" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2529,7 +2559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5">
       <c r="B57" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2544,46 +2574,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5">
       <c r="B58" s="17"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5">
       <c r="B59" s="17"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5">
       <c r="B60" s="17"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="15" customHeight="1"/>
+    <row r="62" spans="2:5" ht="19.899999999999999" customHeight="1">
       <c r="B62" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31"/>
-    </row>
-    <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D62" s="31"/>
+      <c r="E62" s="32"/>
+    </row>
+    <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B63" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="31"/>
-    </row>
-    <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D63" s="31"/>
+      <c r="E63" s="32"/>
+    </row>
+    <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B64" s="9" t="s">
         <v>7</v>
       </c>
@@ -2597,7 +2627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="24" customFormat="1" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" s="24" customFormat="1" ht="78.75">
       <c r="B65" s="20">
         <v>1</v>
       </c>
@@ -2611,7 +2641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5">
       <c r="B66" s="8">
         <f>B65+1</f>
         <v>2</v>
@@ -2626,9 +2656,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="22.5">
       <c r="B67" s="8">
-        <f t="shared" ref="B67:B78" si="3">B66+1</f>
+        <f t="shared" ref="B67:B79" si="3">B66+1</f>
         <v>3</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -2641,7 +2671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5">
       <c r="B68" s="8">
         <v>3.1</v>
       </c>
@@ -2655,7 +2685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="22.5">
       <c r="B69" s="8">
         <v>3.2</v>
       </c>
@@ -2667,7 +2697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5">
       <c r="B70" s="8">
         <v>3.3</v>
       </c>
@@ -2679,7 +2709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5">
       <c r="B71" s="8">
         <v>3.4</v>
       </c>
@@ -2691,7 +2721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:5">
       <c r="B72" s="8"/>
       <c r="C72" s="6"/>
       <c r="D72" s="23"/>
@@ -2699,7 +2729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5">
       <c r="B73" s="8">
         <f>B67+1</f>
         <v>4</v>
@@ -2714,7 +2744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5">
       <c r="B74" s="8">
         <f>B73+1</f>
         <v>5</v>
@@ -2729,7 +2759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5">
       <c r="B75" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2744,7 +2774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5">
       <c r="B76" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2759,7 +2789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:5">
       <c r="B77" s="8">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2774,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5">
       <c r="B78" s="8">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2789,51 +2819,58 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B79" s="17"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="22"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5">
+      <c r="B79" s="8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
       <c r="B80" s="17"/>
       <c r="C80" s="25"/>
       <c r="D80" s="18"/>
       <c r="E80" s="22"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:5">
       <c r="B81" s="17"/>
       <c r="C81" s="25"/>
       <c r="D81" s="18"/>
       <c r="E81" s="22"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:5">
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="19"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5">
       <c r="B83" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="31"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D83" s="31"/>
+      <c r="E83" s="32"/>
+    </row>
+    <row r="84" spans="2:5">
       <c r="B84" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="30"/>
-      <c r="E84" s="31"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D84" s="31"/>
+      <c r="E84" s="32"/>
+    </row>
+    <row r="85" spans="2:5">
       <c r="B85" s="9" t="s">
         <v>7</v>
       </c>
@@ -2847,7 +2884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:5" ht="22.5">
       <c r="B86" s="8">
         <v>1</v>
       </c>
@@ -2861,7 +2898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:5" ht="22.5">
       <c r="B87" s="8">
         <f>B86+1</f>
         <v>2</v>
@@ -2876,7 +2913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:5">
       <c r="B88" s="8">
         <f t="shared" ref="B88:B99" si="4">B87+1</f>
         <v>3</v>
@@ -2889,7 +2926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:5">
       <c r="B89" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2904,7 +2941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:5">
       <c r="B90" s="8">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2919,7 +2956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5">
       <c r="B91" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2934,7 +2971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5">
       <c r="B92" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -2949,7 +2986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5">
       <c r="B93" s="8">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -2964,7 +3001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5">
       <c r="B94" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -2979,7 +3016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:5" ht="22.5">
       <c r="B95" s="8">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2994,7 +3031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:5">
       <c r="B96" s="8">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -3009,7 +3046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:5">
       <c r="B97" s="8">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -3024,7 +3061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:5">
       <c r="B98" s="8">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -3037,7 +3074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:5">
       <c r="B99" s="8">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -3050,41 +3087,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:5">
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="E100" s="22"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:5">
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="22"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:5">
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="22"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:5">
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
       <c r="E103" s="19"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:5">
       <c r="B104" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D104" s="30"/>
-      <c r="E104" s="31"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D104" s="31"/>
+      <c r="E104" s="32"/>
+    </row>
+    <row r="105" spans="2:5">
       <c r="B105" s="15" t="s">
         <v>3</v>
       </c>
@@ -3094,7 +3131,7 @@
       <c r="D105" s="27"/>
       <c r="E105" s="28"/>
     </row>
-    <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:5" ht="15" customHeight="1">
       <c r="B106" s="9" t="s">
         <v>7</v>
       </c>
@@ -3108,7 +3145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:5" ht="15" customHeight="1">
       <c r="B107" s="8">
         <v>1</v>
       </c>
@@ -3122,7 +3159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:5" ht="15" customHeight="1">
       <c r="B108" s="8">
         <f>B107+1</f>
         <v>2</v>
@@ -3135,7 +3172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:5">
       <c r="B109" s="8">
         <f t="shared" ref="B109:B121" si="5">B108+1</f>
         <v>3</v>
@@ -3148,7 +3185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:5">
       <c r="B110" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3159,7 +3196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:5">
       <c r="B111" s="8">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3172,7 +3209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:5">
       <c r="B112" s="8">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -3185,7 +3222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:5">
       <c r="B113" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3198,7 +3235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:5">
       <c r="B114" s="8">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -3211,7 +3248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:5">
       <c r="B115" s="8">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -3224,7 +3261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:5">
       <c r="B116" s="8">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -3237,7 +3274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:5">
       <c r="B117" s="8">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -3250,7 +3287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:5">
       <c r="B118" s="8">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -3265,7 +3302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:5">
       <c r="B119" s="8">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -3278,7 +3315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:5">
       <c r="B120" s="8">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -3291,7 +3328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="63" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:5" ht="67.5">
       <c r="B121" s="8">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -3306,7 +3343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:5" ht="33.75">
       <c r="B122" s="8">
         <f t="shared" ref="B122:B128" si="6">B121+1</f>
         <v>16</v>
@@ -3321,7 +3358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:5">
       <c r="B123" s="8">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -3334,7 +3371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:5" ht="22.5">
       <c r="B124" s="8">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -3347,7 +3384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:5">
       <c r="B125" s="8">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -3362,7 +3399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:5" ht="56.25">
       <c r="B126" s="8">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -3377,7 +3414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:5">
       <c r="B127" s="8">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -3390,7 +3427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:5">
       <c r="B128" s="8">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -3403,35 +3440,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:5">
       <c r="B129" s="17"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
       <c r="E129" s="22"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:5">
       <c r="B130" s="17"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="22"/>
     </row>
-    <row r="131" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:5" ht="12.75" customHeight="1">
       <c r="B131" s="17"/>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
       <c r="E131" s="22"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:5">
       <c r="B132" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C132" s="29" t="s">
+      <c r="C132" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="D132" s="30"/>
-      <c r="E132" s="31"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D132" s="31"/>
+      <c r="E132" s="32"/>
+    </row>
+    <row r="133" spans="2:5">
       <c r="B133" s="15" t="s">
         <v>3</v>
       </c>
@@ -3441,7 +3478,7 @@
       <c r="D133" s="27"/>
       <c r="E133" s="28"/>
     </row>
-    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:5" ht="15" customHeight="1">
       <c r="B134" s="9" t="s">
         <v>7</v>
       </c>
@@ -3455,7 +3492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:5" ht="15" customHeight="1">
       <c r="B135" s="8">
         <v>1</v>
       </c>
@@ -3467,7 +3504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:5" ht="15" customHeight="1">
       <c r="B136" s="8">
         <f>B135+1</f>
         <v>2</v>
@@ -3482,7 +3519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:5">
       <c r="B137" s="8">
         <f t="shared" ref="B137:B139" si="7">B136+1</f>
         <v>3</v>
@@ -3495,7 +3532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:5" ht="56.25">
       <c r="B138" s="8">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -3510,7 +3547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:5">
       <c r="B139" s="8">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -3525,63 +3562,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:5">
       <c r="B140" s="17"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
       <c r="E140" s="22"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:5">
       <c r="B141" s="17"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
       <c r="E141" s="22"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:5">
       <c r="B142" s="17"/>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
       <c r="E142" s="22"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:5">
       <c r="B143" s="17"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
       <c r="E143" s="22"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:5">
       <c r="B144" s="17"/>
       <c r="C144" s="25"/>
       <c r="D144" s="25"/>
       <c r="E144" s="22"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:5">
       <c r="B145" s="17"/>
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
       <c r="E145" s="22"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:5">
       <c r="B147" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C147" s="32" t="s">
+      <c r="C147" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+    </row>
+    <row r="148" spans="2:5">
       <c r="B148" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="29" t="s">
+      <c r="C148" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="31"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D148" s="31"/>
+      <c r="E148" s="32"/>
+    </row>
+    <row r="149" spans="2:5">
       <c r="B149" s="9" t="s">
         <v>7</v>
       </c>
@@ -3595,7 +3632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:5">
       <c r="B150" s="8">
         <v>1</v>
       </c>
@@ -3607,7 +3644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:5">
       <c r="B151" s="8">
         <f>B150+1</f>
         <v>2</v>
@@ -3620,7 +3657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:5">
       <c r="B152" s="8">
         <f>B151+1</f>
         <v>3</v>
@@ -3635,7 +3672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:5">
       <c r="B153" s="8">
         <f t="shared" ref="B153:B162" si="8">B152+1</f>
         <v>4</v>
@@ -3650,7 +3687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:5">
       <c r="B154" s="8">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3663,7 +3700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:5">
       <c r="B155" s="8">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -3676,7 +3713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:5">
       <c r="B156" s="8">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -3689,7 +3726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:5">
       <c r="B157" s="8">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -3704,7 +3741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:5" ht="22.5">
       <c r="B158" s="8">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -3717,7 +3754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:5">
       <c r="B159" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -3732,7 +3769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:5">
       <c r="B160" s="8">
         <f t="shared" si="8"/>
         <v>11</v>
@@ -3745,7 +3782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:5">
       <c r="B161" s="8">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -3758,7 +3795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:5">
       <c r="B162" s="8">
         <f t="shared" si="8"/>
         <v>13</v>
@@ -3769,27 +3806,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:5">
       <c r="B165" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="32" t="s">
+      <c r="C165" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D165" s="32"/>
-      <c r="E165" s="32"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+    </row>
+    <row r="166" spans="2:5">
       <c r="B166" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C166" s="29" t="s">
+      <c r="C166" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D166" s="30"/>
-      <c r="E166" s="31"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D166" s="31"/>
+      <c r="E166" s="32"/>
+    </row>
+    <row r="167" spans="2:5">
       <c r="B167" s="9" t="s">
         <v>7</v>
       </c>
@@ -3803,7 +3840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:5">
       <c r="B168" s="8">
         <v>1</v>
       </c>
@@ -3815,7 +3852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:5">
       <c r="B169" s="8">
         <f>B168+1</f>
         <v>2</v>
@@ -3828,7 +3865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:5" ht="45">
       <c r="B170" s="8">
         <f t="shared" ref="B170:B171" si="9">B169+1</f>
         <v>3</v>
@@ -3843,7 +3880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:5">
       <c r="B171" s="8">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -3856,7 +3893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:5">
       <c r="B172" s="8">
         <v>5</v>
       </c>
@@ -3866,7 +3903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:5">
       <c r="B173" s="8">
         <v>6</v>
       </c>
@@ -3876,7 +3913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:5">
       <c r="B174" s="8">
         <v>7</v>
       </c>
@@ -3886,7 +3923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:5">
       <c r="B175" s="8">
         <v>8</v>
       </c>
@@ -3894,7 +3931,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B176" s="8">
         <v>9</v>
       </c>
@@ -3902,48 +3939,48 @@
       <c r="D176" s="7"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B177" s="17"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="19"/>
     </row>
-    <row r="178" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B178" s="17"/>
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
       <c r="E178" s="19"/>
     </row>
-    <row r="179" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A180"/>
       <c r="B180" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C180" s="32" t="s">
+      <c r="C180" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="D180" s="32"/>
-      <c r="E180" s="32"/>
-    </row>
-    <row r="181" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
+    </row>
+    <row r="181" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A181"/>
       <c r="B181" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C181" s="29" t="s">
+      <c r="C181" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D181" s="30"/>
-      <c r="E181" s="31"/>
-    </row>
-    <row r="182" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D181" s="31"/>
+      <c r="E181" s="32"/>
+    </row>
+    <row r="182" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A182"/>
       <c r="B182" s="9" t="s">
         <v>7</v>
@@ -3958,500 +3995,521 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A183"/>
       <c r="B183" s="8">
         <v>1</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="D183" s="13"/>
       <c r="E183" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A184"/>
       <c r="B184" s="8">
         <f>B183+1</f>
         <v>2</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>219</v>
-      </c>
+      <c r="C184" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D184" s="13"/>
       <c r="E184" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A185"/>
       <c r="B185" s="8">
-        <f t="shared" ref="B185:B186" si="10">B184+1</f>
+        <f t="shared" ref="B185:B193" si="10">B184+1</f>
         <v>3</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E185" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A186"/>
       <c r="B186" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>224</v>
+      <c r="C186" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="E186" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A187"/>
       <c r="B187" s="8">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D187" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="E187" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A188"/>
       <c r="B188" s="8">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A189"/>
       <c r="B189" s="8">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="C189" s="7"/>
+      <c r="C189" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="D189" s="7"/>
       <c r="E189" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A190"/>
       <c r="B190" s="8">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="C190" s="7"/>
+      <c r="C190" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="D190" s="7"/>
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E190" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A191"/>
       <c r="B191" s="8">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="C191" s="7"/>
+      <c r="C191" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="D191" s="7"/>
-      <c r="E191" s="4"/>
-    </row>
-    <row r="192" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="17"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="19"/>
-    </row>
-    <row r="193" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="17"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="19"/>
-    </row>
-    <row r="194" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E191" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A192"/>
+      <c r="B192" s="8">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D192" s="7"/>
+      <c r="E192" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B193" s="8">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B194" s="17"/>
       <c r="C194" s="18"/>
       <c r="D194" s="18"/>
       <c r="E194" s="19"/>
     </row>
-    <row r="195" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B195" s="17"/>
       <c r="C195" s="18"/>
       <c r="D195" s="18"/>
       <c r="E195" s="19"/>
     </row>
-    <row r="196" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="15" t="s">
+    <row r="196" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B196" s="17"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18"/>
+      <c r="E196" s="19"/>
+    </row>
+    <row r="197" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B197" s="17"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="19"/>
+    </row>
+    <row r="198" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1"/>
+    <row r="199" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B199" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C197" s="29" t="s">
+      <c r="C199" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D197" s="30"/>
-      <c r="E197" s="31"/>
-    </row>
-    <row r="198" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B198" s="9" t="s">
+      <c r="D199" s="31"/>
+      <c r="E199" s="32"/>
+    </row>
+    <row r="200" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B200" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="C200" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="D200" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E198" s="10" t="s">
+      <c r="E200" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="8">
+    <row r="201" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B201" s="8">
         <v>1</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="C201" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D199" s="13" t="s">
+      <c r="D201" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E199" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B200" s="8">
-        <f>B199+1</f>
+      <c r="E201" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" ht="22.5">
+      <c r="B202" s="8">
+        <f>B201+1</f>
         <v>2</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C202" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D200" s="6" t="s">
+      <c r="D202" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E200" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B201" s="8">
-        <f t="shared" ref="B201:B208" si="11">B200+1</f>
+      <c r="E202" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" ht="33.75">
+      <c r="B203" s="8">
+        <f t="shared" ref="B203:B210" si="11">B202+1</f>
         <v>3</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C203" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D203" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E201" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B202" s="8">
+      <c r="E203" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" s="8">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C204" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D204" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E202" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B203" s="8">
+      <c r="E204" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" ht="22.5">
+      <c r="B205" s="8">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C205" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D205" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E203" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B204" s="8">
+      <c r="E205" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" s="8">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C206" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D206" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E204" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B205" s="8">
+      <c r="E206" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" ht="33.75">
+      <c r="B207" s="8">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C207" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D207" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E205" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B206" s="8">
+      <c r="E207" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" s="8">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C208" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D206" s="6" t="s">
+      <c r="D208" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E206" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B207" s="8">
+      <c r="E208" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="B209" s="8">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="C207" s="7"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B208" s="8">
+      <c r="C209" s="7"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="B210" s="8">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="C208" s="7"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B209" s="17"/>
-      <c r="C209" s="18"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="22"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A211" s="11"/>
-      <c r="B211" s="14" t="s">
+      <c r="C210" s="7"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="B211" s="17"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="22"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="11"/>
+      <c r="B213" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C211" s="32" t="s">
+      <c r="C213" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D211" s="32"/>
-      <c r="E211" s="32"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A212" s="11"/>
-      <c r="B212" s="15" t="s">
+      <c r="D213" s="29"/>
+      <c r="E213" s="29"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="11"/>
+      <c r="B214" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C212" s="29" t="s">
+      <c r="C214" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D212" s="30"/>
-      <c r="E212" s="31"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A213" s="11"/>
-      <c r="B213" s="9" t="s">
+      <c r="D214" s="31"/>
+      <c r="E214" s="32"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="11"/>
+      <c r="B215" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="C215" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="D215" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E213" s="10" t="s">
+      <c r="E215" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A214" s="11"/>
-      <c r="B214" s="8">
+    <row r="216" spans="1:5">
+      <c r="A216" s="11"/>
+      <c r="B216" s="8">
         <v>1</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C216" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D214" s="13" t="s">
+      <c r="D216" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E214" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B215" s="8">
-        <f>B214+1</f>
+      <c r="E216" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="B217" s="8">
+        <f>B216+1</f>
         <v>2</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C217" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D215" s="6" t="s">
+      <c r="D217" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E215" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B216" s="8">
-        <f t="shared" ref="B216:B219" si="12">B215+1</f>
+      <c r="E217" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="B218" s="8">
+        <f t="shared" ref="B218:B221" si="12">B217+1</f>
         <v>3</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C218" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="D218" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E216" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B217" s="8">
+      <c r="E218" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="B219" s="8">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C219" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D219" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E217" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B218" s="8">
+      <c r="E219" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="B220" s="8">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C220" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="D220" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E218" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B219" s="8">
+      <c r="E220" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="B221" s="8">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C221" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D219" s="7" t="s">
+      <c r="D221" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E219" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B220" s="8">
-        <f t="shared" ref="B220:B224" si="13">B219+1</f>
+      <c r="E221" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="B222" s="8">
+        <f t="shared" ref="B222:B226" si="13">B221+1</f>
         <v>7</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C222" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D220" s="7" t="s">
+      <c r="D222" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E220" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B221" s="8">
+      <c r="E222" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="33.75">
+      <c r="B223" s="8">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C223" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D223" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E221" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B222" s="8">
+      <c r="E223" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="B224" s="8">
         <f t="shared" si="13"/>
         <v>9</v>
-      </c>
-      <c r="C222" s="6"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B223" s="8">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="C223" s="6"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B224" s="8">
-        <f t="shared" si="13"/>
-        <v>11</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="7"/>
@@ -4459,812 +4517,800 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B225" s="17"/>
-      <c r="C225" s="25"/>
-      <c r="D225" s="18"/>
-      <c r="E225" s="22"/>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B227" s="14" t="s">
+    <row r="225" spans="2:5">
+      <c r="B225" s="8">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="C225" s="6"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5">
+      <c r="B226" s="8">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="C226" s="6"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5">
+      <c r="B227" s="17"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="18"/>
+      <c r="E227" s="22"/>
+    </row>
+    <row r="229" spans="2:5">
+      <c r="B229" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C227" s="32" t="s">
+      <c r="C229" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D227" s="32"/>
-      <c r="E227" s="32"/>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B228" s="15" t="s">
+      <c r="D229" s="29"/>
+      <c r="E229" s="29"/>
+    </row>
+    <row r="230" spans="2:5">
+      <c r="B230" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C228" s="29" t="s">
+      <c r="C230" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D228" s="30"/>
-      <c r="E228" s="31"/>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B229" s="9" t="s">
+      <c r="D230" s="31"/>
+      <c r="E230" s="32"/>
+    </row>
+    <row r="231" spans="2:5">
+      <c r="B231" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C229" s="10" t="s">
+      <c r="C231" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D229" s="10" t="s">
+      <c r="D231" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E229" s="10" t="s">
+      <c r="E231" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B230" s="8">
+    <row r="232" spans="2:5">
+      <c r="B232" s="8">
         <v>1</v>
       </c>
-      <c r="C230" s="13" t="s">
+      <c r="C232" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D230" s="13"/>
-      <c r="E230" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B231" s="8">
-        <f>B230+1</f>
+      <c r="D232" s="13"/>
+      <c r="E232" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5">
+      <c r="B233" s="8">
+        <f>B232+1</f>
         <v>2</v>
       </c>
-      <c r="C231" s="13" t="s">
+      <c r="C233" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D231" s="13"/>
-      <c r="E231" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B232" s="8">
-        <f>B231+1</f>
+      <c r="D233" s="13"/>
+      <c r="E233" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5">
+      <c r="B234" s="8">
+        <f>B233+1</f>
         <v>3</v>
       </c>
-      <c r="C232" s="6" t="s">
+      <c r="C234" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D232" s="6"/>
-      <c r="E232" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B233" s="8">
-        <f t="shared" ref="B233:B249" si="14">B232+1</f>
+      <c r="D234" s="6"/>
+      <c r="E234" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5">
+      <c r="B235" s="8">
+        <f t="shared" ref="B235:B251" si="14">B234+1</f>
         <v>4</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C235" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D233" s="7"/>
-      <c r="E233" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B234" s="8">
+      <c r="D235" s="7"/>
+      <c r="E235" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5">
+      <c r="B236" s="8">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C236" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D234" s="7"/>
-      <c r="E234" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B235" s="8">
+      <c r="D236" s="7"/>
+      <c r="E236" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5">
+      <c r="B237" s="8">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C237" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D235" s="7" t="s">
+      <c r="D237" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E235" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B236" s="8">
+      <c r="E237" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5">
+      <c r="B238" s="8">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C238" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D236" s="7" t="s">
+      <c r="D238" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E236" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B237" s="8">
+      <c r="E238" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5">
+      <c r="B239" s="8">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C239" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D237" s="7" t="s">
+      <c r="D239" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E237" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B238" s="8">
+      <c r="E239" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5">
+      <c r="B240" s="8">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C240" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="D240" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E238" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B239" s="8">
+      <c r="E240" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" ht="22.5">
+      <c r="B241" s="8">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C241" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D239" s="6" t="s">
+      <c r="D241" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E239" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B240" s="8">
+      <c r="E241" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" s="8">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C242" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D242" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E240" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
-      <c r="B241" s="8">
+      <c r="E242" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" ht="67.5">
+      <c r="B243" s="8">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C243" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D241" s="6" t="s">
+      <c r="D243" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E241" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="242" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B242" s="8">
+      <c r="E243" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" ht="45">
+      <c r="B244" s="8">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C244" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D242" s="6" t="s">
+      <c r="D244" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E242" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B243" s="8">
+      <c r="E244" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" s="8">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C245" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D243" s="7"/>
-      <c r="E243" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B244" s="8">
+      <c r="D245" s="7"/>
+      <c r="E245" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" ht="33.75">
+      <c r="B246" s="8">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C246" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D244" s="6" t="s">
+      <c r="D246" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E244" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5" ht="84" x14ac:dyDescent="0.15">
-      <c r="B245" s="8">
+      <c r="E246" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" ht="90">
+      <c r="B247" s="8">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C247" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D245" s="6" t="s">
+      <c r="D247" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E245" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B246" s="8">
+      <c r="E247" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" ht="33.75">
+      <c r="B248" s="8">
         <f t="shared" si="14"/>
         <v>17</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C248" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D246" s="6" t="s">
+      <c r="D248" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E246" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B247" s="8">
+      <c r="E248" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" s="8">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="C247" s="7"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="5"/>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B248" s="8">
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="5"/>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" s="8">
         <f t="shared" si="14"/>
         <v>19</v>
       </c>
-      <c r="C248" s="7"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="5"/>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B249" s="8">
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="5"/>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" s="8">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="C249" s="7"/>
-      <c r="D249" s="7"/>
-      <c r="E249" s="4"/>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B252" s="14" t="s">
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="4"/>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="B254" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C252" s="32" t="s">
+      <c r="C254" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D252" s="32"/>
-      <c r="E252" s="32"/>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B253" s="15" t="s">
+      <c r="D254" s="29"/>
+      <c r="E254" s="29"/>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C253" s="29" t="s">
+      <c r="C255" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D253" s="30"/>
-      <c r="E253" s="31"/>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B254" s="9" t="s">
+      <c r="D255" s="31"/>
+      <c r="E255" s="32"/>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="B256" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C254" s="10" t="s">
+      <c r="C256" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D254" s="10" t="s">
+      <c r="D256" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E254" s="10" t="s">
+      <c r="E256" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B255" s="8">
+    <row r="257" spans="2:5">
+      <c r="B257" s="8">
         <v>1</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="C257" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D255" s="13" t="s">
+      <c r="D257" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E255" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B256" s="8">
+      <c r="E257" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" s="8">
         <v>2</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C258" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E258" s="21"/>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" s="8">
+        <f t="shared" ref="B259:B266" si="15">B258+1</f>
+        <v>3</v>
+      </c>
+      <c r="C259" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D256" s="7"/>
-      <c r="E256" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B257" s="8">
-        <f t="shared" ref="B257:B258" si="15">B256+1</f>
-        <v>3</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D257" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E257" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B258" s="8">
+      <c r="D259" s="7"/>
+      <c r="E259" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" s="8">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="C260" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E260" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" s="8">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="C261" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D258" s="7"/>
-      <c r="E258" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B259" s="8">
-        <v>5</v>
-      </c>
-      <c r="C259" s="7" t="s">
+      <c r="D261" s="7"/>
+      <c r="E261" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" s="8">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D262" s="7"/>
+      <c r="E262" s="21"/>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" s="8">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="C263" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D259" s="7"/>
-      <c r="E259" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B260" s="8">
-        <v>6</v>
-      </c>
-      <c r="C260" s="7" t="s">
+      <c r="D263" s="7"/>
+      <c r="E263" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" s="8">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="C264" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D260" s="7"/>
-      <c r="E260" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B261" s="8">
-        <f t="shared" ref="B261:B262" si="16">B260+1</f>
+      <c r="D264" s="7"/>
+      <c r="E264" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" s="8">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E265" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" ht="45">
+      <c r="B266" s="8">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E266" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" s="17"/>
+      <c r="C267" s="25"/>
+      <c r="D267" s="25"/>
+      <c r="E267" s="22"/>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" s="17"/>
+      <c r="C268" s="25"/>
+      <c r="D268" s="25"/>
+      <c r="E268" s="22"/>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" s="17"/>
+      <c r="C269" s="25"/>
+      <c r="D269" s="25"/>
+      <c r="E269" s="22"/>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" s="17"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="18"/>
+      <c r="E270" s="19"/>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D271" s="29"/>
+      <c r="E271" s="29"/>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" s="31"/>
+      <c r="E272" s="32"/>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C261" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E261" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="B262" s="8">
+      <c r="C273" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" s="8">
+        <v>1</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D274" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E274" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5">
+      <c r="B275" s="8">
+        <f>B274+1</f>
+        <v>2</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D275" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E275" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5">
+      <c r="B276" s="8">
+        <f t="shared" ref="B276:B277" si="16">B275+1</f>
+        <v>3</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D276" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E276" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="B277" s="8">
         <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D277" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E277" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5">
+      <c r="B280" s="17"/>
+      <c r="C280" s="18"/>
+      <c r="D280" s="18"/>
+      <c r="E280" s="19"/>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="B281" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D281" s="29"/>
+      <c r="E281" s="29"/>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D282" s="31"/>
+      <c r="E282" s="32"/>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="B283" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C262" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E262" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B263" s="17"/>
-      <c r="C263" s="25"/>
-      <c r="D263" s="25"/>
-      <c r="E263" s="22"/>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B264" s="17"/>
-      <c r="C264" s="25"/>
-      <c r="D264" s="25"/>
-      <c r="E264" s="22"/>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B265" s="17"/>
-      <c r="C265" s="25"/>
-      <c r="D265" s="25"/>
-      <c r="E265" s="22"/>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B266" s="17"/>
-      <c r="C266" s="18"/>
-      <c r="D266" s="18"/>
-      <c r="E266" s="19"/>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B267" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C267" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D267" s="32"/>
-      <c r="E267" s="32"/>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B268" s="15" t="s">
+      <c r="D283" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" ht="45">
+      <c r="B284" s="8">
+        <v>1</v>
+      </c>
+      <c r="C284" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D284" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E284" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="B285" s="8">
+        <f>B284+1</f>
+        <v>2</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D285" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E285" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5">
+      <c r="B286" s="8">
+        <f t="shared" ref="B286:B287" si="17">B285+1</f>
         <v>3</v>
       </c>
-      <c r="C268" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D268" s="30"/>
-      <c r="E268" s="31"/>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B269" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C269" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E269" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B270" s="8">
-        <v>1</v>
-      </c>
-      <c r="C270" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="D270" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E270" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B271" s="8">
-        <f>B270+1</f>
-        <v>2</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D271" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E271" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B272" s="8">
-        <f t="shared" ref="B272:B273" si="17">B271+1</f>
-        <v>3</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D272" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E272" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B273" s="8">
+      <c r="C286" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D286" s="13"/>
+      <c r="E286" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="B287" s="8">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="C273" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D273" s="13" t="s">
+      <c r="C287" s="7"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5">
+      <c r="B292" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="29"/>
+      <c r="E292" s="29"/>
+    </row>
+    <row r="293" spans="2:5">
+      <c r="B293" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D293" s="31"/>
+      <c r="E293" s="32"/>
+    </row>
+    <row r="294" spans="2:5">
+      <c r="B294" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5">
+      <c r="B295" s="8">
+        <v>1</v>
+      </c>
+      <c r="C295" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D295" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E273" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B276" s="17"/>
-      <c r="C276" s="18"/>
-      <c r="D276" s="18"/>
-      <c r="E276" s="19"/>
-    </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B277" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C277" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D277" s="32"/>
-      <c r="E277" s="32"/>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B278" s="15" t="s">
+      <c r="E295" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5">
+      <c r="B296" s="8">
+        <f>B295+1</f>
+        <v>2</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E296" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5">
+      <c r="B297" s="8">
+        <f t="shared" ref="B297:B306" si="18">B296+1</f>
         <v>3</v>
       </c>
-      <c r="C278" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D278" s="30"/>
-      <c r="E278" s="31"/>
-    </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B279" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E279" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="280" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B280" s="8">
-        <v>1</v>
-      </c>
-      <c r="C280" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D280" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E280" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B281" s="8">
-        <f>B280+1</f>
-        <v>2</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D281" s="13" t="s">
+      <c r="C297" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D297" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E281" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B282" s="8">
-        <f t="shared" ref="B282:B283" si="18">B281+1</f>
-        <v>3</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D282" s="13"/>
-      <c r="E282" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B283" s="8">
+      <c r="E297" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5">
+      <c r="B298" s="8">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="C283" s="7"/>
-      <c r="D283" s="13"/>
-      <c r="E283" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B288" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C288" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D288" s="32"/>
-      <c r="E288" s="32"/>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B289" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C289" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D289" s="30"/>
-      <c r="E289" s="31"/>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B290" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E290" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B291" s="8">
-        <v>1</v>
-      </c>
-      <c r="C291" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D291" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E291" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B292" s="8">
-        <f>B291+1</f>
-        <v>2</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E292" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B293" s="8">
-        <f t="shared" ref="B293:B301" si="19">B292+1</f>
-        <v>3</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D293" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E293" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B294" s="8">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="C294" s="7" t="s">
+      <c r="C298" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="D294" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E294" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B295" s="8">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D295" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E295" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B296" s="8">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D296" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E296" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B297" s="8">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D297" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E297" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="298" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B298" s="8">
-        <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="D298" s="7" t="s">
         <v>24</v>
@@ -5273,13 +5319,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:5">
       <c r="B299" s="8">
-        <f t="shared" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>169</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D299" s="7" t="s">
         <v>24</v>
@@ -5288,13 +5334,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:5">
       <c r="B300" s="8">
-        <f t="shared" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>256</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="D300" s="7" t="s">
         <v>24</v>
@@ -5303,13 +5349,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:5">
       <c r="B301" s="8">
-        <f t="shared" si="19"/>
-        <v>11</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>289</v>
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="D301" s="7" t="s">
         <v>24</v>
@@ -5318,43 +5364,118 @@
         <v>11</v>
       </c>
     </row>
+    <row r="302" spans="2:5" ht="22.5">
+      <c r="B302" s="8">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E302" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5">
+      <c r="B303" s="8">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E303" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5">
+      <c r="B304" s="8">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E304" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5">
+      <c r="B305" s="8">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D305" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E305" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5">
+      <c r="B306" s="8">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E306" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C253:E253"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C252:E252"/>
-    <mergeCell ref="C227:E227"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C278:E278"/>
-    <mergeCell ref="C267:E267"/>
-    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C199:E199"/>
+    <mergeCell ref="C132:E132"/>
     <mergeCell ref="C180:E180"/>
     <mergeCell ref="C181:E181"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C147:E147"/>
     <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C197:E197"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C292:E292"/>
+    <mergeCell ref="C293:E293"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C255:E255"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C254:E254"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C281:E281"/>
+    <mergeCell ref="C282:E282"/>
+    <mergeCell ref="C271:E271"/>
+    <mergeCell ref="C272:E272"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E270:E273 E150:E162 E35:E60 E168:E174 E255:E265 E280:E283 E291:E301 E65:E81 E199:E209 E86:E102 E230:E246 E135:E145 E214:E225 E183:E189 E9:E21 E107:E131 E25:E31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E274:E277 E150:E162 E35:E60 E168:E174 E257:E269 E284:E287 E295:E306 E25:E31 E201:E211 E86:E102 E232:E248 E135:E145 E216:E227 E65:E81 E9:E21 E107:E131 E183:E193">
       <formula1>"△,○,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5364,14 +5485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15570" windowHeight="11640" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Question" sheetId="5" r:id="rId2"/>
     <sheet name="U-Boot" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="298">
   <si>
     <t>Name</t>
   </si>
@@ -210,16 +210,10 @@
     <t>To check C &amp; algorithm skills</t>
   </si>
   <si>
-    <t>A case in your project which have a big problem and how did you resolve it?</t>
-  </si>
-  <si>
     <t>If some code given to you without doc / test ? What will you do?</t>
   </si>
   <si>
     <t>Any failed project case? The reason?</t>
-  </si>
-  <si>
-    <t>What did you think bad code ?  Any tool to format your code?</t>
   </si>
   <si>
     <t>What is Virtual Memory ? Why use Virtual memory?</t>
@@ -323,9 +317,6 @@
   </si>
   <si>
     <t>explain interrupt latency and how to improve it?</t>
-  </si>
-  <si>
-    <t>What is the function of DMA controlled in embedded system?</t>
   </si>
   <si>
     <t>What are the different schedulers class present in the linux kernel?</t>
@@ -643,14 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assembly related</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To check if one familiar with assembly language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ARM instruction &amp; thumb instruction difference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,6 +698,354 @@
   </si>
   <si>
     <t>Self-introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor : vim &amp; emacs to develop code ? Any plugin ? How to search for a function? Use cscope to search for function?</t>
+  </si>
+  <si>
+    <t>How to redirect error meg to a file?</t>
+  </si>
+  <si>
+    <t>prog 2&gt; /path/to/file</t>
+  </si>
+  <si>
+    <t>How to know the usage of one command?</t>
+  </si>
+  <si>
+    <t>man cmd &amp; command -h(--help) &amp; info cmd</t>
+  </si>
+  <si>
+    <t>Please list up some common used command in Linux.</t>
+  </si>
+  <si>
+    <t>How many lines code did you write using the shell / python?</t>
+  </si>
+  <si>
+    <t>How do you define a function in a shell script?</t>
+  </si>
+  <si>
+    <t>function-name() { #some code here return }</t>
+  </si>
+  <si>
+    <t>How do you fire a process in the background?</t>
+  </si>
+  <si>
+    <t>./process-name &amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you refer to the arguments passed to a shell script? </t>
+  </si>
+  <si>
+    <t>$1, $2 and so on. $0 is your script name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What’s the conditional statement in shell scripting? </t>
+  </si>
+  <si>
+    <t>if {condition} then … fi</t>
+  </si>
+  <si>
+    <t>How does a case statement look in shell scripts?</t>
+  </si>
+  <si>
+    <t>case {variable} in {possible-value-1}) {statement};; {possible-value-2}) {statement};; esac</t>
+  </si>
+  <si>
+    <t>Bootloader related</t>
+  </si>
+  <si>
+    <t>To check if one familiar with bootloader development</t>
+  </si>
+  <si>
+    <t>printenv ; setenv; saveenv; bootm;bdinfo</t>
+  </si>
+  <si>
+    <t>How to pass Kernel Arguments in U-Boot?</t>
+  </si>
+  <si>
+    <t>setenv bootargs root=/dev/ram rw</t>
+  </si>
+  <si>
+    <t>/proc/cpuinfo, /proc/meminfo, /proc/pid/maps, /proc/stat
+/proc/cmdline</t>
+  </si>
+  <si>
+    <t>List up some env variables in U-Boot?</t>
+  </si>
+  <si>
+    <t>bootdelay / baudrate / netmask / ethaddr</t>
+  </si>
+  <si>
+    <t>Please describe U-Boot dir strucure?</t>
+  </si>
+  <si>
+    <t>Please describe U-Boot boot sequence?</t>
+  </si>
+  <si>
+    <t>How to load / unload module from user space?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insmod / rmmod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to add current dir to PATH env?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export PATH=$PATH:$CUR_DIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the tools that you have used for debugging the Linux kernel?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemtap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to print a stack trace from a particular function?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dump_stack()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name some of the sorting techniques.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bubble sort, Merge sort, Insetion sort, Quick sort etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Difference between Stack and Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack is a collection of objects that works in LIFO (Last in First out) mechanism while Queue is FIFO (First in First out). This means that the object that is inserted first is removed last in a stack while an object that is inserted first is removed first in a queue.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To check experience in RTOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To check if one familiar with linux kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">memory leak debug related:
+How the allocate memory in userspace? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What is memory leak? any experience about memory leak ? Userspace memory leak ? Kernel space memory leak ? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malloc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmalloc / vmalloc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to allocate memory in Kernel space? Kmalloc / vmalloc difference?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to check memory leak ? Any knowledge about memory leak ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add, commit, log, status, annotate, bsec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if use svn / git to manage the code?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git common command?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is inline function? What is the difference between inline / macro?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain different ARM registers especially SPSR and CPSR.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What /dev/mem used for? Memroy is physical address / virutal address?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is EXPORT_SYMBOL() and EXPORT_SYMBOL_GPL() ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPL &amp; LGPL &amp; BSD license difference?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which bootloader did you devleop? U-Boot or some other bootloader? The feature?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please list up some command in U-Boot?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux Development tool &amp; Userspace &amp; library experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load dynamic link library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is LD_PRELOAD used for?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What does dlopen() API mean?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is LD_LIBRARY_PATH used for?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What is meant by cross-compiler? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复代码 / 长方法 / 太多的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to improve system boot-up speed?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use valgrind? How to check memory leak with valgrind?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automake &amp; autoconf &amp; configure used for?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automake -&gt; Makefile.in, autoconf-&gt;configure; configure-&gt;Makefile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Know about filesystem?
+List up some filesystems?
+List up some NAND-specified filesystem?
+What's the main feature?
+Describe the sturcture?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JFFS, JFFS2, YAFFS
+UBIFS
+LogFS
+F2FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">– Erase-before-write
+– Random access
+– Limited program/erase (P/E) cycle
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is the difference between NAND memory and harddisk ? Or the feature of NAND?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is the difference between NAND memory and Nor memory?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you refer to the arguments passed to a shell script?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - $1, $2 and so on. $0 is your script name.</t>
+  </si>
+  <si>
+    <t>Difference between Mutex and Spinlock.</t>
+  </si>
+  <si>
+    <t>Can we have mutex or spinlock in ISR?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel interrupt related</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To check if one familiar with linux kernel interrupt machinism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_irq() / free_irq()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the APIs that are used to register an interrupt handler?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the different bottom-half mechanisms in Linux?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Softirq, Tasklet and Workqueues</t>
+  </si>
+  <si>
+    <t>What is bottom half and top half.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain about the interrupt mechanims in linux?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Softirq is guaranteed to run on the CPU it was scheduled on, where as tasklets don’t have that guarantee. 
+The same tasklet can't run on two separate CPUs at the same time, where as a softirq can. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the differences between softirqs and tasklets and work queue?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future work direction: techinal ? Management ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If experience in other OS, compare the other OS with embeded linux, adv &amp; dis?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -724,407 +1055,80 @@
 about watchpoint
 bt meaning ? (show stack)  How to jump to upper function? (up)
 machinsm about breakpoint
+Can gdb be used to debug thread?
 thread related command (info threads;  thread (id))</t>
-  </si>
-  <si>
-    <t>editor : vim &amp; emacs to develop code ? Any plugin ? How to search for a function? Use cscope to search for function?</t>
-  </si>
-  <si>
-    <t>How to redirect error meg to a file?</t>
-  </si>
-  <si>
-    <t>prog 2&gt; /path/to/file</t>
-  </si>
-  <si>
-    <t>How to know the usage of one command?</t>
-  </si>
-  <si>
-    <t>man cmd &amp; command -h(--help) &amp; info cmd</t>
-  </si>
-  <si>
-    <t>Please list up some common used command in Linux.</t>
-  </si>
-  <si>
-    <t>How many lines code did you write using the shell / python?</t>
-  </si>
-  <si>
-    <t>How do you define a function in a shell script?</t>
-  </si>
-  <si>
-    <t>function-name() { #some code here return }</t>
-  </si>
-  <si>
-    <t>How do you fire a process in the background?</t>
-  </si>
-  <si>
-    <t>./process-name &amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you refer to the arguments passed to a shell script? </t>
-  </si>
-  <si>
-    <t>$1, $2 and so on. $0 is your script name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What’s the conditional statement in shell scripting? </t>
-  </si>
-  <si>
-    <t>if {condition} then … fi</t>
-  </si>
-  <si>
-    <t>How does a case statement look in shell scripts?</t>
-  </si>
-  <si>
-    <t>case {variable} in {possible-value-1}) {statement};; {possible-value-2}) {statement};; esac</t>
-  </si>
-  <si>
-    <t>Bootloader related</t>
-  </si>
-  <si>
-    <t>To check if one familiar with bootloader development</t>
-  </si>
-  <si>
-    <t>printenv ; setenv; saveenv; bootm;bdinfo</t>
-  </si>
-  <si>
-    <t>How to pass Kernel Arguments in U-Boot?</t>
-  </si>
-  <si>
-    <t>setenv bootargs root=/dev/ram rw</t>
-  </si>
-  <si>
-    <t>/proc/cpuinfo, /proc/meminfo, /proc/pid/maps, /proc/stat
-/proc/cmdline</t>
-  </si>
-  <si>
-    <t>List up some env variables in U-Boot?</t>
-  </si>
-  <si>
-    <t>bootdelay / baudrate / netmask / ethaddr</t>
-  </si>
-  <si>
-    <t>Please describe U-Boot dir strucure?</t>
-  </si>
-  <si>
-    <t>Please describe U-Boot boot sequence?</t>
-  </si>
-  <si>
-    <t>How to load / unload module from user space?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insmod / rmmod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How to add current dir to PATH env?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>export PATH=$PATH:$CUR_DIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What are the tools that you have used for debugging the Linux kernel?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemtap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How to print a stack trace from a particular function?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dump_stack()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name some of the sorting techniques.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bubble sort, Merge sort, Insetion sort, Quick sort etc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Difference between Stack and Queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stack is a collection of objects that works in LIFO (Last in First out) mechanism while Queue is FIFO (First in First out). This means that the object that is inserted first is removed last in a stack while an object that is inserted first is removed first in a queue.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To check experience in RTOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To check if one familiar with linux kernel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">memory leak debug related:
-How the allocate memory in userspace? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">What is memory leak? any experience about memory leak ? Userspace memory leak ? Kernel space memory leak ? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>malloc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kmalloc / vmalloc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How to allocate memory in Kernel space? Kmalloc / vmalloc difference?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How to check memory leak ? Any knowledge about memory leak ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add, commit, log, status, annotate, bsec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if use svn / git to manage the code?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git common command?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is inline function? What is the difference between inline / macro?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explain different ARM registers especially SPSR and CPSR.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What /dev/mem used for? Memroy is physical address / virutal address?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is EXPORT_SYMBOL() and EXPORT_SYMBOL_GPL() ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPL &amp; LGPL &amp; BSD license difference?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Which bootloader did you devleop? U-Boot or some other bootloader? The feature?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please list up some command in U-Boot?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux Development tool &amp; Userspace &amp; library experience</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>load dynamic link library</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is LD_PRELOAD used for?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What does dlopen() API mean?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is LD_LIBRARY_PATH used for?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">What is meant by cross-compiler? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复代码 / 长方法 / 太多的参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How to improve system boot-up speed?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use valgrind? How to check memory leak with valgrind?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>automake &amp; autoconf &amp; configure used for?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>automake -&gt; Makefile.in, autoconf-&gt;configure; configure-&gt;Makefile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Know about filesystem?
-List up some filesystems?
-List up some NAND-specified filesystem?
-What's the main feature?
-Describe the sturcture?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JFFS, JFFS2, YAFFS
-UBIFS
-LogFS
-F2FS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">– Erase-before-write
-– Random access
-– Limited program/erase (P/E) cycle
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> What is the difference between NAND memory and harddisk ? Or the feature of NAND?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> What is the difference between NAND memory and Nor memory?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How do you refer to the arguments passed to a shell script?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - $1, $2 and so on. $0 is your script name.</t>
-  </si>
-  <si>
-    <t>Difference between Mutex and Spinlock.</t>
-  </si>
-  <si>
-    <t>Can we have mutex or spinlock in ISR?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel interrupt related</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To check if one familiar with linux kernel interrupt machinism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register_irq() / free_irq()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What are the APIs that are used to register an interrupt handler?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What are the different bottom-half mechanisms in Linux?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Softirq, Tasklet and Workqueues</t>
-  </si>
-  <si>
-    <t>What is bottom half and top half.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explain about the interrupt mechanims in linux?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Softirq is guaranteed to run on the CPU it was scheduled on, where as tasklets don’t have that guarantee. 
-The same tasklet can't run on two separate CPUs at the same time, where as a softirq can. 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What are the differences between softirqs and tasklets and work queue?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future work direction: techinal ? Management ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If experience in other OS, compare the other OS with embeded linux, adv &amp; dis?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Any experience in RTOS? Describe the RTOS feature.IPC machinism? Support Arch?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the reason of insmod error: Invalid module format?</t>
-  </si>
-  <si>
-    <t>Can you accept over-time work?</t>
-  </si>
-  <si>
-    <t>What is the feature of RedBoot?</t>
-  </si>
-  <si>
-    <t>List up some console command of RedBoot?</t>
-  </si>
-  <si>
-    <t>What is your work about the bootloader?</t>
-  </si>
-  <si>
-    <t>Can RedBoot use gdb to debug? Describe the processing.</t>
-  </si>
-  <si>
-    <t>What is bootloader used for?</t>
-  </si>
-  <si>
-    <t>Any tool to format code?</t>
-  </si>
-  <si>
-    <t>indent</t>
-  </si>
-  <si>
-    <t>strcpy / memcpy difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc filesystem / sys filesystem difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did you think bad code ?
+How did you avoid it?
+Any tool to format your code?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which part will you pay specified attention to?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A case recently in your project which have a big problem and how did you resolve it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you familiar with kernel development ? Or some others?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any experience in RTOS?
+Describe the RTOS feature.
+IPC machinism?
+Support Arch?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have you ever used JTAG to do the debug? How to use JTAG debug the kernel? What is can be used to do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is the components of Soc?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARM &amp; assembly related</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To check if one familiar with ARM structure &amp; assembly language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please describe the ARM register set?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r13(sp), r14(lr), r15(pc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1132,7 +1136,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1140,7 +1144,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1148,7 +1152,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1156,7 +1160,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1164,7 +1168,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1172,7 +1176,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1180,7 +1184,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1189,7 +1193,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1197,7 +1201,7 @@
     <font>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1206,7 +1210,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1214,13 +1218,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1421,8 +1425,8 @@
   <cellStyles count="4">
     <cellStyle name="20% - 强调文字颜色 1" xfId="2" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="警告文本" xfId="3" builtinId="11"/>
     <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
-    <cellStyle name="警告文本" xfId="3" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1824,7 +1828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1832,19 +1836,19 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="83.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1">
+    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1">
+    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1860,27 +1864,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1">
+    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1">
+    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="24" ht="14.45" customHeight="1"/>
+    <row r="24" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1889,52 +1893,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E306"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
+      <pane ySplit="3" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D284" sqref="D284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.25" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1"/>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1"/>
-    <row r="4" spans="1:5" ht="15" customHeight="1"/>
-    <row r="5" spans="1:5" ht="15" customHeight="1"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="9" t="s">
         <v>7</v>
@@ -1949,7 +1953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8">
         <v>1</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <f>B9+1</f>
         <v>2</v>
@@ -1978,97 +1982,99 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <f t="shared" ref="B11:B19" si="0">B10+1</f>
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2078,7 +2084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2089,39 +2095,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
         <v>7</v>
@@ -2136,12 +2142,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8">
         <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>24</v>
@@ -2150,20 +2156,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="22.5" customHeight="1">
+    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="8">
         <f>B25+1</f>
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="22.5" customHeight="1">
+    <row r="27" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="B27" s="8">
         <f>B26+1</f>
         <v>3</v>
@@ -2176,51 +2182,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28" s="17"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1">
+    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="17"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1">
+    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="32"/>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1">
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="32"/>
     </row>
-    <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
@@ -2234,25 +2240,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="8">
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8">
         <f>B35+1</f>
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>13</v>
@@ -2261,13 +2267,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="23.45" customHeight="1">
+    <row r="37" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="8">
         <f t="shared" ref="B37:B50" si="1">B36+1</f>
         <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>14</v>
@@ -2276,28 +2282,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="23.45" customHeight="1">
+    <row r="38" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1">
+    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>15</v>
@@ -2306,28 +2312,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>16</v>
@@ -2336,7 +2342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B42" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2351,13 +2357,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>18</v>
@@ -2366,7 +2372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B44" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2381,22 +2387,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="33.75">
+    <row r="45" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B45" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B46" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2411,22 +2417,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B47" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B48" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2441,159 +2447,159 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="67.5">
+    <row r="50" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B50" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="8">
         <f t="shared" ref="B51:B57" si="2">B50+1</f>
         <v>17</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B58" s="17"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" s="17"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" s="17"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1"/>
-    <row r="62" spans="2:5" ht="19.899999999999999" customHeight="1">
+    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="14" t="s">
         <v>4</v>
       </c>
@@ -2603,7 +2609,7 @@
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
     </row>
-    <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="15" t="s">
         <v>3</v>
       </c>
@@ -2613,7 +2619,7 @@
       <c r="D63" s="31"/>
       <c r="E63" s="32"/>
     </row>
-    <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="9" t="s">
         <v>7</v>
       </c>
@@ -2627,112 +2633,116 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="24" customFormat="1" ht="78.75">
+    <row r="65" spans="2:5" s="24" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="B65" s="20">
         <v>1</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" s="8">
         <f>B65+1</f>
         <v>2</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="22.5">
+    <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B67" s="8">
-        <f t="shared" ref="B67:B79" si="3">B66+1</f>
+        <f t="shared" ref="B67:B78" si="3">B66+1</f>
         <v>3</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="8">
         <v>3.1</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="22.5">
+    <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B69" s="8">
         <v>3.2</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" s="8">
         <v>3.3</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="8">
         <v>3.4</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="8"/>
-      <c r="C72" s="6"/>
+    <row r="72" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B72" s="8">
+        <v>4</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="D72" s="23"/>
       <c r="E72" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="8">
-        <f>B67+1</f>
-        <v>4</v>
+        <f>B72+1</f>
+        <v>5</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>30</v>
@@ -2744,10 +2754,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" s="8">
         <f>B73+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>32</v>
@@ -2759,13 +2769,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" s="8">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>24</v>
@@ -2774,93 +2784,86 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" s="8">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" s="8">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" s="8">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="8">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B79" s="17"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" s="17"/>
       <c r="C80" s="25"/>
       <c r="D80" s="18"/>
       <c r="E80" s="22"/>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="17"/>
       <c r="C81" s="25"/>
       <c r="D81" s="18"/>
       <c r="E81" s="22"/>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="19"/>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="32"/>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="15" t="s">
         <v>3</v>
       </c>
@@ -2870,7 +2873,7 @@
       <c r="D84" s="31"/>
       <c r="E84" s="32"/>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" s="9" t="s">
         <v>7</v>
       </c>
@@ -2884,70 +2887,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="22.5">
+    <row r="86" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B86" s="8">
         <v>1</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="22.5">
+    <row r="87" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B87" s="8">
         <f>B86+1</f>
         <v>2</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" s="8">
         <f t="shared" ref="B88:B99" si="4">B87+1</f>
         <v>3</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" s="8">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>7</v>
@@ -2956,182 +2959,182 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B91" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E91" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" s="8">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="22.5">
+    <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B95" s="8">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E95" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" s="8">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" s="8">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" s="8">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" s="8">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="E100" s="22"/>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="22"/>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="22"/>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
       <c r="E103" s="19"/>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D104" s="31"/>
       <c r="E104" s="32"/>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D105" s="27"/>
       <c r="E105" s="28"/>
     </row>
-    <row r="106" spans="2:5" ht="15" customHeight="1">
+    <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="9" t="s">
         <v>7</v>
       </c>
@@ -3145,21 +3148,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1">
+    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="8">
         <v>1</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1">
+    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="8">
         <f>B107+1</f>
         <v>2</v>
@@ -3172,7 +3175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B109" s="8">
         <f t="shared" ref="B109:B121" si="5">B108+1</f>
         <v>3</v>
@@ -3185,18 +3188,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C110" s="6"/>
+      <c r="C110" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="D110" s="7"/>
       <c r="E110" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" s="8">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3209,276 +3214,276 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" s="8">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="2:5">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B113" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="2:5">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B114" s="8">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="2:5">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="8">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="2:5">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B116" s="8">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="2:5">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" s="8">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="2:5">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" s="8">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E118" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="2:5">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B119" s="8">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:5">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B120" s="8">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="67.5">
+    <row r="121" spans="2:5" ht="63" x14ac:dyDescent="0.15">
       <c r="B121" s="8">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E121" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="33.75">
+    <row r="122" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B122" s="8">
         <f t="shared" ref="B122:B128" si="6">B121+1</f>
         <v>16</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E122" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="2:5">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B123" s="8">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="22.5">
+    <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B124" s="8">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="2:5">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="8">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E125" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="56.25">
+    <row r="126" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B126" s="8">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E126" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="2:5">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B127" s="8">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="2:5">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B128" s="8">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" s="17"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
       <c r="E129" s="22"/>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" s="17"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="22"/>
     </row>
-    <row r="131" spans="2:5" ht="12.75" customHeight="1">
+    <row r="131" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="17"/>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
       <c r="E131" s="22"/>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D132" s="31"/>
       <c r="E132" s="32"/>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D133" s="27"/>
       <c r="E133" s="28"/>
     </row>
-    <row r="134" spans="2:5" ht="15" customHeight="1">
+    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="9" t="s">
         <v>7</v>
       </c>
@@ -3492,133 +3497,133 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="15" customHeight="1">
+    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="8">
         <v>1</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="15" customHeight="1">
+    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8">
         <f>B135+1</f>
         <v>2</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E136" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="8">
         <f t="shared" ref="B137:B139" si="7">B136+1</f>
         <v>3</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="56.25">
+    <row r="138" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B138" s="8">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E138" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="2:5">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" s="8">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E139" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="2:5">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" s="17"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
       <c r="E140" s="22"/>
     </row>
-    <row r="141" spans="2:5">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" s="17"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
       <c r="E141" s="22"/>
     </row>
-    <row r="142" spans="2:5">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" s="17"/>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
       <c r="E142" s="22"/>
     </row>
-    <row r="143" spans="2:5">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" s="17"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
       <c r="E143" s="22"/>
     </row>
-    <row r="144" spans="2:5">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" s="17"/>
       <c r="C144" s="25"/>
       <c r="D144" s="25"/>
       <c r="E144" s="22"/>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" s="17"/>
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
       <c r="E145" s="22"/>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D148" s="31"/>
       <c r="E148" s="32"/>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" s="9" t="s">
         <v>7</v>
       </c>
@@ -3632,170 +3637,168 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" s="8">
         <v>1</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D150" s="13"/>
       <c r="E150" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="8">
         <f>B150+1</f>
         <v>2</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="8">
         <f>B151+1</f>
         <v>3</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E152" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="2:5">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="8">
         <f t="shared" ref="B153:B162" si="8">B152+1</f>
         <v>4</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E153" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="2:5">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="8">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="8">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="2:5">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" s="8">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="8">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E157" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="22.5">
+    <row r="158" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B158" s="8">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="2:5">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E159" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="8">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="2:5">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B161" s="8">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="2:5">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B162" s="8">
         <f t="shared" si="8"/>
         <v>13</v>
@@ -3806,27 +3809,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="2:5">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B165" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
     </row>
-    <row r="166" spans="2:5">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B166" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D166" s="31"/>
       <c r="E166" s="32"/>
     </row>
-    <row r="167" spans="2:5">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B167" s="9" t="s">
         <v>7</v>
       </c>
@@ -3840,70 +3843,72 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="2:5">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B168" s="8">
         <v>1</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D168" s="13"/>
       <c r="E168" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="2:5">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B169" s="8">
         <f>B168+1</f>
         <v>2</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="45">
+    <row r="170" spans="2:5" ht="42" x14ac:dyDescent="0.15">
       <c r="B170" s="8">
         <f t="shared" ref="B170:B171" si="9">B169+1</f>
         <v>3</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E170" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="2:5">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B171" s="8">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="2:5">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" s="8">
         <v>5</v>
       </c>
-      <c r="C172" s="7"/>
+      <c r="C172" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="D172" s="7"/>
       <c r="E172" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="2:5">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B173" s="8">
         <v>6</v>
       </c>
@@ -3913,7 +3918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="2:5">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B174" s="8">
         <v>7</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="2:5">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B175" s="8">
         <v>8</v>
       </c>
@@ -3931,7 +3936,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="176" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B176" s="8">
         <v>9</v>
       </c>
@@ -3939,48 +3944,48 @@
       <c r="D176" s="7"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="177" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" s="17"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="19"/>
     </row>
-    <row r="178" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="178" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" s="17"/>
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
       <c r="E178" s="19"/>
     </row>
-    <row r="179" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="179" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="180" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180"/>
       <c r="B180" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="29"/>
     </row>
-    <row r="181" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="181" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181"/>
       <c r="B181" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D181" s="31"/>
       <c r="E181" s="32"/>
     </row>
-    <row r="182" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="182" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182"/>
       <c r="B182" s="9" t="s">
         <v>7</v>
@@ -3995,264 +4000,251 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="183" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183"/>
       <c r="B183" s="8">
         <v>1</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="D183" s="13"/>
       <c r="E183" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="184" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184"/>
       <c r="B184" s="8">
         <f>B183+1</f>
         <v>2</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D184" s="13"/>
+      <c r="C184" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="E184" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="185" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185"/>
       <c r="B185" s="8">
-        <f t="shared" ref="B185:B193" si="10">B184+1</f>
+        <f t="shared" ref="B185:B186" si="10">B184+1</f>
         <v>3</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E185" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="186" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186"/>
       <c r="B186" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>221</v>
+      <c r="C186" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="E186" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="187" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187"/>
       <c r="B187" s="8">
-        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>224</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D187" s="7"/>
       <c r="E187" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="188" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188"/>
       <c r="B188" s="8">
-        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="189" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189"/>
       <c r="B189" s="8">
-        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>226</v>
-      </c>
+      <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="190" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190"/>
       <c r="B190" s="8">
-        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="C190" s="7" t="s">
-        <v>294</v>
-      </c>
+      <c r="C190" s="7"/>
       <c r="D190" s="7"/>
-      <c r="E190" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A191"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B191" s="8">
-        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="C191" s="7" t="s">
-        <v>297</v>
-      </c>
+      <c r="C191" s="7"/>
       <c r="D191" s="7"/>
-      <c r="E191" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A192"/>
-      <c r="B192" s="8">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B193" s="8">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D193" s="7"/>
-      <c r="E193" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="17"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="19"/>
+    </row>
+    <row r="193" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="17"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="19"/>
+    </row>
+    <row r="194" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B194" s="17"/>
       <c r="C194" s="18"/>
       <c r="D194" s="18"/>
       <c r="E194" s="19"/>
     </row>
-    <row r="195" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="195" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B195" s="17"/>
       <c r="C195" s="18"/>
       <c r="D195" s="18"/>
       <c r="E195" s="19"/>
     </row>
-    <row r="196" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B196" s="17"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="19"/>
-    </row>
-    <row r="197" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B197" s="17"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="19"/>
-    </row>
-    <row r="198" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1"/>
-    <row r="199" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B199" s="15" t="s">
+    <row r="196" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C199" s="30" t="s">
+      <c r="C197" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D199" s="31"/>
-      <c r="E199" s="32"/>
-    </row>
-    <row r="200" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B200" s="9" t="s">
+      <c r="D197" s="31"/>
+      <c r="E197" s="32"/>
+    </row>
+    <row r="198" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C198" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D198" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E200" s="10" t="s">
+      <c r="E198" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="199" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="8">
+        <v>1</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E199" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B200" s="8">
+        <f>B199+1</f>
+        <v>2</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E200" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B201" s="8">
-        <v>1</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D201" s="13" t="s">
+        <f t="shared" ref="B201:B208" si="11">B200+1</f>
+        <v>3</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E201" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="2:5" ht="22.5">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B202" s="8">
-        <f>B201+1</f>
-        <v>2</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D202" s="6" t="s">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D202" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E202" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="2:5" ht="33.75">
+    <row r="203" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B203" s="8">
-        <f t="shared" ref="B203:B210" si="11">B202+1</f>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D203" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E203" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="2:5">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B204" s="8">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>39</v>
@@ -4261,183 +4253,183 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="22.5">
+    <row r="205" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B205" s="8">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>39</v>
+        <v>180</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E205" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="2:5">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B206" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>39</v>
+        <v>183</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="E206" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="2:5" ht="33.75">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B207" s="8">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>178</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C207" s="7"/>
+      <c r="D207" s="6"/>
       <c r="E207" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="2:5">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B208" s="8">
         <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="C208" s="7"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B209" s="17"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="18"/>
+      <c r="E209" s="22"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A211" s="11"/>
+      <c r="B211" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D211" s="29"/>
+      <c r="E211" s="29"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A212" s="11"/>
+      <c r="B212" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D212" s="31"/>
+      <c r="E212" s="32"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A213" s="11"/>
+      <c r="B213" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C208" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E208" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="B209" s="8">
-        <f t="shared" si="11"/>
+      <c r="D213" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C209" s="7"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="B210" s="8">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="C210" s="7"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="B211" s="17"/>
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="22"/>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="11"/>
-      <c r="B213" s="14" t="s">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A214" s="11"/>
+      <c r="B214" s="8">
+        <v>1</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E214" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B215" s="8">
+        <f>B214+1</f>
+        <v>2</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E215" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B216" s="8">
+        <f t="shared" ref="B216:B219" si="12">B215+1</f>
+        <v>3</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E216" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B217" s="8">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C213" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D213" s="29"/>
-      <c r="E213" s="29"/>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="11"/>
-      <c r="B214" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C214" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D214" s="31"/>
-      <c r="E214" s="32"/>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="11"/>
-      <c r="B215" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E215" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="11"/>
-      <c r="B216" s="8">
-        <v>1</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D216" s="13" t="s">
+      <c r="C217" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D217" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E216" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="B217" s="8">
-        <f>B216+1</f>
-        <v>2</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D217" s="6" t="s">
+      <c r="E217" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B218" s="8">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D218" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E217" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="B218" s="8">
-        <f t="shared" ref="B218:B221" si="12">B217+1</f>
-        <v>3</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E218" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B219" s="8">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>39</v>
@@ -4446,70 +4438,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B220" s="8">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" ref="B220:B224" si="13">B219+1</f>
+        <v>7</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="E220" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B221" s="8">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>85</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="E221" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B222" s="8">
-        <f t="shared" ref="B222:B226" si="13">B221+1</f>
-        <v>7</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>134</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="C222" s="6"/>
+      <c r="D222" s="7"/>
       <c r="E222" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="33.75">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B223" s="8">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>157</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C223" s="6"/>
+      <c r="D223" s="7"/>
       <c r="E223" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B224" s="8">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="7"/>
@@ -4517,151 +4501,159 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="2:5">
-      <c r="B225" s="8">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="C225" s="6"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5">
-      <c r="B226" s="8">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="C226" s="6"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5">
-      <c r="B227" s="17"/>
-      <c r="C227" s="25"/>
-      <c r="D227" s="18"/>
-      <c r="E227" s="22"/>
-    </row>
-    <row r="229" spans="2:5">
-      <c r="B229" s="14" t="s">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B225" s="17"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="18"/>
+      <c r="E225" s="22"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B227" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C229" s="29" t="s">
+      <c r="C227" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D229" s="29"/>
-      <c r="E229" s="29"/>
-    </row>
-    <row r="230" spans="2:5">
-      <c r="B230" s="15" t="s">
+      <c r="D227" s="29"/>
+      <c r="E227" s="29"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B228" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C230" s="30" t="s">
+      <c r="C228" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D230" s="31"/>
-      <c r="E230" s="32"/>
-    </row>
-    <row r="231" spans="2:5">
-      <c r="B231" s="9" t="s">
+      <c r="D228" s="31"/>
+      <c r="E228" s="32"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B229" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C231" s="10" t="s">
+      <c r="C229" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="10" t="s">
+      <c r="D229" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E231" s="10" t="s">
+      <c r="E229" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="2:5">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B230" s="8">
+        <v>1</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D230" s="13"/>
+      <c r="E230" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B231" s="8">
+        <f>B230+1</f>
+        <v>2</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D231" s="13"/>
+      <c r="E231" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B232" s="8">
-        <v>1</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D232" s="13"/>
+        <f>B231+1</f>
+        <v>3</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D232" s="6"/>
       <c r="E232" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="2:5">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B233" s="8">
-        <f>B232+1</f>
-        <v>2</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D233" s="13"/>
+        <f t="shared" ref="B233:B249" si="14">B232+1</f>
+        <v>4</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D233" s="7"/>
       <c r="E233" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="2:5">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B234" s="8">
-        <f>B233+1</f>
-        <v>3</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D234" s="6"/>
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D234" s="7"/>
       <c r="E234" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="2:5">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B235" s="8">
-        <f t="shared" ref="B235:B251" si="14">B234+1</f>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D235" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E235" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="2:5">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B236" s="8">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D236" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="E236" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="2:5">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B237" s="8">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="E237" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="2:5">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B238" s="8">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>207</v>
@@ -4673,116 +4665,116 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="2:5">
+    <row r="239" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B239" s="8">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D239" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="E239" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="2:5">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B240" s="8">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="E240" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="22.5">
+    <row r="241" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B241" s="8">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E241" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="2:5">
+    <row r="242" spans="2:5" ht="42" x14ac:dyDescent="0.15">
       <c r="B242" s="8">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>276</v>
+        <v>113</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="E242" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="2:5" ht="67.5">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B243" s="8">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D243" s="7"/>
       <c r="E243" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="2:5" ht="45">
+    <row r="244" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B244" s="8">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E244" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="2:5">
+    <row r="245" spans="2:5" ht="84" x14ac:dyDescent="0.15">
       <c r="B245" s="8">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D245" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="E245" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="2:5" ht="33.75">
+    <row r="246" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B246" s="8">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>118</v>
@@ -4791,295 +4783,298 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="2:5" ht="90">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B247" s="8">
         <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E247" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" ht="33.75">
+        <v>18</v>
+      </c>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="5"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B248" s="8">
         <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E248" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5">
+        <v>19</v>
+      </c>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="5"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B249" s="8">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
-      <c r="E249" s="5"/>
-    </row>
-    <row r="250" spans="2:5">
-      <c r="B250" s="8">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="C250" s="7"/>
-      <c r="D250" s="7"/>
-      <c r="E250" s="5"/>
-    </row>
-    <row r="251" spans="2:5">
-      <c r="B251" s="8">
-        <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-      <c r="C251" s="7"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="4"/>
-    </row>
-    <row r="254" spans="2:5">
-      <c r="B254" s="14" t="s">
+      <c r="E249" s="4"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B252" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C254" s="29" t="s">
+      <c r="C252" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D252" s="29"/>
+      <c r="E252" s="29"/>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B253" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D253" s="31"/>
+      <c r="E253" s="32"/>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B254" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B255" s="8">
+        <v>1</v>
+      </c>
+      <c r="C255" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E255" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B256" s="8">
+        <f>B255+1</f>
+        <v>2</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D256" s="13"/>
+      <c r="E256" s="21"/>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B257" s="8">
+        <f t="shared" ref="B257:B263" si="15">B256+1</f>
+        <v>3</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D257" s="7"/>
+      <c r="E257" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B258" s="8">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="C258" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D254" s="29"/>
-      <c r="E254" s="29"/>
-    </row>
-    <row r="255" spans="2:5">
-      <c r="B255" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C255" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D255" s="31"/>
-      <c r="E255" s="32"/>
-    </row>
-    <row r="256" spans="2:5">
-      <c r="B256" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E256" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5">
-      <c r="B257" s="8">
-        <v>1</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D257" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E257" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5">
-      <c r="B258" s="8">
-        <v>2</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D258" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E258" s="21"/>
-    </row>
-    <row r="259" spans="2:5">
+      <c r="D258" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E258" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B259" s="8">
-        <f t="shared" ref="B259:B266" si="15">B258+1</f>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D259" s="7"/>
       <c r="E259" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="2:5">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B260" s="8">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D260" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D260" s="7"/>
       <c r="E260" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="2:5">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B261" s="8">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D261" s="7"/>
       <c r="E261" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="2:5">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B262" s="8">
         <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D262" s="7"/>
-      <c r="E262" s="21"/>
-    </row>
-    <row r="263" spans="2:5">
+        <v>8</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E262" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B263" s="8">
         <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E263" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B264" s="17"/>
+      <c r="C264" s="25"/>
+      <c r="D264" s="25"/>
+      <c r="E264" s="22"/>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B265" s="17"/>
+      <c r="C265" s="25"/>
+      <c r="D265" s="25"/>
+      <c r="E265" s="22"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B266" s="17"/>
+      <c r="C266" s="25"/>
+      <c r="D266" s="25"/>
+      <c r="E266" s="22"/>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B267" s="17"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="18"/>
+      <c r="E267" s="19"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B268" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D268" s="29"/>
+      <c r="E268" s="29"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B269" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D269" s="31"/>
+      <c r="E269" s="32"/>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B270" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C263" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D263" s="7"/>
-      <c r="E263" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5">
-      <c r="B264" s="8">
-        <f t="shared" si="15"/>
+      <c r="C270" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C264" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D264" s="7"/>
-      <c r="E264" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="265" spans="2:5">
-      <c r="B265" s="8">
-        <f t="shared" si="15"/>
+      <c r="D270" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C265" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E265" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" ht="45">
-      <c r="B266" s="8">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E266" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5">
-      <c r="B267" s="17"/>
-      <c r="C267" s="25"/>
-      <c r="D267" s="25"/>
-      <c r="E267" s="22"/>
-    </row>
-    <row r="268" spans="2:5">
-      <c r="B268" s="17"/>
-      <c r="C268" s="25"/>
-      <c r="D268" s="25"/>
-      <c r="E268" s="22"/>
-    </row>
-    <row r="269" spans="2:5">
-      <c r="B269" s="17"/>
-      <c r="C269" s="25"/>
-      <c r="D269" s="25"/>
-      <c r="E269" s="22"/>
-    </row>
-    <row r="270" spans="2:5">
-      <c r="B270" s="17"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18"/>
-      <c r="E270" s="19"/>
-    </row>
-    <row r="271" spans="2:5">
-      <c r="B271" s="14" t="s">
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B271" s="8">
+        <v>1</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E271" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B272" s="8">
+        <f>B271+1</f>
+        <v>2</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D272" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E272" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B273" s="8">
+        <f t="shared" ref="B273:B274" si="16">B272+1</f>
+        <v>3</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D273" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E273" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B274" s="8">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="C271" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D271" s="29"/>
-      <c r="E271" s="29"/>
-    </row>
-    <row r="272" spans="2:5">
-      <c r="B272" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C272" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D272" s="31"/>
-      <c r="E272" s="32"/>
-    </row>
-    <row r="273" spans="2:5">
-      <c r="B273" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E273" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5">
-      <c r="B274" s="8">
-        <v>1</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>249</v>
+      <c r="C274" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D274" s="13" t="s">
         <v>24</v>
@@ -5088,214 +5083,218 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="2:5">
-      <c r="B275" s="8">
-        <f>B274+1</f>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B277" s="17"/>
+      <c r="C277" s="18"/>
+      <c r="D277" s="18"/>
+      <c r="E277" s="19"/>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B278" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D278" s="29"/>
+      <c r="E278" s="29"/>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B279" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D279" s="31"/>
+      <c r="E279" s="32"/>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B280" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="B281" s="8">
+        <v>1</v>
+      </c>
+      <c r="C281" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E281" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B282" s="8">
+        <f>B281+1</f>
         <v>2</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D275" s="13" t="s">
+      <c r="C282" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D282" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E275" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="276" spans="2:5">
-      <c r="B276" s="8">
-        <f t="shared" ref="B276:B277" si="16">B275+1</f>
+      <c r="E282" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B283" s="8">
+        <f t="shared" ref="B283:B284" si="17">B282+1</f>
         <v>3</v>
       </c>
-      <c r="C276" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D276" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E276" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="277" spans="2:5">
-      <c r="B277" s="8">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D277" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E277" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="280" spans="2:5">
-      <c r="B280" s="17"/>
-      <c r="C280" s="18"/>
-      <c r="D280" s="18"/>
-      <c r="E280" s="19"/>
-    </row>
-    <row r="281" spans="2:5">
-      <c r="B281" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C281" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D281" s="29"/>
-      <c r="E281" s="29"/>
-    </row>
-    <row r="282" spans="2:5">
-      <c r="B282" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D282" s="31"/>
-      <c r="E282" s="32"/>
-    </row>
-    <row r="283" spans="2:5">
-      <c r="B283" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D283" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E283" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5" ht="45">
+      <c r="C283" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D283" s="13"/>
+      <c r="E283" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B284" s="8">
-        <v>1</v>
-      </c>
-      <c r="C284" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D284" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E284" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="285" spans="2:5">
-      <c r="B285" s="8">
-        <f>B284+1</f>
-        <v>2</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D285" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E285" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="286" spans="2:5">
-      <c r="B286" s="8">
-        <f t="shared" ref="B286:B287" si="17">B285+1</f>
-        <v>3</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D286" s="13"/>
-      <c r="E286" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5">
-      <c r="B287" s="8">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="C287" s="7"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="292" spans="2:5">
-      <c r="B292" s="14" t="s">
+      <c r="C284" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D284" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E284" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B289" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C292" s="29" t="s">
+      <c r="C289" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D292" s="29"/>
-      <c r="E292" s="29"/>
-    </row>
-    <row r="293" spans="2:5">
-      <c r="B293" s="15" t="s">
+      <c r="D289" s="29"/>
+      <c r="E289" s="29"/>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B290" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C293" s="30" t="s">
+      <c r="C290" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D293" s="31"/>
-      <c r="E293" s="32"/>
-    </row>
-    <row r="294" spans="2:5">
-      <c r="B294" s="9" t="s">
+      <c r="D290" s="31"/>
+      <c r="E290" s="32"/>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B291" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C294" s="10" t="s">
+      <c r="C291" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D294" s="10" t="s">
+      <c r="D291" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E294" s="10" t="s">
+      <c r="E291" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="2:5">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B292" s="8">
+        <v>1</v>
+      </c>
+      <c r="C292" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D292" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E292" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B293" s="8">
+        <f>B292+1</f>
+        <v>2</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E293" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B294" s="8">
+        <f t="shared" ref="B294:B302" si="18">B293+1</f>
+        <v>3</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E294" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B295" s="8">
-        <v>1</v>
-      </c>
-      <c r="C295" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D295" s="13" t="s">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D295" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E295" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="2:5">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B296" s="8">
-        <f>B295+1</f>
-        <v>2</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D296" s="6" t="s">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D296" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E296" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="2:5">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B297" s="8">
-        <f t="shared" ref="B297:B306" si="18">B296+1</f>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="D297" s="7" t="s">
         <v>24</v>
@@ -5304,13 +5303,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="2:5">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B298" s="8">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="D298" s="7" t="s">
         <v>24</v>
@@ -5319,13 +5318,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="2:5">
+    <row r="299" spans="2:5" ht="21" x14ac:dyDescent="0.15">
       <c r="B299" s="8">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="D299" s="7" t="s">
         <v>24</v>
@@ -5334,13 +5333,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="2:5">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B300" s="8">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>159</v>
+        <v>9</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="D300" s="7" t="s">
         <v>24</v>
@@ -5349,13 +5348,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="2:5">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B301" s="8">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="D301" s="7" t="s">
         <v>24</v>
@@ -5364,13 +5363,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="22.5">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B302" s="8">
         <f t="shared" si="18"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>135</v>
+        <v>283</v>
       </c>
       <c r="D302" s="7" t="s">
         <v>24</v>
@@ -5379,73 +5378,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="2:5">
-      <c r="B303" s="8">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D303" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E303" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="304" spans="2:5">
-      <c r="B304" s="8">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D304" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E304" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="305" spans="2:5">
-      <c r="B305" s="8">
-        <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D305" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E305" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="306" spans="2:5">
-      <c r="B306" s="8">
-        <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D306" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E306" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="C211:E211"/>
     <mergeCell ref="C165:E165"/>
     <mergeCell ref="C166:E166"/>
     <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C199:E199"/>
+    <mergeCell ref="C197:E197"/>
     <mergeCell ref="C132:E132"/>
     <mergeCell ref="C180:E180"/>
     <mergeCell ref="C181:E181"/>
@@ -5456,26 +5395,26 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C292:E292"/>
-    <mergeCell ref="C293:E293"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="C290:E290"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C255:E255"/>
+    <mergeCell ref="C253:E253"/>
     <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C254:E254"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="C252:E252"/>
+    <mergeCell ref="C227:E227"/>
+    <mergeCell ref="C228:E228"/>
     <mergeCell ref="C83:E83"/>
     <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="C212:E212"/>
     <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C281:E281"/>
-    <mergeCell ref="C282:E282"/>
-    <mergeCell ref="C271:E271"/>
-    <mergeCell ref="C272:E272"/>
+    <mergeCell ref="C278:E278"/>
+    <mergeCell ref="C279:E279"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="C269:E269"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E274:E277 E150:E162 E35:E60 E168:E174 E257:E269 E284:E287 E295:E306 E25:E31 E201:E211 E86:E102 E232:E248 E135:E145 E216:E227 E65:E81 E9:E21 E107:E131 E183:E193">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E271:E274 E150:E162 E35:E60 E168:E174 E255:E266 E281:E284 E292:E302 E65:E81 E199:E209 E86:E102 E230:E246 E135:E145 E214:E225 E183:E189 E9:E21 E107:E131 E25:E31">
       <formula1>"△,○,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5485,14 +5424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/interview.xlsx
+++ b/doc/interview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15570" windowHeight="11640" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Question" sheetId="5" r:id="rId2"/>
     <sheet name="U-Boot" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="299">
   <si>
     <t>Name</t>
   </si>
@@ -1112,23 +1112,26 @@
     <t>r13(sp), r14(lr), r15(pc)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Describe the process of one program execute?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1136,7 +1139,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1144,7 +1147,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1152,7 +1155,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1160,7 +1163,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1168,7 +1171,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1176,7 +1179,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1184,7 +1187,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1193,7 +1196,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1201,7 +1204,7 @@
     <font>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1210,7 +1213,7 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1218,13 +1221,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1425,8 +1428,8 @@
   <cellStyles count="4">
     <cellStyle name="20% - 强调文字颜色 1" xfId="2" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
     <cellStyle name="警告文本" xfId="3" builtinId="11"/>
-    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1828,7 +1831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1836,19 +1839,19 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="83.125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" ht="15" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" ht="15" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1864,27 +1867,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" ht="15" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" ht="15" customHeight="1">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="24" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="14.45" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1893,32 +1896,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D284" sqref="D284"/>
+      <pane ySplit="3" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="62.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.25" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
@@ -1928,7 +1931,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
@@ -1938,7 +1941,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="9" t="s">
         <v>7</v>
@@ -1953,7 +1956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="B9" s="8">
         <v>1</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="B10" s="8">
         <f>B9+1</f>
         <v>2</v>
@@ -1982,7 +1985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="B11" s="8">
         <f t="shared" ref="B11:B19" si="0">B10+1</f>
         <v>3</v>
@@ -1995,7 +1998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2008,7 +2011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2021,7 +2024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="12"/>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
@@ -2035,7 +2038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2048,7 +2051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2061,7 +2064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2074,7 +2077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2084,7 +2087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2095,19 +2098,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" s="17"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" s="17"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
@@ -2117,7 +2120,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
@@ -2127,7 +2130,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
         <v>7</v>
@@ -2142,7 +2145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="B25" s="8">
         <v>1</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="22.5" customHeight="1">
       <c r="B26" s="8">
         <f>B25+1</f>
         <v>2</v>
@@ -2169,7 +2172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="45">
       <c r="B27" s="8">
         <f>B26+1</f>
         <v>3</v>
@@ -2182,31 +2185,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="B28" s="17"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" s="17"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="12" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" s="17"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="B32" s="14" t="s">
         <v>4</v>
       </c>
@@ -2216,7 +2219,7 @@
       <c r="D32" s="31"/>
       <c r="E32" s="32"/>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" ht="15" customHeight="1">
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
@@ -2226,7 +2229,7 @@
       <c r="D33" s="31"/>
       <c r="E33" s="32"/>
     </row>
-    <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" ht="15" customHeight="1">
       <c r="B35" s="8">
         <v>1</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" ht="15" customHeight="1">
       <c r="B36" s="8">
         <f>B35+1</f>
         <v>2</v>
@@ -2267,7 +2270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" ht="23.45" customHeight="1">
       <c r="B37" s="8">
         <f t="shared" ref="B37:B50" si="1">B36+1</f>
         <v>3</v>
@@ -2282,7 +2285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" ht="23.45" customHeight="1">
       <c r="B38" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2297,7 +2300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" ht="15" customHeight="1">
       <c r="B39" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2312,7 +2315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" ht="15" customHeight="1">
       <c r="B40" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2327,7 +2330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5">
       <c r="B41" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2342,7 +2345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5">
       <c r="B42" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2357,7 +2360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2372,7 +2375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5">
       <c r="B44" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2387,7 +2390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" ht="33.75">
       <c r="B45" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2402,7 +2405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5">
       <c r="B46" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2417,7 +2420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5">
       <c r="B47" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2432,7 +2435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5">
       <c r="B48" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2447,7 +2450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5">
       <c r="B49" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2462,7 +2465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="67.5">
       <c r="B50" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2477,7 +2480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5">
       <c r="B51" s="8">
         <f t="shared" ref="B51:B57" si="2">B50+1</f>
         <v>17</v>
@@ -2490,7 +2493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5">
       <c r="B52" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2505,7 +2508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5">
       <c r="B53" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2520,7 +2523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5">
       <c r="B54" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2535,7 +2538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5">
       <c r="B55" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2550,7 +2553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5">
       <c r="B56" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2565,7 +2568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5">
       <c r="B57" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2580,26 +2583,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5">
       <c r="B58" s="17"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5">
       <c r="B59" s="17"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5">
       <c r="B60" s="17"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="15" customHeight="1"/>
+    <row r="62" spans="2:5" ht="19.899999999999999" customHeight="1">
       <c r="B62" s="14" t="s">
         <v>4</v>
       </c>
@@ -2609,7 +2612,7 @@
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
     </row>
-    <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B63" s="15" t="s">
         <v>3</v>
       </c>
@@ -2619,7 +2622,7 @@
       <c r="D63" s="31"/>
       <c r="E63" s="32"/>
     </row>
-    <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B64" s="9" t="s">
         <v>7</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="24" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" s="24" customFormat="1" ht="90">
       <c r="B65" s="20">
         <v>1</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5">
       <c r="B66" s="8">
         <f>B65+1</f>
         <v>2</v>
@@ -2662,7 +2665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="22.5">
       <c r="B67" s="8">
         <f t="shared" ref="B67:B78" si="3">B66+1</f>
         <v>3</v>
@@ -2677,7 +2680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5">
       <c r="B68" s="8">
         <v>3.1</v>
       </c>
@@ -2691,7 +2694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="22.5">
       <c r="B69" s="8">
         <v>3.2</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5">
       <c r="B70" s="8">
         <v>3.3</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5">
       <c r="B71" s="8">
         <v>3.4</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:5" ht="22.5">
       <c r="B72" s="8">
         <v>4</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5">
       <c r="B73" s="8">
         <f>B72+1</f>
         <v>5</v>
@@ -2754,7 +2757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5">
       <c r="B74" s="8">
         <f>B73+1</f>
         <v>6</v>
@@ -2769,7 +2772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5">
       <c r="B75" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2784,7 +2787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5">
       <c r="B76" s="8">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2799,7 +2802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:5">
       <c r="B77" s="8">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2814,7 +2817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5">
       <c r="B78" s="8">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -2829,31 +2832,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5">
       <c r="B79" s="17"/>
       <c r="C79" s="25"/>
       <c r="D79" s="18"/>
       <c r="E79" s="22"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5">
       <c r="B80" s="17"/>
       <c r="C80" s="25"/>
       <c r="D80" s="18"/>
       <c r="E80" s="22"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:5">
       <c r="B81" s="17"/>
       <c r="C81" s="25"/>
       <c r="D81" s="18"/>
       <c r="E81" s="22"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:5">
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="19"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5">
       <c r="B83" s="14" t="s">
         <v>4</v>
       </c>
@@ -2863,7 +2866,7 @@
       <c r="D83" s="31"/>
       <c r="E83" s="32"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:5">
       <c r="B84" s="15" t="s">
         <v>3</v>
       </c>
@@ -2873,7 +2876,7 @@
       <c r="D84" s="31"/>
       <c r="E84" s="32"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:5">
       <c r="B85" s="9" t="s">
         <v>7</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:5" ht="22.5">
       <c r="B86" s="8">
         <v>1</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:5" ht="22.5">
       <c r="B87" s="8">
         <f>B86+1</f>
         <v>2</v>
@@ -2916,9 +2919,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:5">
       <c r="B88" s="8">
-        <f t="shared" ref="B88:B99" si="4">B87+1</f>
+        <f t="shared" ref="B88:B100" si="4">B87+1</f>
         <v>3</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -2929,7 +2932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:5">
       <c r="B89" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2944,7 +2947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:5">
       <c r="B90" s="8">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2959,7 +2962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5">
       <c r="B91" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2974,7 +2977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5">
       <c r="B92" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -2989,7 +2992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5">
       <c r="B93" s="8">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -3004,7 +3007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5">
       <c r="B94" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -3019,7 +3022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:5" ht="22.5">
       <c r="B95" s="8">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -3034,7 +3037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:5">
       <c r="B96" s="8">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -3049,7 +3052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:5">
       <c r="B97" s="8">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -3064,7 +3067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:5">
       <c r="B98" s="8">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -3077,7 +3080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:5">
       <c r="B99" s="8">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -3090,31 +3093,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="22"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:5">
+      <c r="B100" s="8">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="22"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:5">
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="22"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:5">
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
       <c r="E103" s="19"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:5">
       <c r="B104" s="14" t="s">
         <v>4</v>
       </c>
@@ -3124,7 +3134,7 @@
       <c r="D104" s="31"/>
       <c r="E104" s="32"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:5">
       <c r="B105" s="15" t="s">
         <v>3</v>
       </c>
@@ -3134,7 +3144,7 @@
       <c r="D105" s="27"/>
       <c r="E105" s="28"/>
     </row>
-    <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:5" ht="15" customHeight="1">
       <c r="B106" s="9" t="s">
         <v>7</v>
       </c>
@@ -3148,7 +3158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:5" ht="15" customHeight="1">
       <c r="B107" s="8">
         <v>1</v>
       </c>
@@ -3162,7 +3172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:5" ht="15" customHeight="1">
       <c r="B108" s="8">
         <f>B107+1</f>
         <v>2</v>
@@ -3175,7 +3185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:5">
       <c r="B109" s="8">
         <f t="shared" ref="B109:B121" si="5">B108+1</f>
         <v>3</v>
@@ -3188,7 +3198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:5">
       <c r="B110" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3201,7 +3211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:5">
       <c r="B111" s="8">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3214,7 +3224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:5">
       <c r="B112" s="8">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -3227,7 +3237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:5">
       <c r="B113" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3240,7 +3250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:5">
       <c r="B114" s="8">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -3253,7 +3263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:5">
       <c r="B115" s="8">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -3266,7 +3276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:5">
       <c r="B116" s="8">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -3279,7 +3289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:5">
       <c r="B117" s="8">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -3292,7 +3302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:5">
       <c r="B118" s="8">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -3307,7 +3317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:5">
       <c r="B119" s="8">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -3320,7 +3330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:5">
       <c r="B120" s="8">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -3333,7 +3343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="63" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:5" ht="67.5">
       <c r="B121" s="8">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -3348,7 +3358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:5" ht="33.75">
       <c r="B122" s="8">
         <f t="shared" ref="B122:B128" si="6">B121+1</f>
         <v>16</v>
@@ -3363,7 +3373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:5">
       <c r="B123" s="8">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -3376,7 +3386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:5" ht="22.5">
       <c r="B124" s="8">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -3389,7 +3399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:5">
       <c r="B125" s="8">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -3404,7 +3414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:5" ht="56.25">
       <c r="B126" s="8">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -3419,7 +3429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:5">
       <c r="B127" s="8">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -3432,7 +3442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:5">
       <c r="B128" s="8">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -3445,25 +3455,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:5">
       <c r="B129" s="17"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
       <c r="E129" s="22"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:5">
       <c r="B130" s="17"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="22"/>
     </row>
-    <row r="131" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:5" ht="12.75" customHeight="1">
       <c r="B131" s="17"/>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
       <c r="E131" s="22"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:5">
       <c r="B132" s="14" t="s">
         <v>4</v>
       </c>
@@ -3473,7 +3483,7 @@
       <c r="D132" s="31"/>
       <c r="E132" s="32"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:5">
       <c r="B133" s="15" t="s">
         <v>3</v>
       </c>
@@ -3483,7 +3493,7 @@
       <c r="D133" s="27"/>
       <c r="E133" s="28"/>
     </row>
-    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:5" ht="15" customHeight="1">
       <c r="B134" s="9" t="s">
         <v>7</v>
       </c>
@@ -3497,7 +3507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:5" ht="15" customHeight="1">
       <c r="B135" s="8">
         <v>1</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:5" ht="15" customHeight="1">
       <c r="B136" s="8">
         <f>B135+1</f>
         <v>2</v>
@@ -3524,7 +3534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:5">
       <c r="B137" s="8">
         <f t="shared" ref="B137:B139" si="7">B136+1</f>
         <v>3</v>
@@ -3537,7 +3547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:5" ht="56.25">
       <c r="B138" s="8">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -3552,7 +3562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:5">
       <c r="B139" s="8">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -3567,43 +3577,43 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:5">
       <c r="B140" s="17"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
       <c r="E140" s="22"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:5">
       <c r="B141" s="17"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
       <c r="E141" s="22"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:5">
       <c r="B142" s="17"/>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
       <c r="E142" s="22"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:5">
       <c r="B143" s="17"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
       <c r="E143" s="22"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:5">
       <c r="B144" s="17"/>
       <c r="C144" s="25"/>
       <c r="D144" s="25"/>
       <c r="E144" s="22"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:5">
       <c r="B145" s="17"/>
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
       <c r="E145" s="22"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:5">
       <c r="B147" s="14" t="s">
         <v>4</v>
       </c>
@@ -3613,7 +3623,7 @@
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:5">
       <c r="B148" s="15" t="s">
         <v>3</v>
       </c>
@@ -3623,7 +3633,7 @@
       <c r="D148" s="31"/>
       <c r="E148" s="32"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:5">
       <c r="B149" s="9" t="s">
         <v>7</v>
       </c>
@@ -3637,7 +3647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:5">
       <c r="B150" s="8">
         <v>1</v>
       </c>
@@ -3649,7 +3659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:5">
       <c r="B151" s="8">
         <f>B150+1</f>
         <v>2</v>
@@ -3662,7 +3672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:5">
       <c r="B152" s="8">
         <f>B151+1</f>
         <v>3</v>
@@ -3677,7 +3687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:5">
       <c r="B153" s="8">
         <f t="shared" ref="B153:B162" si="8">B152+1</f>
         <v>4</v>
@@ -3692,7 +3702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:5">
       <c r="B154" s="8">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3705,7 +3715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:5">
       <c r="B155" s="8">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -3718,7 +3728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:5">
       <c r="B156" s="8">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -3729,7 +3739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:5">
       <c r="B157" s="8">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -3744,7 +3754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:5" ht="22.5">
       <c r="B158" s="8">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -3757,7 +3767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:5">
       <c r="B159" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -3772,7 +3782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:5">
       <c r="B160" s="8">
         <f t="shared" si="8"/>
         <v>11</v>
@@ -3785,7 +3795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:5">
       <c r="B161" s="8">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -3798,7 +3808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:5">
       <c r="B162" s="8">
         <f t="shared" si="8"/>
         <v>13</v>
@@ -3809,7 +3819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:5">
       <c r="B165" s="14" t="s">
         <v>4</v>
       </c>
@@ -3819,7 +3829,7 @@
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:5">
       <c r="B166" s="15" t="s">
         <v>3</v>
       </c>
@@ -3829,7 +3839,7 @@
       <c r="D166" s="31"/>
       <c r="E166" s="32"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:5">
       <c r="B167" s="9" t="s">
         <v>7</v>
       </c>
@@ -3843,7 +3853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:5">
       <c r="B168" s="8">
         <v>1</v>
       </c>
@@ -3855,7 +3865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:5">
       <c r="B169" s="8">
         <f>B168+1</f>
         <v>2</v>
@@ -3868,7 +3878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:5" ht="45">
       <c r="B170" s="8">
         <f t="shared" ref="B170:B171" si="9">B169+1</f>
         <v>3</v>
@@ -3883,7 +3893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:5">
       <c r="B171" s="8">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -3896,7 +3906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:5">
       <c r="B172" s="8">
         <v>5</v>
       </c>
@@ -3908,7 +3918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:5">
       <c r="B173" s="8">
         <v>6</v>
       </c>
@@ -3918,7 +3928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:5">
       <c r="B174" s="8">
         <v>7</v>
       </c>
@@ -3928,7 +3938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:5">
       <c r="B175" s="8">
         <v>8</v>
       </c>
@@ -3936,7 +3946,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B176" s="8">
         <v>9</v>
       </c>
@@ -3944,26 +3954,26 @@
       <c r="D176" s="7"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B177" s="17"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="19"/>
     </row>
-    <row r="178" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B178" s="17"/>
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
       <c r="E178" s="19"/>
     </row>
-    <row r="179" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A180"/>
       <c r="B180" s="14" t="s">
         <v>4</v>
@@ -3974,7 +3984,7 @@
       <c r="D180" s="29"/>
       <c r="E180" s="29"/>
     </row>
-    <row r="181" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A181"/>
       <c r="B181" s="15" t="s">
         <v>3</v>
@@ -3985,7 +3995,7 @@
       <c r="D181" s="31"/>
       <c r="E181" s="32"/>
     </row>
-    <row r="182" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A182"/>
       <c r="B182" s="9" t="s">
         <v>7</v>
@@ -4000,7 +4010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A183"/>
       <c r="B183" s="8">
         <v>1</v>
@@ -4013,7 +4023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A184"/>
       <c r="B184" s="8">
         <f>B183+1</f>
@@ -4029,7 +4039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A185"/>
       <c r="B185" s="8">
         <f t="shared" ref="B185:B186" si="10">B184+1</f>
@@ -4045,7 +4055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A186"/>
       <c r="B186" s="8">
         <f t="shared" si="10"/>
@@ -4061,7 +4071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A187"/>
       <c r="B187" s="8">
         <v>5</v>
@@ -4074,7 +4084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A188"/>
       <c r="B188" s="8">
         <v>6</v>
@@ -4087,7 +4097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A189"/>
       <c r="B189" s="8">
         <v>7</v>
@@ -4098,7 +4108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A190"/>
       <c r="B190" s="8">
         <v>8</v>
@@ -4107,7 +4117,7 @@
       <c r="D190" s="7"/>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B191" s="8">
         <v>9</v>
       </c>
@@ -4115,32 +4125,32 @@
       <c r="D191" s="7"/>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B192" s="17"/>
       <c r="C192" s="18"/>
       <c r="D192" s="18"/>
       <c r="E192" s="19"/>
     </row>
-    <row r="193" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B193" s="17"/>
       <c r="C193" s="18"/>
       <c r="D193" s="18"/>
       <c r="E193" s="19"/>
     </row>
-    <row r="194" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B194" s="17"/>
       <c r="C194" s="18"/>
       <c r="D194" s="18"/>
       <c r="E194" s="19"/>
     </row>
-    <row r="195" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B195" s="17"/>
       <c r="C195" s="18"/>
       <c r="D195" s="18"/>
       <c r="E195" s="19"/>
     </row>
-    <row r="196" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1"/>
+    <row r="197" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B197" s="15" t="s">
         <v>3</v>
       </c>
@@ -4150,7 +4160,7 @@
       <c r="D197" s="31"/>
       <c r="E197" s="32"/>
     </row>
-    <row r="198" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B198" s="9" t="s">
         <v>7</v>
       </c>
@@ -4164,7 +4174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:5" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B199" s="8">
         <v>1</v>
       </c>
@@ -4178,7 +4188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:5" ht="22.5">
       <c r="B200" s="8">
         <f>B199+1</f>
         <v>2</v>
@@ -4193,7 +4203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:5" ht="33.75">
       <c r="B201" s="8">
         <f t="shared" ref="B201:B208" si="11">B200+1</f>
         <v>3</v>
@@ -4208,7 +4218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:5">
       <c r="B202" s="8">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -4223,7 +4233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:5" ht="22.5">
       <c r="B203" s="8">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4238,7 +4248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:5">
       <c r="B204" s="8">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -4253,7 +4263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:5" ht="33.75">
       <c r="B205" s="8">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -4268,7 +4278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:5">
       <c r="B206" s="8">
         <f t="shared" si="11"/>
         <v>8</v>
@@ -4283,7 +4293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:5">
       <c r="B207" s="8">
         <f t="shared" si="11"/>
         <v>9</v>
@@ -4294,7 +4304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:5">
       <c r="B208" s="8">
         <f t="shared" si="11"/>
         <v>10</v>
@@ -4305,13 +4315,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5">
       <c r="B209" s="17"/>
       <c r="C209" s="18"/>
       <c r="D209" s="18"/>
       <c r="E209" s="22"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5">
       <c r="A211" s="11"/>
       <c r="B211" s="14" t="s">
         <v>4</v>
@@ -4322,7 +4332,7 @@
       <c r="D211" s="29"/>
       <c r="E211" s="29"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5">
       <c r="A212" s="11"/>
       <c r="B212" s="15" t="s">
         <v>3</v>
@@ -4333,7 +4343,7 @@
       <c r="D212" s="31"/>
       <c r="E212" s="32"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:5">
       <c r="A213" s="11"/>
       <c r="B213" s="9" t="s">
         <v>7</v>
@@ -4348,7 +4358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5">
       <c r="A214" s="11"/>
       <c r="B214" s="8">
         <v>1</v>
@@ -4363,7 +4373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5">
       <c r="B215" s="8">
         <f>B214+1</f>
         <v>2</v>
@@ -4378,7 +4388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:5">
       <c r="B216" s="8">
         <f t="shared" ref="B216:B219" si="12">B215+1</f>
         <v>3</v>
@@ -4393,7 +4403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:5">
       <c r="B217" s="8">
         <f t="shared" si="12"/>
         <v>4</v>
@@ -4408,7 +4418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5">
       <c r="B218" s="8">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -4423,7 +4433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:5">
       <c r="B219" s="8">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -4438,7 +4448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:5">
       <c r="B220" s="8">
         <f t="shared" ref="B220:B224" si="13">B219+1</f>
         <v>7</v>
@@ -4453,7 +4463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5" ht="33.75">
       <c r="B221" s="8">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -4468,7 +4478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:5">
       <c r="B222" s="8">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4479,7 +4489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5">
       <c r="B223" s="8">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -4490,7 +4500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5">
       <c r="B224" s="8">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -4501,13 +4511,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:5">
       <c r="B225" s="17"/>
       <c r="C225" s="25"/>
       <c r="D225" s="18"/>
       <c r="E225" s="22"/>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:5">
       <c r="B227" s="14" t="s">
         <v>4</v>
       </c>
@@ -4517,7 +4527,7 @@
       <c r="D227" s="29"/>
       <c r="E227" s="29"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:5">
       <c r="B228" s="15" t="s">
         <v>3</v>
       </c>
@@ -4527,7 +4537,7 @@
       <c r="D228" s="31"/>
       <c r="E228" s="32"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:5">
       <c r="B229" s="9" t="s">
         <v>7</v>
       </c>
@@ -4541,7 +4551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:5">
       <c r="B230" s="8">
         <v>1</v>
       </c>
@@ -4553,7 +4563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:5">
       <c r="B231" s="8">
         <f>B230+1</f>
         <v>2</v>
@@ -4566,7 +4576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:5">
       <c r="B232" s="8">
         <f>B231+1</f>
         <v>3</v>
@@ -4579,7 +4589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:5">
       <c r="B233" s="8">
         <f t="shared" ref="B233:B249" si="14">B232+1</f>
         <v>4</v>
@@ -4592,7 +4602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:5">
       <c r="B234" s="8">
         <f t="shared" si="14"/>
         <v>5</v>
@@ -4605,7 +4615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:5">
       <c r="B235" s="8">
         <f t="shared" si="14"/>
         <v>6</v>
@@ -4620,7 +4630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:5">
       <c r="B236" s="8">
         <f t="shared" si="14"/>
         <v>7</v>
@@ -4635,7 +4645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:5">
       <c r="B237" s="8">
         <f t="shared" si="14"/>
         <v>8</v>
@@ -4650,7 +4660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:5">
       <c r="B238" s="8">
         <f t="shared" si="14"/>
         <v>9</v>
@@ -4665,7 +4675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:5" ht="22.5">
       <c r="B239" s="8">
         <f t="shared" si="14"/>
         <v>10</v>
@@ -4680,7 +4690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:5">
       <c r="B240" s="8">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -4695,7 +4705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:5" ht="67.5">
       <c r="B241" s="8">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -4710,7 +4720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:5" ht="45">
       <c r="B242" s="8">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -4725,7 +4735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:5">
       <c r="B243" s="8">
         <f t="shared" si="14"/>
         <v>14</v>
@@ -4738,7 +4748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:5" ht="33.75">
       <c r="B244" s="8">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -4753,7 +4763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="84" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:5" ht="90">
       <c r="B245" s="8">
         <f t="shared" si="14"/>
         <v>16</v>
@@ -4768,7 +4778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:5" ht="33.75">
       <c r="B246" s="8">
         <f t="shared" si="14"/>
         <v>17</v>
@@ -4783,7 +4793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:5">
       <c r="B247" s="8">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -4792,7 +4802,7 @@
       <c r="D247" s="7"/>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:5">
       <c r="B248" s="8">
         <f t="shared" si="14"/>
         <v>19</v>
@@ -4801,7 +4811,7 @@
       <c r="D248" s="7"/>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:5">
       <c r="B249" s="8">
         <f t="shared" si="14"/>
         <v>20</v>
@@ -4810,7 +4820,7 @@
       <c r="D249" s="7"/>
       <c r="E249" s="4"/>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:5">
       <c r="B252" s="14" t="s">
         <v>4</v>
       </c>
@@ -4820,7 +4830,7 @@
       <c r="D252" s="29"/>
       <c r="E252" s="29"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:5">
       <c r="B253" s="15" t="s">
         <v>3</v>
       </c>
@@ -4830,7 +4840,7 @@
       <c r="D253" s="31"/>
       <c r="E253" s="32"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:5">
       <c r="B254" s="9" t="s">
         <v>7</v>
       </c>
@@ -4844,7 +4854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:5" ht="33.75">
       <c r="B255" s="8">
         <v>1</v>
       </c>
@@ -4858,7 +4868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:5">
       <c r="B256" s="8">
         <f>B255+1</f>
         <v>2</v>
@@ -4869,7 +4879,7 @@
       <c r="D256" s="13"/>
       <c r="E256" s="21"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:5">
       <c r="B257" s="8">
         <f t="shared" ref="B257:B263" si="15">B256+1</f>
         <v>3</v>
@@ -4882,7 +4892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:5">
       <c r="B258" s="8">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -4897,7 +4907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:5">
       <c r="B259" s="8">
         <f t="shared" si="15"/>
         <v>5</v>
@@ -4910,7 +4920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:5">
       <c r="B260" s="8">
         <f t="shared" si="15"/>
         <v>6</v>
@@ -4923,7 +4933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:5">
       <c r="B261" s="8">
         <f t="shared" si="15"/>
         <v>7</v>
@@ -4936,7 +4946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:5">
       <c r="B262" s="8">
         <f t="shared" si="15"/>
         <v>8</v>
@@ -4951,7 +4961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:5" ht="45">
       <c r="B263" s="8">
         <f t="shared" si="15"/>
         <v>9</v>
@@ -4966,31 +4976,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:5">
       <c r="B264" s="17"/>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
       <c r="E264" s="22"/>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:5">
       <c r="B265" s="17"/>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
       <c r="E265" s="22"/>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:5">
       <c r="B266" s="17"/>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
       <c r="E266" s="22"/>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:5">
       <c r="B267" s="17"/>
       <c r="C267" s="18"/>
       <c r="D267" s="18"/>
       <c r="E267" s="19"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:5">
       <c r="B268" s="14" t="s">
         <v>4</v>
       </c>
@@ -5000,7 +5010,7 @@
       <c r="D268" s="29"/>
       <c r="E268" s="29"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:5">
       <c r="B269" s="15" t="s">
         <v>3</v>
       </c>
@@ -5010,7 +5020,7 @@
       <c r="D269" s="31"/>
       <c r="E269" s="32"/>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:5">
       <c r="B270" s="9" t="s">
         <v>7</v>
       </c>
@@ -5024,7 +5034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:5">
       <c r="B271" s="8">
         <v>1</v>
       </c>
@@ -5038,7 +5048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:5">
       <c r="B272" s="8">
         <f>B271+1</f>
         <v>2</v>
@@ -5053,7 +5063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:5">
       <c r="B273" s="8">
         <f t="shared" ref="B273:B274" si="16">B272+1</f>
         <v>3</v>
@@ -5068,7 +5078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:5">
       <c r="B274" s="8">
         <f t="shared" si="16"/>
         <v>4</v>
@@ -5083,13 +5093,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:5">
       <c r="B277" s="17"/>
       <c r="C277" s="18"/>
       <c r="D277" s="18"/>
       <c r="E277" s="19"/>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:5">
       <c r="B278" s="14" t="s">
         <v>4</v>
       </c>
@@ -5099,7 +5109,7 @@
       <c r="D278" s="29"/>
       <c r="E278" s="29"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:5">
       <c r="B279" s="15" t="s">
         <v>3</v>
       </c>
@@ -5109,7 +5119,7 @@
       <c r="D279" s="31"/>
       <c r="E279" s="32"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:5">
       <c r="B280" s="9" t="s">
         <v>7</v>
       </c>
@@ -5123,7 +5133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:5" ht="45">
       <c r="B281" s="8">
         <v>1</v>
       </c>
@@ -5137,7 +5147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:5">
       <c r="B282" s="8">
         <f>B281+1</f>
         <v>2</v>
@@ -5152,7 +5162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:5">
       <c r="B283" s="8">
         <f t="shared" ref="B283:B284" si="17">B282+1</f>
         <v>3</v>
@@ -5165,7 +5175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:5">
       <c r="B284" s="8">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -5180,7 +5190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:5">
       <c r="B289" s="14" t="s">
         <v>4</v>
       </c>
@@ -5190,7 +5200,7 @@
       <c r="D289" s="29"/>
       <c r="E289" s="29"/>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:5">
       <c r="B290" s="15" t="s">
         <v>3</v>
       </c>
@@ -5200,7 +5210,7 @@
       <c r="D290" s="31"/>
       <c r="E290" s="32"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:5">
       <c r="B291" s="9" t="s">
         <v>7</v>
       </c>
@@ -5214,7 +5224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:5">
       <c r="B292" s="8">
         <v>1</v>
       </c>
@@ -5228,7 +5238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:5">
       <c r="B293" s="8">
         <f>B292+1</f>
         <v>2</v>
@@ -5243,7 +5253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:5">
       <c r="B294" s="8">
         <f t="shared" ref="B294:B302" si="18">B293+1</f>
         <v>3</v>
@@ -5258,7 +5268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:5">
       <c r="B295" s="8">
         <f t="shared" si="18"/>
         <v>4</v>
@@ -5273,7 +5283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:5">
       <c r="B296" s="8">
         <f t="shared" si="18"/>
         <v>5</v>
@@ -5288,7 +5298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:5">
       <c r="B297" s="8">
         <f t="shared" si="18"/>
         <v>6</v>
@@ -5303,7 +5313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:5">
       <c r="B298" s="8">
         <f t="shared" si="18"/>
         <v>7</v>
@@ -5318,7 +5328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:5" ht="22.5">
       <c r="B299" s="8">
         <f t="shared" si="18"/>
         <v>8</v>
@@ -5333,7 +5343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:5">
       <c r="B300" s="8">
         <f t="shared" si="18"/>
         <v>9</v>
@@ -5348,7 +5358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:5">
       <c r="B301" s="8">
         <f t="shared" si="18"/>
         <v>10</v>
@@ -5363,7 +5373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:5">
       <c r="B302" s="8">
         <f t="shared" si="18"/>
         <v>11</v>
@@ -5380,21 +5390,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="C181:E181"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C289:E289"/>
     <mergeCell ref="C290:E290"/>
     <mergeCell ref="C33:E33"/>
@@ -5411,10 +5406,25 @@
     <mergeCell ref="C279:E279"/>
     <mergeCell ref="C268:E268"/>
     <mergeCell ref="C269:E269"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="C181:E181"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E271:E274 E150:E162 E35:E60 E168:E174 E255:E266 E281:E284 E292:E302 E65:E81 E199:E209 E86:E102 E230:E246 E135:E145 E214:E225 E183:E189 E9:E21 E107:E131 E25:E31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E271:E274 E150:E162 E35:E60 E168:E174 E255:E266 E281:E284 E292:E302 E65:E81 E199:E209 E25:E31 E230:E246 E135:E145 E214:E225 E183:E189 E9:E21 E107:E131 E86:E102">
       <formula1>"△,○,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5424,14 +5434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
